--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
@@ -2445,9 +2445,138 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2484,15 +2613,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2520,104 +2640,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2628,69 +2712,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2700,6 +2721,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2709,86 +2811,185 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2799,178 +3000,64 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2987,93 +3074,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3200,7 +3200,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6152,12 +6152,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="169" t="str">
+      <c r="I25" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
       <c r="L25" s="108"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
@@ -6744,147 +6744,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="173" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="170" t="s">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="200" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="202"/>
       <c r="AK1" s="96"/>
       <c r="AL1" s="96"/>
       <c r="AM1" s="96"/>
       <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="170" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="200" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="200" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
       <c r="AK2" s="96"/>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="200"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="202"/>
       <c r="AK3" s="96"/>
       <c r="AL3" s="96"/>
       <c r="AM3" s="96"/>
@@ -6981,36 +6981,36 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="226"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="225"/>
-      <c r="S8" s="225"/>
-      <c r="T8" s="225"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="225"/>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="226"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
       <c r="AF8" s="112"/>
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
@@ -7019,36 +7019,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="138"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="214"/>
-      <c r="AB9" s="214"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="214"/>
-      <c r="AE9" s="215"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="87"/>
       <c r="AG9" s="88"/>
       <c r="AH9" s="88"/>
@@ -7057,36 +7057,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="138"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="214"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="214"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="215"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
       <c r="AF10" s="87"/>
       <c r="AG10" s="88"/>
       <c r="AH10" s="88"/>
@@ -7094,36 +7094,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="138"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="214"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="214"/>
-      <c r="AB11" s="214"/>
-      <c r="AC11" s="214"/>
-      <c r="AD11" s="214"/>
-      <c r="AE11" s="215"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
       <c r="AF11" s="87"/>
       <c r="AG11" s="88"/>
       <c r="AH11" s="88"/>
@@ -7131,36 +7131,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="138"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="214"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="214"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="215"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
       <c r="AF12" s="87"/>
       <c r="AG12" s="88"/>
       <c r="AH12" s="88"/>
@@ -7168,36 +7168,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="138"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="215"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
       <c r="AF13" s="87"/>
       <c r="AG13" s="88"/>
       <c r="AH13" s="88"/>
@@ -7945,49 +7945,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7998,6 +7955,49 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -8154,157 +8154,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="182" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="242" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="232" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="230" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="227" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="229"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="182" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="230" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="227" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="229"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="182" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="231"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="227" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="229"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:35" s="98" customFormat="1" ht="19.5" customHeight="1">
       <c r="AC4" s="139"/>
@@ -9638,6 +9638,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9648,13 +9655,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9681,157 +9681,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="182" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="173" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="232" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="170" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="227" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="229"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="182" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="170" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="227" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="229"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="182" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="227" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="229"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="52"/>
@@ -9919,12 +9919,12 @@
       <c r="AI6" s="104"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="260"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="266"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -9937,76 +9937,76 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="262" t="s">
+      <c r="Q7" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="263"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="255"/>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="256"/>
+      <c r="R7" s="283"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="288"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="290"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="260"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="258"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="258"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="258"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="258"/>
-      <c r="Q8" s="251" t="s">
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="280"/>
+      <c r="Q8" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="260"/>
-      <c r="S8" s="260"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="258"/>
-      <c r="W8" s="258"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="258"/>
-      <c r="Z8" s="258"/>
-      <c r="AA8" s="258"/>
-      <c r="AB8" s="258"/>
-      <c r="AC8" s="258"/>
-      <c r="AD8" s="258"/>
-      <c r="AE8" s="258"/>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="258"/>
-      <c r="AI8" s="259"/>
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="279"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="280"/>
+      <c r="AF8" s="280"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="280"/>
+      <c r="AI8" s="281"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="260"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="266"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10190,12 +10190,12 @@
       <c r="AI13" s="48"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="251" t="s">
+      <c r="A14" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="252"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="253"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="260"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -10340,12 +10340,12 @@
       <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="265" t="s">
+      <c r="A18" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="266"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="267"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="16"/>
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
@@ -10358,12 +10358,12 @@
       <c r="N18" s="23"/>
       <c r="O18" s="17"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="265" t="s">
+      <c r="Q18" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="266"/>
-      <c r="S18" s="266"/>
-      <c r="T18" s="267"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="278"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -10463,53 +10463,53 @@
       <c r="AI20" s="20"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="251" t="s">
+      <c r="A21" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="258"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="251" t="s">
+      <c r="B21" s="265"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="281"/>
+      <c r="Q21" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="260"/>
-      <c r="S21" s="260"/>
-      <c r="T21" s="261"/>
-      <c r="U21" s="257"/>
-      <c r="V21" s="258"/>
-      <c r="W21" s="258"/>
-      <c r="X21" s="258"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
-      <c r="AA21" s="258"/>
-      <c r="AB21" s="258"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="258"/>
-      <c r="AF21" s="258"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="259"/>
+      <c r="R21" s="265"/>
+      <c r="S21" s="265"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="280"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="281"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="262" t="s">
+      <c r="A22" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="263"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="264"/>
+      <c r="B22" s="283"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="284"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -10522,12 +10522,12 @@
       <c r="N22" s="27"/>
       <c r="O22" s="15"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="262" t="s">
+      <c r="Q22" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="263"/>
-      <c r="S22" s="263"/>
-      <c r="T22" s="264"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="284"/>
       <c r="U22" s="63"/>
       <c r="V22" s="27"/>
       <c r="W22" s="15"/>
@@ -10590,34 +10590,34 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="281" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="283"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="258"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="258"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="258"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="268" t="s">
+      <c r="B24" s="274"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="269"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="270"/>
-      <c r="U24" s="273"/>
-      <c r="V24" s="274"/>
-      <c r="W24" s="274"/>
-      <c r="X24" s="274"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="263"/>
+      <c r="V24" s="264"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
       <c r="Y24" s="21" t="s">
         <v>50</v>
       </c>
@@ -10633,26 +10633,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="279"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="25"/>
       <c r="F25" s="46"/>
       <c r="G25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="271"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="272"/>
-      <c r="K25" s="272"/>
-      <c r="L25" s="272"/>
-      <c r="M25" s="272"/>
-      <c r="N25" s="272"/>
-      <c r="O25" s="272"/>
-      <c r="P25" s="272"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
+      <c r="O25" s="262"/>
+      <c r="P25" s="262"/>
       <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10661,15 +10661,15 @@
       <c r="T25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="280"/>
-      <c r="V25" s="280"/>
-      <c r="W25" s="280"/>
-      <c r="X25" s="280"/>
-      <c r="Y25" s="280"/>
-      <c r="Z25" s="280"/>
-      <c r="AA25" s="280"/>
-      <c r="AB25" s="280"/>
-      <c r="AC25" s="280"/>
+      <c r="U25" s="272"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="272"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="272"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="272"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="272"/>
       <c r="AD25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10689,15 +10689,15 @@
       <c r="G26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="276"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
-      <c r="L26" s="276"/>
-      <c r="M26" s="276"/>
-      <c r="N26" s="276"/>
-      <c r="O26" s="276"/>
-      <c r="P26" s="276"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="268"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
       <c r="Q26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10706,15 +10706,15 @@
       <c r="T26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="276"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="276"/>
-      <c r="X26" s="276"/>
-      <c r="Y26" s="276"/>
-      <c r="Z26" s="276"/>
-      <c r="AA26" s="276"/>
-      <c r="AB26" s="276"/>
-      <c r="AC26" s="276"/>
+      <c r="U26" s="268"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="268"/>
+      <c r="X26" s="268"/>
+      <c r="Y26" s="268"/>
+      <c r="Z26" s="268"/>
+      <c r="AA26" s="268"/>
+      <c r="AB26" s="268"/>
+      <c r="AC26" s="268"/>
       <c r="AD26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10734,15 +10734,15 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="275"/>
-      <c r="I27" s="275"/>
-      <c r="J27" s="275"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="275"/>
-      <c r="M27" s="275"/>
-      <c r="N27" s="275"/>
-      <c r="O27" s="275"/>
-      <c r="P27" s="275"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
+      <c r="N27" s="267"/>
+      <c r="O27" s="267"/>
+      <c r="P27" s="267"/>
       <c r="Q27" s="31" t="s">
         <v>7</v>
       </c>
@@ -10751,31 +10751,31 @@
       <c r="T27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="275"/>
-      <c r="V27" s="275"/>
-      <c r="W27" s="275"/>
-      <c r="X27" s="275"/>
-      <c r="Y27" s="275"/>
-      <c r="Z27" s="275"/>
-      <c r="AA27" s="275"/>
-      <c r="AB27" s="275"/>
-      <c r="AC27" s="275"/>
-      <c r="AD27" s="275"/>
-      <c r="AE27" s="275"/>
-      <c r="AF27" s="275"/>
-      <c r="AG27" s="275"/>
-      <c r="AH27" s="275"/>
+      <c r="U27" s="267"/>
+      <c r="V27" s="267"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="267"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
       <c r="AI27" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="251" t="s">
+      <c r="A28" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="252"/>
-      <c r="C28" s="252"/>
-      <c r="D28" s="253"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="259"/>
+      <c r="D28" s="260"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -10921,13 +10921,33 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10940,33 +10960,13 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11641,157 +11641,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="182" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="173" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="232" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="170" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="227" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="229"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="182" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="170" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="227" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="229"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="182" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="227" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="229"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
@@ -11914,461 +11914,461 @@
       <c r="AU6" s="104"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="284" t="s">
+      <c r="A7" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="285"/>
-      <c r="Q7" s="285"/>
-      <c r="R7" s="285"/>
-      <c r="S7" s="285"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="285"/>
-      <c r="V7" s="285"/>
-      <c r="W7" s="285"/>
-      <c r="X7" s="285"/>
-      <c r="Y7" s="285"/>
-      <c r="Z7" s="285"/>
-      <c r="AA7" s="285"/>
-      <c r="AB7" s="286"/>
-      <c r="AC7" s="288" t="s">
+      <c r="B7" s="352"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="352"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="352"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="352"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="352"/>
+      <c r="M7" s="352"/>
+      <c r="N7" s="352"/>
+      <c r="O7" s="352"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="352"/>
+      <c r="R7" s="352"/>
+      <c r="S7" s="352"/>
+      <c r="T7" s="352"/>
+      <c r="U7" s="352"/>
+      <c r="V7" s="352"/>
+      <c r="W7" s="352"/>
+      <c r="X7" s="352"/>
+      <c r="Y7" s="352"/>
+      <c r="Z7" s="352"/>
+      <c r="AA7" s="352"/>
+      <c r="AB7" s="353"/>
+      <c r="AC7" s="355" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="285"/>
-      <c r="AE7" s="285"/>
-      <c r="AF7" s="285"/>
-      <c r="AG7" s="285"/>
-      <c r="AH7" s="285"/>
-      <c r="AI7" s="287"/>
-    </row>
-    <row r="8" spans="1:47" s="366" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="355" t="s">
+      <c r="AD7" s="352"/>
+      <c r="AE7" s="352"/>
+      <c r="AF7" s="352"/>
+      <c r="AG7" s="352"/>
+      <c r="AH7" s="352"/>
+      <c r="AI7" s="356"/>
+    </row>
+    <row r="8" spans="1:47" s="170" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A8" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="356" t="s">
+      <c r="B8" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="356" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="357"/>
-      <c r="I8" s="358"/>
-      <c r="J8" s="356" t="s">
+      <c r="H8" s="345"/>
+      <c r="I8" s="346"/>
+      <c r="J8" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="357"/>
-      <c r="L8" s="357"/>
-      <c r="M8" s="357"/>
-      <c r="N8" s="357"/>
-      <c r="O8" s="357"/>
-      <c r="P8" s="358"/>
-      <c r="Q8" s="359" t="s">
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="342" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="360"/>
-      <c r="S8" s="359" t="s">
+      <c r="R8" s="343"/>
+      <c r="S8" s="342" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="361"/>
-      <c r="U8" s="360"/>
-      <c r="V8" s="356" t="s">
+      <c r="T8" s="354"/>
+      <c r="U8" s="343"/>
+      <c r="V8" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="357"/>
-      <c r="X8" s="357"/>
-      <c r="Y8" s="357"/>
-      <c r="Z8" s="357"/>
-      <c r="AA8" s="357"/>
-      <c r="AB8" s="362"/>
-      <c r="AC8" s="363" t="s">
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="350"/>
+      <c r="AC8" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="364"/>
-      <c r="AE8" s="364"/>
-      <c r="AF8" s="364"/>
-      <c r="AG8" s="364"/>
-      <c r="AH8" s="365" t="s">
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="358"/>
+      <c r="AF8" s="358"/>
+      <c r="AG8" s="358"/>
+      <c r="AH8" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="365"/>
+      <c r="AI8" s="291"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="166">
         <v>1</v>
       </c>
-      <c r="B9" s="329"/>
-      <c r="C9" s="330"/>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="329"/>
-      <c r="K9" s="330"/>
-      <c r="L9" s="330"/>
-      <c r="M9" s="330"/>
-      <c r="N9" s="330"/>
-      <c r="O9" s="330"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="295"/>
-      <c r="T9" s="332"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="329"/>
-      <c r="W9" s="330"/>
-      <c r="X9" s="330"/>
-      <c r="Y9" s="330"/>
-      <c r="Z9" s="330"/>
-      <c r="AA9" s="330"/>
-      <c r="AB9" s="331"/>
-      <c r="AC9" s="324" t="s">
+      <c r="B9" s="295"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="347"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="313"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="341"/>
+      <c r="AC9" s="338" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="329"/>
-      <c r="AE9" s="330"/>
-      <c r="AF9" s="330"/>
-      <c r="AG9" s="333"/>
-      <c r="AH9" s="340"/>
-      <c r="AI9" s="341"/>
+      <c r="AD9" s="295"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296"/>
+      <c r="AG9" s="297"/>
+      <c r="AH9" s="307"/>
+      <c r="AI9" s="308"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="166">
         <v>2</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="291"/>
-      <c r="K10" s="292"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="293"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="290"/>
-      <c r="S10" s="289"/>
-      <c r="T10" s="294"/>
-      <c r="U10" s="290"/>
-      <c r="V10" s="291"/>
-      <c r="W10" s="292"/>
-      <c r="X10" s="292"/>
-      <c r="Y10" s="292"/>
-      <c r="Z10" s="292"/>
-      <c r="AA10" s="292"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="317"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
+      <c r="U10" s="317"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
+      <c r="Y10" s="299"/>
+      <c r="Z10" s="299"/>
+      <c r="AA10" s="299"/>
       <c r="AB10" s="306"/>
-      <c r="AC10" s="325"/>
-      <c r="AD10" s="291"/>
-      <c r="AE10" s="292"/>
-      <c r="AF10" s="292"/>
-      <c r="AG10" s="293"/>
-      <c r="AH10" s="327"/>
-      <c r="AI10" s="328"/>
+      <c r="AC10" s="339"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="299"/>
+      <c r="AF10" s="299"/>
+      <c r="AG10" s="300"/>
+      <c r="AH10" s="304"/>
+      <c r="AI10" s="305"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="166">
         <v>3</v>
       </c>
-      <c r="B11" s="291"/>
-      <c r="C11" s="292"/>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="293"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="292"/>
-      <c r="L11" s="292"/>
-      <c r="M11" s="292"/>
-      <c r="N11" s="292"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="290"/>
-      <c r="S11" s="289"/>
-      <c r="T11" s="294"/>
-      <c r="U11" s="290"/>
-      <c r="V11" s="291"/>
-      <c r="W11" s="292"/>
-      <c r="X11" s="292"/>
-      <c r="Y11" s="292"/>
-      <c r="Z11" s="292"/>
-      <c r="AA11" s="292"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="320"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="315"/>
+      <c r="R11" s="317"/>
+      <c r="S11" s="315"/>
+      <c r="T11" s="316"/>
+      <c r="U11" s="317"/>
+      <c r="V11" s="298"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
+      <c r="Y11" s="299"/>
+      <c r="Z11" s="299"/>
+      <c r="AA11" s="299"/>
       <c r="AB11" s="306"/>
-      <c r="AC11" s="325"/>
-      <c r="AD11" s="337"/>
-      <c r="AE11" s="338"/>
-      <c r="AF11" s="338"/>
-      <c r="AG11" s="339"/>
-      <c r="AH11" s="327"/>
-      <c r="AI11" s="328"/>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="301"/>
+      <c r="AE11" s="302"/>
+      <c r="AF11" s="302"/>
+      <c r="AG11" s="303"/>
+      <c r="AH11" s="304"/>
+      <c r="AI11" s="305"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="166">
         <v>4</v>
       </c>
-      <c r="B12" s="291"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="292"/>
-      <c r="E12" s="292"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="297"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="292"/>
-      <c r="L12" s="292"/>
-      <c r="M12" s="292"/>
-      <c r="N12" s="292"/>
-      <c r="O12" s="292"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="290"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="294"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="291"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
-      <c r="AA12" s="292"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="315"/>
+      <c r="R12" s="317"/>
+      <c r="S12" s="315"/>
+      <c r="T12" s="316"/>
+      <c r="U12" s="317"/>
+      <c r="V12" s="298"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
+      <c r="Y12" s="299"/>
+      <c r="Z12" s="299"/>
+      <c r="AA12" s="299"/>
       <c r="AB12" s="306"/>
-      <c r="AC12" s="325"/>
-      <c r="AD12" s="337"/>
-      <c r="AE12" s="338"/>
-      <c r="AF12" s="338"/>
-      <c r="AG12" s="339"/>
-      <c r="AH12" s="327"/>
-      <c r="AI12" s="328"/>
+      <c r="AC12" s="339"/>
+      <c r="AD12" s="301"/>
+      <c r="AE12" s="302"/>
+      <c r="AF12" s="302"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="304"/>
+      <c r="AI12" s="305"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="166">
         <v>5</v>
       </c>
-      <c r="B13" s="316"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="317"/>
-      <c r="E13" s="317"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="292"/>
-      <c r="M13" s="292"/>
-      <c r="N13" s="292"/>
-      <c r="O13" s="292"/>
-      <c r="P13" s="293"/>
-      <c r="Q13" s="289"/>
-      <c r="R13" s="290"/>
-      <c r="S13" s="289"/>
-      <c r="T13" s="294"/>
-      <c r="U13" s="290"/>
-      <c r="V13" s="291"/>
-      <c r="W13" s="292"/>
-      <c r="X13" s="292"/>
-      <c r="Y13" s="292"/>
-      <c r="Z13" s="292"/>
-      <c r="AA13" s="292"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
+      <c r="U13" s="317"/>
+      <c r="V13" s="298"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
+      <c r="Y13" s="299"/>
+      <c r="Z13" s="299"/>
+      <c r="AA13" s="299"/>
       <c r="AB13" s="306"/>
-      <c r="AC13" s="325"/>
-      <c r="AD13" s="337"/>
-      <c r="AE13" s="338"/>
-      <c r="AF13" s="338"/>
-      <c r="AG13" s="339"/>
-      <c r="AH13" s="327"/>
-      <c r="AI13" s="328"/>
+      <c r="AC13" s="339"/>
+      <c r="AD13" s="301"/>
+      <c r="AE13" s="302"/>
+      <c r="AF13" s="302"/>
+      <c r="AG13" s="303"/>
+      <c r="AH13" s="304"/>
+      <c r="AI13" s="305"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="166">
         <v>6</v>
       </c>
-      <c r="B14" s="316"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="317"/>
-      <c r="E14" s="317"/>
-      <c r="F14" s="318"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="292"/>
-      <c r="L14" s="292"/>
-      <c r="M14" s="292"/>
-      <c r="N14" s="292"/>
-      <c r="O14" s="292"/>
-      <c r="P14" s="293"/>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="290"/>
-      <c r="S14" s="289"/>
-      <c r="T14" s="294"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="291"/>
-      <c r="W14" s="292"/>
-      <c r="X14" s="292"/>
-      <c r="Y14" s="292"/>
-      <c r="Z14" s="292"/>
-      <c r="AA14" s="292"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="317"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
+      <c r="U14" s="317"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
+      <c r="Y14" s="299"/>
+      <c r="Z14" s="299"/>
+      <c r="AA14" s="299"/>
       <c r="AB14" s="306"/>
-      <c r="AC14" s="325"/>
-      <c r="AD14" s="337"/>
-      <c r="AE14" s="338"/>
-      <c r="AF14" s="338"/>
-      <c r="AG14" s="339"/>
-      <c r="AH14" s="327"/>
-      <c r="AI14" s="328"/>
+      <c r="AC14" s="339"/>
+      <c r="AD14" s="301"/>
+      <c r="AE14" s="302"/>
+      <c r="AF14" s="302"/>
+      <c r="AG14" s="303"/>
+      <c r="AH14" s="304"/>
+      <c r="AI14" s="305"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="167">
         <v>7</v>
       </c>
-      <c r="B15" s="316"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="291"/>
-      <c r="K15" s="292"/>
-      <c r="L15" s="292"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="292"/>
-      <c r="O15" s="292"/>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="294"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="291"/>
-      <c r="W15" s="292"/>
-      <c r="X15" s="292"/>
-      <c r="Y15" s="292"/>
-      <c r="Z15" s="292"/>
-      <c r="AA15" s="292"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="315"/>
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
+      <c r="Y15" s="299"/>
+      <c r="Z15" s="299"/>
+      <c r="AA15" s="299"/>
       <c r="AB15" s="306"/>
-      <c r="AC15" s="325"/>
-      <c r="AD15" s="337"/>
-      <c r="AE15" s="338"/>
-      <c r="AF15" s="338"/>
-      <c r="AG15" s="339"/>
-      <c r="AH15" s="327"/>
-      <c r="AI15" s="328"/>
+      <c r="AC15" s="339"/>
+      <c r="AD15" s="301"/>
+      <c r="AE15" s="302"/>
+      <c r="AF15" s="302"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="304"/>
+      <c r="AI15" s="305"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="167">
         <v>8</v>
       </c>
-      <c r="B16" s="316"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="317"/>
-      <c r="F16" s="318"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="292"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="292"/>
-      <c r="L16" s="292"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="292"/>
-      <c r="O16" s="292"/>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="289"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="289"/>
-      <c r="T16" s="294"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="291"/>
-      <c r="W16" s="292"/>
-      <c r="X16" s="292"/>
-      <c r="Y16" s="292"/>
-      <c r="Z16" s="292"/>
-      <c r="AA16" s="292"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="315"/>
+      <c r="R16" s="317"/>
+      <c r="S16" s="315"/>
+      <c r="T16" s="316"/>
+      <c r="U16" s="317"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="299"/>
+      <c r="X16" s="299"/>
+      <c r="Y16" s="299"/>
+      <c r="Z16" s="299"/>
+      <c r="AA16" s="299"/>
       <c r="AB16" s="306"/>
-      <c r="AC16" s="325"/>
-      <c r="AD16" s="337"/>
-      <c r="AE16" s="338"/>
-      <c r="AF16" s="338"/>
-      <c r="AG16" s="339"/>
-      <c r="AH16" s="327"/>
-      <c r="AI16" s="328"/>
+      <c r="AC16" s="339"/>
+      <c r="AD16" s="301"/>
+      <c r="AE16" s="302"/>
+      <c r="AF16" s="302"/>
+      <c r="AG16" s="303"/>
+      <c r="AH16" s="304"/>
+      <c r="AI16" s="305"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="168">
         <v>9</v>
       </c>
-      <c r="B17" s="319"/>
-      <c r="C17" s="320"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="320"/>
-      <c r="F17" s="321"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="315"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="308"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="308"/>
-      <c r="P17" s="315"/>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="314"/>
-      <c r="S17" s="312"/>
-      <c r="T17" s="313"/>
-      <c r="U17" s="314"/>
-      <c r="V17" s="307"/>
-      <c r="W17" s="308"/>
-      <c r="X17" s="308"/>
-      <c r="Y17" s="308"/>
-      <c r="Z17" s="308"/>
-      <c r="AA17" s="308"/>
-      <c r="AB17" s="309"/>
-      <c r="AC17" s="326"/>
-      <c r="AD17" s="334"/>
-      <c r="AE17" s="335"/>
-      <c r="AF17" s="335"/>
-      <c r="AG17" s="336"/>
-      <c r="AH17" s="322"/>
-      <c r="AI17" s="323"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="332"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="331"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="340"/>
+      <c r="AD17" s="292"/>
+      <c r="AE17" s="293"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="336"/>
+      <c r="AI17" s="337"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="310"/>
-      <c r="B18" s="311"/>
-      <c r="C18" s="311"/>
-      <c r="D18" s="311"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="311"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="328"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12392,23 +12392,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="305"/>
-      <c r="AE18" s="305"/>
-      <c r="AF18" s="305"/>
-      <c r="AG18" s="305"/>
-      <c r="AH18" s="305"/>
+      <c r="AD18" s="323"/>
+      <c r="AE18" s="323"/>
+      <c r="AF18" s="323"/>
+      <c r="AG18" s="323"/>
+      <c r="AH18" s="323"/>
       <c r="AI18" s="105"/>
       <c r="AJ18" s="43"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="303" t="s">
+      <c r="A19" s="321" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="304"/>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
       <c r="G19" s="119"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -13147,46 +13147,45 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="AD18:AH18"/>
     <mergeCell ref="V15:AB15"/>
@@ -13211,45 +13210,46 @@
     <mergeCell ref="V11:AB11"/>
     <mergeCell ref="V9:AB9"/>
     <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -13288,157 +13288,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="182" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="173" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="232" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="170" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="227" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="229"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="182" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="170" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="227" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="229"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="182" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="239"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="227" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="229"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:103" ht="11.25"/>
     <row r="5" spans="1:103" ht="11.25">
@@ -13455,173 +13455,173 @@
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
     </row>
-    <row r="7" spans="1:103" s="376" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="369" t="s">
+    <row r="7" spans="1:103" s="173" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="367" t="s">
+      <c r="B7" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="370"/>
-      <c r="D7" s="370"/>
-      <c r="E7" s="370"/>
-      <c r="F7" s="368"/>
-      <c r="G7" s="367" t="s">
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="359" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="370"/>
-      <c r="I7" s="370"/>
-      <c r="J7" s="370"/>
-      <c r="K7" s="368"/>
-      <c r="L7" s="367" t="s">
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="359" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="370"/>
-      <c r="N7" s="370"/>
-      <c r="O7" s="370"/>
-      <c r="P7" s="368"/>
-      <c r="Q7" s="371" t="s">
+      <c r="M7" s="360"/>
+      <c r="N7" s="360"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="372" t="s">
+      <c r="R7" s="362" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="372"/>
-      <c r="T7" s="372"/>
-      <c r="U7" s="372"/>
-      <c r="V7" s="373" t="s">
+      <c r="S7" s="362"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="373"/>
-      <c r="X7" s="374" t="s">
+      <c r="W7" s="363"/>
+      <c r="X7" s="364" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="375"/>
-      <c r="Z7" s="367" t="s">
+      <c r="Y7" s="365"/>
+      <c r="Z7" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="368"/>
-      <c r="AB7" s="367" t="s">
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="359" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="368"/>
-      <c r="AD7" s="367" t="s">
+      <c r="AC7" s="361"/>
+      <c r="AD7" s="359" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="368"/>
-      <c r="AF7" s="367" t="s">
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="359" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="370"/>
-      <c r="AH7" s="368"/>
-      <c r="AI7" s="367" t="s">
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="370"/>
-      <c r="AK7" s="370"/>
-      <c r="AL7" s="370"/>
-      <c r="AM7" s="370"/>
-      <c r="AN7" s="368"/>
-      <c r="AV7" s="377"/>
-      <c r="AW7" s="377"/>
-      <c r="AX7" s="377"/>
-      <c r="AY7" s="377"/>
-      <c r="AZ7" s="377"/>
-      <c r="BA7" s="377"/>
-      <c r="BB7" s="377"/>
-      <c r="BC7" s="377"/>
-      <c r="BD7" s="377"/>
-      <c r="BE7" s="377"/>
-      <c r="BF7" s="377"/>
-      <c r="BG7" s="377"/>
-      <c r="BH7" s="377"/>
-      <c r="BI7" s="377"/>
-      <c r="BJ7" s="377"/>
-      <c r="BK7" s="377"/>
-      <c r="BL7" s="377"/>
-      <c r="BM7" s="377"/>
-      <c r="BN7" s="377"/>
-      <c r="BO7" s="377"/>
-      <c r="BP7" s="377"/>
-      <c r="BQ7" s="377"/>
-      <c r="BR7" s="377"/>
-      <c r="BS7" s="377"/>
-      <c r="BT7" s="377"/>
-      <c r="BU7" s="377"/>
-      <c r="BV7" s="377"/>
-      <c r="BW7" s="377"/>
-      <c r="BX7" s="377"/>
-      <c r="BY7" s="377"/>
-      <c r="BZ7" s="377"/>
-      <c r="CA7" s="377"/>
-      <c r="CB7" s="377"/>
-      <c r="CC7" s="377"/>
-      <c r="CD7" s="377"/>
-      <c r="CE7" s="377"/>
-      <c r="CF7" s="377"/>
-      <c r="CG7" s="377"/>
-      <c r="CH7" s="377"/>
-      <c r="CI7" s="377"/>
-      <c r="CJ7" s="377"/>
-      <c r="CK7" s="377"/>
-      <c r="CL7" s="377"/>
-      <c r="CM7" s="377"/>
-      <c r="CN7" s="377"/>
-      <c r="CO7" s="378"/>
-      <c r="CP7" s="378"/>
-      <c r="CQ7" s="378"/>
-      <c r="CR7" s="378"/>
-      <c r="CS7" s="378"/>
-      <c r="CT7" s="378"/>
-      <c r="CU7" s="378"/>
-      <c r="CV7" s="378"/>
-      <c r="CW7" s="378"/>
-      <c r="CX7" s="378"/>
-      <c r="CY7" s="378"/>
+      <c r="AJ7" s="360"/>
+      <c r="AK7" s="360"/>
+      <c r="AL7" s="360"/>
+      <c r="AM7" s="360"/>
+      <c r="AN7" s="361"/>
+      <c r="AV7" s="174"/>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="174"/>
+      <c r="BA7" s="174"/>
+      <c r="BB7" s="174"/>
+      <c r="BC7" s="174"/>
+      <c r="BD7" s="174"/>
+      <c r="BE7" s="174"/>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174"/>
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="174"/>
+      <c r="BJ7" s="174"/>
+      <c r="BK7" s="174"/>
+      <c r="BL7" s="174"/>
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174"/>
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174"/>
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174"/>
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174"/>
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174"/>
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174"/>
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174"/>
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174"/>
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="174"/>
+      <c r="CO7" s="175"/>
+      <c r="CP7" s="175"/>
+      <c r="CQ7" s="175"/>
+      <c r="CR7" s="175"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="175"/>
+      <c r="CV7" s="175"/>
+      <c r="CW7" s="175"/>
+      <c r="CX7" s="175"/>
+      <c r="CY7" s="175"/>
     </row>
     <row r="8" spans="1:103" ht="15" customHeight="1">
       <c r="A8" s="165"/>
-      <c r="B8" s="350"/>
-      <c r="C8" s="351"/>
-      <c r="D8" s="351"/>
-      <c r="E8" s="351"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="342"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="343"/>
-      <c r="L8" s="342"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="343"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="366"/>
+      <c r="H8" s="367"/>
+      <c r="I8" s="367"/>
+      <c r="J8" s="367"/>
+      <c r="K8" s="368"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="367"/>
+      <c r="N8" s="367"/>
+      <c r="O8" s="367"/>
+      <c r="P8" s="368"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="354"/>
-      <c r="S8" s="354"/>
-      <c r="T8" s="354"/>
-      <c r="U8" s="354"/>
-      <c r="V8" s="353"/>
-      <c r="W8" s="353"/>
-      <c r="X8" s="345">
+      <c r="R8" s="373"/>
+      <c r="S8" s="373"/>
+      <c r="T8" s="373"/>
+      <c r="U8" s="373"/>
+      <c r="V8" s="369"/>
+      <c r="W8" s="369"/>
+      <c r="X8" s="374">
         <v>1</v>
       </c>
-      <c r="Y8" s="346"/>
-      <c r="Z8" s="342"/>
-      <c r="AA8" s="343"/>
-      <c r="AB8" s="342"/>
-      <c r="AC8" s="343"/>
-      <c r="AD8" s="342"/>
-      <c r="AE8" s="343"/>
-      <c r="AF8" s="342"/>
-      <c r="AG8" s="344"/>
-      <c r="AH8" s="343"/>
-      <c r="AI8" s="347"/>
-      <c r="AJ8" s="348"/>
-      <c r="AK8" s="348"/>
-      <c r="AL8" s="348"/>
-      <c r="AM8" s="348"/>
-      <c r="AN8" s="349"/>
+      <c r="Y8" s="375"/>
+      <c r="Z8" s="366"/>
+      <c r="AA8" s="368"/>
+      <c r="AB8" s="366"/>
+      <c r="AC8" s="368"/>
+      <c r="AD8" s="366"/>
+      <c r="AE8" s="368"/>
+      <c r="AF8" s="366"/>
+      <c r="AG8" s="367"/>
+      <c r="AH8" s="368"/>
+      <c r="AI8" s="376"/>
+      <c r="AJ8" s="377"/>
+      <c r="AK8" s="377"/>
+      <c r="AL8" s="377"/>
+      <c r="AM8" s="377"/>
+      <c r="AN8" s="378"/>
       <c r="AV8" s="120"/>
       <c r="AW8" s="120"/>
       <c r="AX8" s="120"/>
@@ -13681,48 +13681,48 @@
     </row>
     <row r="9" spans="1:103" ht="15" customHeight="1">
       <c r="A9" s="165"/>
-      <c r="B9" s="350"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="352"/>
-      <c r="G9" s="342"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="343"/>
-      <c r="L9" s="342"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="343"/>
+      <c r="B9" s="370"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="367"/>
+      <c r="K9" s="368"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="354"/>
-      <c r="S9" s="354"/>
-      <c r="T9" s="354"/>
-      <c r="U9" s="354"/>
-      <c r="V9" s="353"/>
-      <c r="W9" s="353"/>
-      <c r="X9" s="345">
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="373"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="369"/>
+      <c r="W9" s="369"/>
+      <c r="X9" s="374">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="346"/>
-      <c r="Z9" s="342"/>
-      <c r="AA9" s="343"/>
-      <c r="AB9" s="342"/>
-      <c r="AC9" s="343"/>
-      <c r="AD9" s="342"/>
-      <c r="AE9" s="343"/>
-      <c r="AF9" s="342"/>
-      <c r="AG9" s="344"/>
-      <c r="AH9" s="343"/>
-      <c r="AI9" s="347"/>
-      <c r="AJ9" s="348"/>
-      <c r="AK9" s="348"/>
-      <c r="AL9" s="348"/>
-      <c r="AM9" s="348"/>
-      <c r="AN9" s="349"/>
+      <c r="Y9" s="375"/>
+      <c r="Z9" s="366"/>
+      <c r="AA9" s="368"/>
+      <c r="AB9" s="366"/>
+      <c r="AC9" s="368"/>
+      <c r="AD9" s="366"/>
+      <c r="AE9" s="368"/>
+      <c r="AF9" s="366"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="368"/>
+      <c r="AI9" s="376"/>
+      <c r="AJ9" s="377"/>
+      <c r="AK9" s="377"/>
+      <c r="AL9" s="377"/>
+      <c r="AM9" s="377"/>
+      <c r="AN9" s="378"/>
       <c r="AV9" s="120"/>
       <c r="AW9" s="120"/>
       <c r="AX9" s="120"/>
@@ -13782,48 +13782,48 @@
     </row>
     <row r="10" spans="1:103" ht="15" customHeight="1">
       <c r="A10" s="165"/>
-      <c r="B10" s="350"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="352"/>
-      <c r="G10" s="342"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="344"/>
-      <c r="K10" s="343"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="344"/>
-      <c r="N10" s="344"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="343"/>
+      <c r="B10" s="370"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="372"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="367"/>
+      <c r="N10" s="367"/>
+      <c r="O10" s="367"/>
+      <c r="P10" s="368"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="354"/>
-      <c r="S10" s="354"/>
-      <c r="T10" s="354"/>
-      <c r="U10" s="354"/>
-      <c r="V10" s="353"/>
-      <c r="W10" s="353"/>
-      <c r="X10" s="345">
+      <c r="R10" s="373"/>
+      <c r="S10" s="373"/>
+      <c r="T10" s="373"/>
+      <c r="U10" s="373"/>
+      <c r="V10" s="369"/>
+      <c r="W10" s="369"/>
+      <c r="X10" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="346"/>
-      <c r="Z10" s="342"/>
-      <c r="AA10" s="343"/>
-      <c r="AB10" s="342"/>
-      <c r="AC10" s="343"/>
-      <c r="AD10" s="342"/>
-      <c r="AE10" s="343"/>
-      <c r="AF10" s="342"/>
-      <c r="AG10" s="344"/>
-      <c r="AH10" s="343"/>
-      <c r="AI10" s="347"/>
-      <c r="AJ10" s="348"/>
-      <c r="AK10" s="348"/>
-      <c r="AL10" s="348"/>
-      <c r="AM10" s="348"/>
-      <c r="AN10" s="349"/>
+      <c r="Y10" s="375"/>
+      <c r="Z10" s="366"/>
+      <c r="AA10" s="368"/>
+      <c r="AB10" s="366"/>
+      <c r="AC10" s="368"/>
+      <c r="AD10" s="366"/>
+      <c r="AE10" s="368"/>
+      <c r="AF10" s="366"/>
+      <c r="AG10" s="367"/>
+      <c r="AH10" s="368"/>
+      <c r="AI10" s="376"/>
+      <c r="AJ10" s="377"/>
+      <c r="AK10" s="377"/>
+      <c r="AL10" s="377"/>
+      <c r="AM10" s="377"/>
+      <c r="AN10" s="378"/>
       <c r="AV10" s="120"/>
       <c r="AW10" s="120"/>
       <c r="AX10" s="120"/>
@@ -13883,48 +13883,48 @@
     </row>
     <row r="11" spans="1:103" ht="15" customHeight="1">
       <c r="A11" s="165"/>
-      <c r="B11" s="350"/>
-      <c r="C11" s="351"/>
-      <c r="D11" s="351"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="342"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="344"/>
-      <c r="J11" s="344"/>
-      <c r="K11" s="343"/>
-      <c r="L11" s="342"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="344"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="343"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="371"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="367"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="366"/>
+      <c r="M11" s="367"/>
+      <c r="N11" s="367"/>
+      <c r="O11" s="367"/>
+      <c r="P11" s="368"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="354"/>
-      <c r="S11" s="354"/>
-      <c r="T11" s="354"/>
-      <c r="U11" s="354"/>
-      <c r="V11" s="353"/>
-      <c r="W11" s="353"/>
-      <c r="X11" s="345">
+      <c r="R11" s="373"/>
+      <c r="S11" s="373"/>
+      <c r="T11" s="373"/>
+      <c r="U11" s="373"/>
+      <c r="V11" s="369"/>
+      <c r="W11" s="369"/>
+      <c r="X11" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="346"/>
-      <c r="Z11" s="342"/>
-      <c r="AA11" s="343"/>
-      <c r="AB11" s="342"/>
-      <c r="AC11" s="343"/>
-      <c r="AD11" s="342"/>
-      <c r="AE11" s="343"/>
-      <c r="AF11" s="342"/>
-      <c r="AG11" s="344"/>
-      <c r="AH11" s="343"/>
-      <c r="AI11" s="347"/>
-      <c r="AJ11" s="348"/>
-      <c r="AK11" s="348"/>
-      <c r="AL11" s="348"/>
-      <c r="AM11" s="348"/>
-      <c r="AN11" s="349"/>
+      <c r="Y11" s="375"/>
+      <c r="Z11" s="366"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="366"/>
+      <c r="AC11" s="368"/>
+      <c r="AD11" s="366"/>
+      <c r="AE11" s="368"/>
+      <c r="AF11" s="366"/>
+      <c r="AG11" s="367"/>
+      <c r="AH11" s="368"/>
+      <c r="AI11" s="376"/>
+      <c r="AJ11" s="377"/>
+      <c r="AK11" s="377"/>
+      <c r="AL11" s="377"/>
+      <c r="AM11" s="377"/>
+      <c r="AN11" s="378"/>
       <c r="AV11" s="120"/>
       <c r="AW11" s="120"/>
       <c r="AX11" s="120"/>
@@ -13984,48 +13984,48 @@
     </row>
     <row r="12" spans="1:103" ht="15" customHeight="1">
       <c r="A12" s="165"/>
-      <c r="B12" s="350"/>
-      <c r="C12" s="351"/>
-      <c r="D12" s="351"/>
-      <c r="E12" s="351"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="344"/>
-      <c r="K12" s="343"/>
-      <c r="L12" s="342"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="344"/>
-      <c r="O12" s="344"/>
-      <c r="P12" s="343"/>
+      <c r="B12" s="370"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="372"/>
+      <c r="G12" s="366"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="367"/>
+      <c r="K12" s="368"/>
+      <c r="L12" s="366"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="367"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="368"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="354"/>
-      <c r="V12" s="353"/>
-      <c r="W12" s="353"/>
-      <c r="X12" s="345">
+      <c r="R12" s="373"/>
+      <c r="S12" s="373"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="373"/>
+      <c r="V12" s="369"/>
+      <c r="W12" s="369"/>
+      <c r="X12" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="346"/>
-      <c r="Z12" s="342"/>
-      <c r="AA12" s="343"/>
-      <c r="AB12" s="342"/>
-      <c r="AC12" s="343"/>
-      <c r="AD12" s="342"/>
-      <c r="AE12" s="343"/>
-      <c r="AF12" s="342"/>
-      <c r="AG12" s="344"/>
-      <c r="AH12" s="343"/>
-      <c r="AI12" s="347"/>
-      <c r="AJ12" s="348"/>
-      <c r="AK12" s="348"/>
-      <c r="AL12" s="348"/>
-      <c r="AM12" s="348"/>
-      <c r="AN12" s="349"/>
+      <c r="Y12" s="375"/>
+      <c r="Z12" s="366"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="366"/>
+      <c r="AC12" s="368"/>
+      <c r="AD12" s="366"/>
+      <c r="AE12" s="368"/>
+      <c r="AF12" s="366"/>
+      <c r="AG12" s="367"/>
+      <c r="AH12" s="368"/>
+      <c r="AI12" s="376"/>
+      <c r="AJ12" s="377"/>
+      <c r="AK12" s="377"/>
+      <c r="AL12" s="377"/>
+      <c r="AM12" s="377"/>
+      <c r="AN12" s="378"/>
       <c r="AV12" s="120"/>
       <c r="AW12" s="120"/>
       <c r="AX12" s="120"/>
@@ -14085,48 +14085,48 @@
     </row>
     <row r="13" spans="1:103" ht="15" customHeight="1">
       <c r="A13" s="165"/>
-      <c r="B13" s="350"/>
-      <c r="C13" s="351"/>
-      <c r="D13" s="351"/>
-      <c r="E13" s="351"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="344"/>
-      <c r="K13" s="343"/>
-      <c r="L13" s="342"/>
-      <c r="M13" s="344"/>
-      <c r="N13" s="344"/>
-      <c r="O13" s="344"/>
-      <c r="P13" s="343"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="366"/>
+      <c r="M13" s="367"/>
+      <c r="N13" s="367"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="368"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="354"/>
-      <c r="S13" s="354"/>
-      <c r="T13" s="354"/>
-      <c r="U13" s="354"/>
-      <c r="V13" s="353"/>
-      <c r="W13" s="353"/>
-      <c r="X13" s="345">
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="369"/>
+      <c r="W13" s="369"/>
+      <c r="X13" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="346"/>
-      <c r="Z13" s="342"/>
-      <c r="AA13" s="343"/>
-      <c r="AB13" s="342"/>
-      <c r="AC13" s="343"/>
-      <c r="AD13" s="342"/>
-      <c r="AE13" s="343"/>
-      <c r="AF13" s="342"/>
-      <c r="AG13" s="344"/>
-      <c r="AH13" s="343"/>
-      <c r="AI13" s="347"/>
-      <c r="AJ13" s="348"/>
-      <c r="AK13" s="348"/>
-      <c r="AL13" s="348"/>
-      <c r="AM13" s="348"/>
-      <c r="AN13" s="349"/>
+      <c r="Y13" s="375"/>
+      <c r="Z13" s="366"/>
+      <c r="AA13" s="368"/>
+      <c r="AB13" s="366"/>
+      <c r="AC13" s="368"/>
+      <c r="AD13" s="366"/>
+      <c r="AE13" s="368"/>
+      <c r="AF13" s="366"/>
+      <c r="AG13" s="367"/>
+      <c r="AH13" s="368"/>
+      <c r="AI13" s="376"/>
+      <c r="AJ13" s="377"/>
+      <c r="AK13" s="377"/>
+      <c r="AL13" s="377"/>
+      <c r="AM13" s="377"/>
+      <c r="AN13" s="378"/>
       <c r="AV13" s="120"/>
       <c r="AW13" s="120"/>
       <c r="AX13" s="120"/>
@@ -14186,48 +14186,48 @@
     </row>
     <row r="14" spans="1:103" ht="15" customHeight="1">
       <c r="A14" s="165"/>
-      <c r="B14" s="350"/>
-      <c r="C14" s="351"/>
-      <c r="D14" s="351"/>
-      <c r="E14" s="351"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="342"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="344"/>
-      <c r="K14" s="343"/>
-      <c r="L14" s="342"/>
-      <c r="M14" s="344"/>
-      <c r="N14" s="344"/>
-      <c r="O14" s="344"/>
-      <c r="P14" s="343"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="368"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="354"/>
-      <c r="S14" s="354"/>
-      <c r="T14" s="354"/>
-      <c r="U14" s="354"/>
-      <c r="V14" s="353"/>
-      <c r="W14" s="353"/>
-      <c r="X14" s="345">
+      <c r="R14" s="373"/>
+      <c r="S14" s="373"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="373"/>
+      <c r="V14" s="369"/>
+      <c r="W14" s="369"/>
+      <c r="X14" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="346"/>
-      <c r="Z14" s="342"/>
-      <c r="AA14" s="343"/>
-      <c r="AB14" s="342"/>
-      <c r="AC14" s="343"/>
-      <c r="AD14" s="342"/>
-      <c r="AE14" s="343"/>
-      <c r="AF14" s="342"/>
-      <c r="AG14" s="344"/>
-      <c r="AH14" s="343"/>
-      <c r="AI14" s="347"/>
-      <c r="AJ14" s="348"/>
-      <c r="AK14" s="348"/>
-      <c r="AL14" s="348"/>
-      <c r="AM14" s="348"/>
-      <c r="AN14" s="349"/>
+      <c r="Y14" s="375"/>
+      <c r="Z14" s="366"/>
+      <c r="AA14" s="368"/>
+      <c r="AB14" s="366"/>
+      <c r="AC14" s="368"/>
+      <c r="AD14" s="366"/>
+      <c r="AE14" s="368"/>
+      <c r="AF14" s="366"/>
+      <c r="AG14" s="367"/>
+      <c r="AH14" s="368"/>
+      <c r="AI14" s="376"/>
+      <c r="AJ14" s="377"/>
+      <c r="AK14" s="377"/>
+      <c r="AL14" s="377"/>
+      <c r="AM14" s="377"/>
+      <c r="AN14" s="378"/>
       <c r="AV14" s="120"/>
       <c r="AW14" s="120"/>
       <c r="AX14" s="120"/>
@@ -14287,48 +14287,48 @@
     </row>
     <row r="15" spans="1:103" ht="15" customHeight="1">
       <c r="A15" s="165"/>
-      <c r="B15" s="350"/>
-      <c r="C15" s="351"/>
-      <c r="D15" s="351"/>
-      <c r="E15" s="351"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="344"/>
-      <c r="K15" s="343"/>
-      <c r="L15" s="342"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="344"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="343"/>
+      <c r="B15" s="370"/>
+      <c r="C15" s="371"/>
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="366"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
+      <c r="J15" s="367"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="367"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="367"/>
+      <c r="P15" s="368"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="354"/>
-      <c r="S15" s="354"/>
-      <c r="T15" s="354"/>
-      <c r="U15" s="354"/>
-      <c r="V15" s="353"/>
-      <c r="W15" s="353"/>
-      <c r="X15" s="345">
+      <c r="R15" s="373"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="373"/>
+      <c r="V15" s="369"/>
+      <c r="W15" s="369"/>
+      <c r="X15" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="346"/>
-      <c r="Z15" s="342"/>
-      <c r="AA15" s="343"/>
-      <c r="AB15" s="342"/>
-      <c r="AC15" s="343"/>
-      <c r="AD15" s="342"/>
-      <c r="AE15" s="343"/>
-      <c r="AF15" s="342"/>
-      <c r="AG15" s="344"/>
-      <c r="AH15" s="343"/>
-      <c r="AI15" s="347"/>
-      <c r="AJ15" s="348"/>
-      <c r="AK15" s="348"/>
-      <c r="AL15" s="348"/>
-      <c r="AM15" s="348"/>
-      <c r="AN15" s="349"/>
+      <c r="Y15" s="375"/>
+      <c r="Z15" s="366"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="366"/>
+      <c r="AC15" s="368"/>
+      <c r="AD15" s="366"/>
+      <c r="AE15" s="368"/>
+      <c r="AF15" s="366"/>
+      <c r="AG15" s="367"/>
+      <c r="AH15" s="368"/>
+      <c r="AI15" s="376"/>
+      <c r="AJ15" s="377"/>
+      <c r="AK15" s="377"/>
+      <c r="AL15" s="377"/>
+      <c r="AM15" s="377"/>
+      <c r="AN15" s="378"/>
       <c r="AV15" s="120"/>
       <c r="AW15" s="120"/>
       <c r="AX15" s="120"/>
@@ -14388,48 +14388,48 @@
     </row>
     <row r="16" spans="1:103" ht="15" customHeight="1">
       <c r="A16" s="165"/>
-      <c r="B16" s="350"/>
-      <c r="C16" s="351"/>
-      <c r="D16" s="351"/>
-      <c r="E16" s="351"/>
-      <c r="F16" s="352"/>
-      <c r="G16" s="342"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="344"/>
-      <c r="K16" s="343"/>
-      <c r="L16" s="342"/>
-      <c r="M16" s="344"/>
-      <c r="N16" s="344"/>
-      <c r="O16" s="344"/>
-      <c r="P16" s="343"/>
+      <c r="B16" s="370"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="366"/>
+      <c r="H16" s="367"/>
+      <c r="I16" s="367"/>
+      <c r="J16" s="367"/>
+      <c r="K16" s="368"/>
+      <c r="L16" s="366"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="367"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="368"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="354"/>
-      <c r="S16" s="354"/>
-      <c r="T16" s="354"/>
-      <c r="U16" s="354"/>
-      <c r="V16" s="353"/>
-      <c r="W16" s="353"/>
-      <c r="X16" s="345">
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
+      <c r="V16" s="369"/>
+      <c r="W16" s="369"/>
+      <c r="X16" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="346"/>
-      <c r="Z16" s="342"/>
-      <c r="AA16" s="343"/>
-      <c r="AB16" s="342"/>
-      <c r="AC16" s="343"/>
-      <c r="AD16" s="342"/>
-      <c r="AE16" s="343"/>
-      <c r="AF16" s="342"/>
-      <c r="AG16" s="344"/>
-      <c r="AH16" s="343"/>
-      <c r="AI16" s="347"/>
-      <c r="AJ16" s="348"/>
-      <c r="AK16" s="348"/>
-      <c r="AL16" s="348"/>
-      <c r="AM16" s="348"/>
-      <c r="AN16" s="349"/>
+      <c r="Y16" s="375"/>
+      <c r="Z16" s="366"/>
+      <c r="AA16" s="368"/>
+      <c r="AB16" s="366"/>
+      <c r="AC16" s="368"/>
+      <c r="AD16" s="366"/>
+      <c r="AE16" s="368"/>
+      <c r="AF16" s="366"/>
+      <c r="AG16" s="367"/>
+      <c r="AH16" s="368"/>
+      <c r="AI16" s="376"/>
+      <c r="AJ16" s="377"/>
+      <c r="AK16" s="377"/>
+      <c r="AL16" s="377"/>
+      <c r="AM16" s="377"/>
+      <c r="AN16" s="378"/>
       <c r="AV16" s="120"/>
       <c r="AW16" s="120"/>
       <c r="AX16" s="120"/>
@@ -14489,48 +14489,48 @@
     </row>
     <row r="17" spans="1:103" ht="15" customHeight="1">
       <c r="A17" s="165"/>
-      <c r="B17" s="350"/>
-      <c r="C17" s="351"/>
-      <c r="D17" s="351"/>
-      <c r="E17" s="351"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="342"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="343"/>
-      <c r="L17" s="342"/>
-      <c r="M17" s="344"/>
-      <c r="N17" s="344"/>
-      <c r="O17" s="344"/>
-      <c r="P17" s="343"/>
+      <c r="B17" s="370"/>
+      <c r="C17" s="371"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="366"/>
+      <c r="H17" s="367"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="367"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="366"/>
+      <c r="M17" s="367"/>
+      <c r="N17" s="367"/>
+      <c r="O17" s="367"/>
+      <c r="P17" s="368"/>
       <c r="Q17" s="76"/>
-      <c r="R17" s="354"/>
-      <c r="S17" s="354"/>
-      <c r="T17" s="354"/>
-      <c r="U17" s="354"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="353"/>
-      <c r="X17" s="345">
+      <c r="R17" s="373"/>
+      <c r="S17" s="373"/>
+      <c r="T17" s="373"/>
+      <c r="U17" s="373"/>
+      <c r="V17" s="369"/>
+      <c r="W17" s="369"/>
+      <c r="X17" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="346"/>
-      <c r="Z17" s="342"/>
-      <c r="AA17" s="343"/>
-      <c r="AB17" s="342"/>
-      <c r="AC17" s="343"/>
-      <c r="AD17" s="342"/>
-      <c r="AE17" s="343"/>
-      <c r="AF17" s="342"/>
-      <c r="AG17" s="344"/>
-      <c r="AH17" s="343"/>
-      <c r="AI17" s="347"/>
-      <c r="AJ17" s="348"/>
-      <c r="AK17" s="348"/>
-      <c r="AL17" s="348"/>
-      <c r="AM17" s="348"/>
-      <c r="AN17" s="349"/>
+      <c r="Y17" s="375"/>
+      <c r="Z17" s="366"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="366"/>
+      <c r="AC17" s="368"/>
+      <c r="AD17" s="366"/>
+      <c r="AE17" s="368"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="376"/>
+      <c r="AJ17" s="377"/>
+      <c r="AK17" s="377"/>
+      <c r="AL17" s="377"/>
+      <c r="AM17" s="377"/>
+      <c r="AN17" s="378"/>
       <c r="AV17" s="120"/>
       <c r="AW17" s="120"/>
       <c r="AX17" s="120"/>
@@ -14590,86 +14590,46 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G12:K12"/>
@@ -14688,46 +14648,86 @@
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
@@ -66,7 +66,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">インターフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
+          <t xml:space="preserve">インタフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
 同一のファイルを複数の相手先に送る場合、「相手先」欄に複数記述する。
 例）ＸＸ１システム、ＸＸ２システム
 </t>
@@ -97,7 +97,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのファイルID/電文IDを記述する</t>
+          <t>インタフェースのファイルID/電文IDを記述する</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの利用目的・概要を記述する</t>
+          <t>インタフェースの利用目的・概要を記述する</t>
         </r>
       </text>
     </comment>
@@ -155,7 +155,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのデータ形式を選択する。
+          <t>インタフェースのデータ形式を選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -201,7 +201,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの暗号化有無を選択する。
+          <t>インタフェースの暗号化有無を選択する。
 暗号化は下記３パターンを想定している。
 ３パターンのいずれかで暗号化するのであれば　暗号化「有り」にチェックをいれて、実施する暗号化の種類を記載する。
 ・通信暗号化
@@ -220,7 +220,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの改行コードを選択する。
+          <t>インタフェースの改行コードを選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -235,7 +235,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの文字コードを記述する</t>
+          <t>インタフェースの文字コードを記述する</t>
         </r>
       </text>
     </comment>
@@ -264,7 +264,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースを入出力する処理サイクルを記述する。
+          <t>インタフェースを入出力する処理サイクルを記述する。
 括弧内には、詳細を記述する</t>
         </r>
       </text>
@@ -2469,6 +2469,117 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2529,116 +2640,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2667,15 +2682,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2703,15 +2712,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,6 +2721,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2733,12 +2784,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2766,50 +2811,182 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2823,24 +3000,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2850,169 +3009,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3025,9 +3064,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3036,44 +3072,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6744,147 +6744,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="216" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="213" t="s">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="201" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="200" t="str">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="204" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="202"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
       <c r="AK1" s="96"/>
       <c r="AL1" s="96"/>
       <c r="AM1" s="96"/>
       <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="213" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="210" t="str">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="207" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="200" t="str">
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="204" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
       <c r="AK2" s="96"/>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="200"/>
-      <c r="AH3" s="201"/>
-      <c r="AI3" s="202"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
       <c r="AK3" s="96"/>
       <c r="AL3" s="96"/>
       <c r="AM3" s="96"/>
@@ -6931,86 +6931,86 @@
       <c r="A7" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="203" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="203" t="s">
+      <c r="E7" s="212"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="205"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="206" t="s">
+      <c r="H7" s="212"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="203" t="s">
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="205"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="203" t="s">
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="205"/>
-      <c r="AH7" s="205"/>
-      <c r="AI7" s="204"/>
+      <c r="AG7" s="212"/>
+      <c r="AH7" s="212"/>
+      <c r="AI7" s="211"/>
       <c r="AJ7" s="78"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="232"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="231"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="232"/>
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="232"/>
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="233"/>
       <c r="AF8" s="112"/>
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
@@ -7019,36 +7019,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="138"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="184"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="222"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
       <c r="AF9" s="87"/>
       <c r="AG9" s="88"/>
       <c r="AH9" s="88"/>
@@ -7057,36 +7057,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="138"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="184"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="185"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="221"/>
+      <c r="P10" s="222"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
       <c r="AF10" s="87"/>
       <c r="AG10" s="88"/>
       <c r="AH10" s="88"/>
@@ -7094,36 +7094,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="138"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="184"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="185"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="221"/>
+      <c r="P11" s="222"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
       <c r="AF11" s="87"/>
       <c r="AG11" s="88"/>
       <c r="AH11" s="88"/>
@@ -7131,36 +7131,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="138"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="185"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="221"/>
+      <c r="P12" s="222"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
       <c r="AF12" s="87"/>
       <c r="AG12" s="88"/>
       <c r="AH12" s="88"/>
@@ -7168,36 +7168,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="138"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
-      <c r="Y13" s="184"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="185"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="221"/>
+      <c r="P13" s="222"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
       <c r="AF13" s="87"/>
       <c r="AG13" s="88"/>
       <c r="AH13" s="88"/>
@@ -7945,6 +7945,49 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7955,49 +7998,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -8154,157 +8154,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="207" t="str">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="234" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="239" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="255" t="str">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="207" t="str">
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="207" t="str">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:35" s="98" customFormat="1" ht="19.5" customHeight="1">
       <c r="AC4" s="139"/>
@@ -9638,13 +9638,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9655,6 +9648,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9681,157 +9681,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="207" t="str">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="216" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="234" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="239" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="213" t="s">
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="255" t="str">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="207" t="str">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="213" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="207" t="str">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="52"/>
@@ -9922,9 +9922,9 @@
       <c r="A7" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="266"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="268"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -9937,76 +9937,76 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="282" t="s">
+      <c r="Q7" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="283"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="284"/>
-      <c r="U7" s="288"/>
-      <c r="V7" s="289"/>
-      <c r="W7" s="289"/>
-      <c r="X7" s="289"/>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="289"/>
-      <c r="AB7" s="289"/>
-      <c r="AC7" s="289"/>
-      <c r="AD7" s="289"/>
-      <c r="AE7" s="289"/>
-      <c r="AF7" s="289"/>
-      <c r="AG7" s="289"/>
-      <c r="AH7" s="289"/>
-      <c r="AI7" s="290"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="271"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="263"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
-      <c r="P8" s="280"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
       <c r="Q8" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="265"/>
-      <c r="S8" s="265"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="279"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="280"/>
-      <c r="AF8" s="280"/>
-      <c r="AG8" s="280"/>
-      <c r="AH8" s="280"/>
-      <c r="AI8" s="281"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
+      <c r="AI8" s="266"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="266"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="268"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10340,12 +10340,12 @@
       <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="276" t="s">
+      <c r="A18" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="277"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="278"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="274"/>
       <c r="E18" s="16"/>
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
@@ -10358,12 +10358,12 @@
       <c r="N18" s="23"/>
       <c r="O18" s="17"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="276" t="s">
+      <c r="Q18" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="277"/>
-      <c r="S18" s="277"/>
-      <c r="T18" s="278"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="273"/>
+      <c r="T18" s="274"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -10466,50 +10466,50 @@
       <c r="A21" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="265"/>
-      <c r="C21" s="265"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="280"/>
-      <c r="K21" s="280"/>
-      <c r="L21" s="280"/>
-      <c r="M21" s="280"/>
-      <c r="N21" s="280"/>
-      <c r="O21" s="280"/>
-      <c r="P21" s="281"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="265"/>
+      <c r="K21" s="265"/>
+      <c r="L21" s="265"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="265"/>
+      <c r="O21" s="265"/>
+      <c r="P21" s="266"/>
       <c r="Q21" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="265"/>
-      <c r="S21" s="265"/>
-      <c r="T21" s="266"/>
-      <c r="U21" s="279"/>
-      <c r="V21" s="280"/>
-      <c r="W21" s="280"/>
-      <c r="X21" s="280"/>
-      <c r="Y21" s="280"/>
-      <c r="Z21" s="280"/>
-      <c r="AA21" s="280"/>
-      <c r="AB21" s="280"/>
-      <c r="AC21" s="280"/>
-      <c r="AD21" s="280"/>
-      <c r="AE21" s="280"/>
-      <c r="AF21" s="280"/>
-      <c r="AG21" s="280"/>
-      <c r="AH21" s="280"/>
-      <c r="AI21" s="281"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="268"/>
+      <c r="U21" s="264"/>
+      <c r="V21" s="265"/>
+      <c r="W21" s="265"/>
+      <c r="X21" s="265"/>
+      <c r="Y21" s="265"/>
+      <c r="Z21" s="265"/>
+      <c r="AA21" s="265"/>
+      <c r="AB21" s="265"/>
+      <c r="AC21" s="265"/>
+      <c r="AD21" s="265"/>
+      <c r="AE21" s="265"/>
+      <c r="AF21" s="265"/>
+      <c r="AG21" s="265"/>
+      <c r="AH21" s="265"/>
+      <c r="AI21" s="266"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="283"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="284"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="270"/>
+      <c r="D22" s="271"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -10522,12 +10522,12 @@
       <c r="N22" s="27"/>
       <c r="O22" s="15"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="282" t="s">
+      <c r="Q22" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="283"/>
-      <c r="S22" s="283"/>
-      <c r="T22" s="284"/>
+      <c r="R22" s="270"/>
+      <c r="S22" s="270"/>
+      <c r="T22" s="271"/>
       <c r="U22" s="63"/>
       <c r="V22" s="27"/>
       <c r="W22" s="15"/>
@@ -10590,34 +10590,34 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="273" t="s">
+      <c r="A24" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="274"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="275"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
-      <c r="K24" s="280"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="280"/>
-      <c r="N24" s="280"/>
-      <c r="O24" s="280"/>
-      <c r="P24" s="281"/>
-      <c r="Q24" s="285" t="s">
+      <c r="B24" s="289"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="265"/>
+      <c r="J24" s="265"/>
+      <c r="K24" s="265"/>
+      <c r="L24" s="265"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="265"/>
+      <c r="O24" s="265"/>
+      <c r="P24" s="266"/>
+      <c r="Q24" s="275" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="286"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="287"/>
-      <c r="U24" s="263"/>
-      <c r="V24" s="264"/>
-      <c r="W24" s="264"/>
-      <c r="X24" s="264"/>
+      <c r="R24" s="276"/>
+      <c r="S24" s="276"/>
+      <c r="T24" s="277"/>
+      <c r="U24" s="280"/>
+      <c r="V24" s="281"/>
+      <c r="W24" s="281"/>
+      <c r="X24" s="281"/>
       <c r="Y24" s="21" t="s">
         <v>50</v>
       </c>
@@ -10633,26 +10633,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="269" t="s">
+      <c r="A25" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="271"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
       <c r="E25" s="25"/>
       <c r="F25" s="46"/>
       <c r="G25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="261"/>
-      <c r="I25" s="262"/>
-      <c r="J25" s="262"/>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
-      <c r="P25" s="262"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
+      <c r="K25" s="279"/>
+      <c r="L25" s="279"/>
+      <c r="M25" s="279"/>
+      <c r="N25" s="279"/>
+      <c r="O25" s="279"/>
+      <c r="P25" s="279"/>
       <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10661,15 +10661,15 @@
       <c r="T25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="272"/>
-      <c r="V25" s="272"/>
-      <c r="W25" s="272"/>
-      <c r="X25" s="272"/>
-      <c r="Y25" s="272"/>
-      <c r="Z25" s="272"/>
-      <c r="AA25" s="272"/>
-      <c r="AB25" s="272"/>
-      <c r="AC25" s="272"/>
+      <c r="U25" s="287"/>
+      <c r="V25" s="287"/>
+      <c r="W25" s="287"/>
+      <c r="X25" s="287"/>
+      <c r="Y25" s="287"/>
+      <c r="Z25" s="287"/>
+      <c r="AA25" s="287"/>
+      <c r="AB25" s="287"/>
+      <c r="AC25" s="287"/>
       <c r="AD25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10689,15 +10689,15 @@
       <c r="G26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="268"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="268"/>
-      <c r="M26" s="268"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="268"/>
-      <c r="P26" s="268"/>
+      <c r="H26" s="283"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
       <c r="Q26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10706,15 +10706,15 @@
       <c r="T26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="268"/>
-      <c r="V26" s="268"/>
-      <c r="W26" s="268"/>
-      <c r="X26" s="268"/>
-      <c r="Y26" s="268"/>
-      <c r="Z26" s="268"/>
-      <c r="AA26" s="268"/>
-      <c r="AB26" s="268"/>
-      <c r="AC26" s="268"/>
+      <c r="U26" s="283"/>
+      <c r="V26" s="283"/>
+      <c r="W26" s="283"/>
+      <c r="X26" s="283"/>
+      <c r="Y26" s="283"/>
+      <c r="Z26" s="283"/>
+      <c r="AA26" s="283"/>
+      <c r="AB26" s="283"/>
+      <c r="AC26" s="283"/>
       <c r="AD26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10734,15 +10734,15 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="267"/>
-      <c r="M27" s="267"/>
-      <c r="N27" s="267"/>
-      <c r="O27" s="267"/>
-      <c r="P27" s="267"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
       <c r="Q27" s="31" t="s">
         <v>7</v>
       </c>
@@ -10751,20 +10751,20 @@
       <c r="T27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="267"/>
-      <c r="V27" s="267"/>
-      <c r="W27" s="267"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
-      <c r="AA27" s="267"/>
-      <c r="AB27" s="267"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="267"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="267"/>
-      <c r="AG27" s="267"/>
-      <c r="AH27" s="267"/>
+      <c r="U27" s="282"/>
+      <c r="V27" s="282"/>
+      <c r="W27" s="282"/>
+      <c r="X27" s="282"/>
+      <c r="Y27" s="282"/>
+      <c r="Z27" s="282"/>
+      <c r="AA27" s="282"/>
+      <c r="AB27" s="282"/>
+      <c r="AC27" s="282"/>
+      <c r="AD27" s="282"/>
+      <c r="AE27" s="282"/>
+      <c r="AF27" s="282"/>
+      <c r="AG27" s="282"/>
+      <c r="AH27" s="282"/>
       <c r="AI27" s="48" t="s">
         <v>7</v>
       </c>
@@ -10921,33 +10921,13 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10960,13 +10940,33 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11641,157 +11641,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="207" t="str">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="216" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="234" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="239" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="213" t="s">
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="255" t="str">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="207" t="str">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="213" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="207" t="str">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
@@ -11914,461 +11914,461 @@
       <c r="AU6" s="104"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="351" t="s">
+      <c r="A7" s="295" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="352"/>
-      <c r="C7" s="352"/>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="352"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="352"/>
-      <c r="L7" s="352"/>
-      <c r="M7" s="352"/>
-      <c r="N7" s="352"/>
-      <c r="O7" s="352"/>
-      <c r="P7" s="352"/>
-      <c r="Q7" s="352"/>
-      <c r="R7" s="352"/>
-      <c r="S7" s="352"/>
-      <c r="T7" s="352"/>
-      <c r="U7" s="352"/>
-      <c r="V7" s="352"/>
-      <c r="W7" s="352"/>
-      <c r="X7" s="352"/>
-      <c r="Y7" s="352"/>
-      <c r="Z7" s="352"/>
-      <c r="AA7" s="352"/>
-      <c r="AB7" s="353"/>
-      <c r="AC7" s="355" t="s">
+      <c r="B7" s="296"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+      <c r="K7" s="296"/>
+      <c r="L7" s="296"/>
+      <c r="M7" s="296"/>
+      <c r="N7" s="296"/>
+      <c r="O7" s="296"/>
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="296"/>
+      <c r="T7" s="296"/>
+      <c r="U7" s="296"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="296"/>
+      <c r="X7" s="296"/>
+      <c r="Y7" s="296"/>
+      <c r="Z7" s="296"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="297"/>
+      <c r="AC7" s="301" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="352"/>
-      <c r="AE7" s="352"/>
-      <c r="AF7" s="352"/>
-      <c r="AG7" s="352"/>
-      <c r="AH7" s="352"/>
-      <c r="AI7" s="356"/>
+      <c r="AD7" s="296"/>
+      <c r="AE7" s="296"/>
+      <c r="AF7" s="296"/>
+      <c r="AG7" s="296"/>
+      <c r="AH7" s="296"/>
+      <c r="AI7" s="302"/>
     </row>
     <row r="8" spans="1:47" s="170" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="344" t="s">
+      <c r="B8" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="344" t="s">
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="345"/>
-      <c r="I8" s="346"/>
-      <c r="J8" s="344" t="s">
+      <c r="H8" s="292"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="345"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="345"/>
-      <c r="N8" s="345"/>
-      <c r="O8" s="345"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="342" t="s">
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="294"/>
+      <c r="Q8" s="298" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="343"/>
-      <c r="S8" s="342" t="s">
+      <c r="R8" s="300"/>
+      <c r="S8" s="298" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="354"/>
-      <c r="U8" s="343"/>
-      <c r="V8" s="344" t="s">
+      <c r="T8" s="299"/>
+      <c r="U8" s="300"/>
+      <c r="V8" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="345"/>
-      <c r="X8" s="345"/>
-      <c r="Y8" s="345"/>
-      <c r="Z8" s="345"/>
-      <c r="AA8" s="345"/>
-      <c r="AB8" s="350"/>
-      <c r="AC8" s="357" t="s">
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="292"/>
+      <c r="AB8" s="293"/>
+      <c r="AC8" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="358"/>
-      <c r="AE8" s="358"/>
-      <c r="AF8" s="358"/>
-      <c r="AG8" s="358"/>
-      <c r="AH8" s="291" t="s">
+      <c r="AD8" s="304"/>
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="304"/>
+      <c r="AH8" s="350" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="291"/>
+      <c r="AI8" s="350"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="166">
         <v>1</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="347"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="349"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="296"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="297"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="312"/>
-      <c r="T9" s="313"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="295"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="341"/>
-      <c r="AC9" s="338" t="s">
+      <c r="B9" s="345"/>
+      <c r="C9" s="346"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="318"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="312"/>
+      <c r="V9" s="345"/>
+      <c r="W9" s="346"/>
+      <c r="X9" s="346"/>
+      <c r="Y9" s="346"/>
+      <c r="Z9" s="346"/>
+      <c r="AA9" s="346"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="340" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="295"/>
-      <c r="AE9" s="296"/>
-      <c r="AF9" s="296"/>
-      <c r="AG9" s="297"/>
-      <c r="AH9" s="307"/>
-      <c r="AI9" s="308"/>
+      <c r="AD9" s="345"/>
+      <c r="AE9" s="346"/>
+      <c r="AF9" s="346"/>
+      <c r="AG9" s="349"/>
+      <c r="AH9" s="357"/>
+      <c r="AI9" s="358"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="166">
         <v>2</v>
       </c>
-      <c r="B10" s="298"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="299"/>
-      <c r="P10" s="300"/>
-      <c r="Q10" s="315"/>
-      <c r="R10" s="317"/>
-      <c r="S10" s="315"/>
-      <c r="T10" s="316"/>
-      <c r="U10" s="317"/>
-      <c r="V10" s="298"/>
-      <c r="W10" s="299"/>
-      <c r="X10" s="299"/>
-      <c r="Y10" s="299"/>
-      <c r="Z10" s="299"/>
-      <c r="AA10" s="299"/>
-      <c r="AB10" s="306"/>
-      <c r="AC10" s="339"/>
-      <c r="AD10" s="298"/>
-      <c r="AE10" s="299"/>
-      <c r="AF10" s="299"/>
-      <c r="AG10" s="300"/>
-      <c r="AH10" s="304"/>
-      <c r="AI10" s="305"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="308"/>
+      <c r="O10" s="308"/>
+      <c r="P10" s="309"/>
+      <c r="Q10" s="305"/>
+      <c r="R10" s="306"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="310"/>
+      <c r="U10" s="306"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="308"/>
+      <c r="X10" s="308"/>
+      <c r="Y10" s="308"/>
+      <c r="Z10" s="308"/>
+      <c r="AA10" s="308"/>
+      <c r="AB10" s="322"/>
+      <c r="AC10" s="341"/>
+      <c r="AD10" s="307"/>
+      <c r="AE10" s="308"/>
+      <c r="AF10" s="308"/>
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="343"/>
+      <c r="AI10" s="344"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="166">
         <v>3</v>
       </c>
-      <c r="B11" s="298"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="319"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="315"/>
-      <c r="R11" s="317"/>
-      <c r="S11" s="315"/>
-      <c r="T11" s="316"/>
-      <c r="U11" s="317"/>
-      <c r="V11" s="298"/>
-      <c r="W11" s="299"/>
-      <c r="X11" s="299"/>
-      <c r="Y11" s="299"/>
-      <c r="Z11" s="299"/>
-      <c r="AA11" s="299"/>
-      <c r="AB11" s="306"/>
-      <c r="AC11" s="339"/>
-      <c r="AD11" s="301"/>
-      <c r="AE11" s="302"/>
-      <c r="AF11" s="302"/>
-      <c r="AG11" s="303"/>
-      <c r="AH11" s="304"/>
-      <c r="AI11" s="305"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="313"/>
+      <c r="H11" s="314"/>
+      <c r="I11" s="315"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="308"/>
+      <c r="M11" s="308"/>
+      <c r="N11" s="308"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="309"/>
+      <c r="Q11" s="305"/>
+      <c r="R11" s="306"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="310"/>
+      <c r="U11" s="306"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="308"/>
+      <c r="X11" s="308"/>
+      <c r="Y11" s="308"/>
+      <c r="Z11" s="308"/>
+      <c r="AA11" s="308"/>
+      <c r="AB11" s="322"/>
+      <c r="AC11" s="341"/>
+      <c r="AD11" s="354"/>
+      <c r="AE11" s="355"/>
+      <c r="AF11" s="355"/>
+      <c r="AG11" s="356"/>
+      <c r="AH11" s="343"/>
+      <c r="AI11" s="344"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="166">
         <v>4</v>
       </c>
-      <c r="B12" s="298"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="320"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="315"/>
-      <c r="R12" s="317"/>
-      <c r="S12" s="315"/>
-      <c r="T12" s="316"/>
-      <c r="U12" s="317"/>
-      <c r="V12" s="298"/>
-      <c r="W12" s="299"/>
-      <c r="X12" s="299"/>
-      <c r="Y12" s="299"/>
-      <c r="Z12" s="299"/>
-      <c r="AA12" s="299"/>
-      <c r="AB12" s="306"/>
-      <c r="AC12" s="339"/>
-      <c r="AD12" s="301"/>
-      <c r="AE12" s="302"/>
-      <c r="AF12" s="302"/>
-      <c r="AG12" s="303"/>
-      <c r="AH12" s="304"/>
-      <c r="AI12" s="305"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="314"/>
+      <c r="I12" s="315"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="308"/>
+      <c r="M12" s="308"/>
+      <c r="N12" s="308"/>
+      <c r="O12" s="308"/>
+      <c r="P12" s="309"/>
+      <c r="Q12" s="305"/>
+      <c r="R12" s="306"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="310"/>
+      <c r="U12" s="306"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="308"/>
+      <c r="Z12" s="308"/>
+      <c r="AA12" s="308"/>
+      <c r="AB12" s="322"/>
+      <c r="AC12" s="341"/>
+      <c r="AD12" s="354"/>
+      <c r="AE12" s="355"/>
+      <c r="AF12" s="355"/>
+      <c r="AG12" s="356"/>
+      <c r="AH12" s="343"/>
+      <c r="AI12" s="344"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="166">
         <v>5</v>
       </c>
-      <c r="B13" s="309"/>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="315"/>
-      <c r="R13" s="317"/>
-      <c r="S13" s="315"/>
-      <c r="T13" s="316"/>
-      <c r="U13" s="317"/>
-      <c r="V13" s="298"/>
-      <c r="W13" s="299"/>
-      <c r="X13" s="299"/>
-      <c r="Y13" s="299"/>
-      <c r="Z13" s="299"/>
-      <c r="AA13" s="299"/>
-      <c r="AB13" s="306"/>
-      <c r="AC13" s="339"/>
-      <c r="AD13" s="301"/>
-      <c r="AE13" s="302"/>
-      <c r="AF13" s="302"/>
-      <c r="AG13" s="303"/>
-      <c r="AH13" s="304"/>
-      <c r="AI13" s="305"/>
+      <c r="B13" s="332"/>
+      <c r="C13" s="333"/>
+      <c r="D13" s="333"/>
+      <c r="E13" s="333"/>
+      <c r="F13" s="334"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="308"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="309"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="310"/>
+      <c r="U13" s="306"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="308"/>
+      <c r="X13" s="308"/>
+      <c r="Y13" s="308"/>
+      <c r="Z13" s="308"/>
+      <c r="AA13" s="308"/>
+      <c r="AB13" s="322"/>
+      <c r="AC13" s="341"/>
+      <c r="AD13" s="354"/>
+      <c r="AE13" s="355"/>
+      <c r="AF13" s="355"/>
+      <c r="AG13" s="356"/>
+      <c r="AH13" s="343"/>
+      <c r="AI13" s="344"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="166">
         <v>6</v>
       </c>
-      <c r="B14" s="309"/>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="298"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="315"/>
-      <c r="R14" s="317"/>
-      <c r="S14" s="315"/>
-      <c r="T14" s="316"/>
-      <c r="U14" s="317"/>
-      <c r="V14" s="298"/>
-      <c r="W14" s="299"/>
-      <c r="X14" s="299"/>
-      <c r="Y14" s="299"/>
-      <c r="Z14" s="299"/>
-      <c r="AA14" s="299"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="339"/>
-      <c r="AD14" s="301"/>
-      <c r="AE14" s="302"/>
-      <c r="AF14" s="302"/>
-      <c r="AG14" s="303"/>
-      <c r="AH14" s="304"/>
-      <c r="AI14" s="305"/>
+      <c r="B14" s="332"/>
+      <c r="C14" s="333"/>
+      <c r="D14" s="333"/>
+      <c r="E14" s="333"/>
+      <c r="F14" s="334"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="308"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="308"/>
+      <c r="P14" s="309"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="306"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="310"/>
+      <c r="U14" s="306"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="308"/>
+      <c r="X14" s="308"/>
+      <c r="Y14" s="308"/>
+      <c r="Z14" s="308"/>
+      <c r="AA14" s="308"/>
+      <c r="AB14" s="322"/>
+      <c r="AC14" s="341"/>
+      <c r="AD14" s="354"/>
+      <c r="AE14" s="355"/>
+      <c r="AF14" s="355"/>
+      <c r="AG14" s="356"/>
+      <c r="AH14" s="343"/>
+      <c r="AI14" s="344"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="167">
         <v>7</v>
       </c>
-      <c r="B15" s="309"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="315"/>
-      <c r="R15" s="317"/>
-      <c r="S15" s="315"/>
-      <c r="T15" s="316"/>
-      <c r="U15" s="317"/>
-      <c r="V15" s="298"/>
-      <c r="W15" s="299"/>
-      <c r="X15" s="299"/>
-      <c r="Y15" s="299"/>
-      <c r="Z15" s="299"/>
-      <c r="AA15" s="299"/>
-      <c r="AB15" s="306"/>
-      <c r="AC15" s="339"/>
-      <c r="AD15" s="301"/>
-      <c r="AE15" s="302"/>
-      <c r="AF15" s="302"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="304"/>
-      <c r="AI15" s="305"/>
+      <c r="B15" s="332"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="334"/>
+      <c r="G15" s="307"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="308"/>
+      <c r="N15" s="308"/>
+      <c r="O15" s="308"/>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="306"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="310"/>
+      <c r="U15" s="306"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="308"/>
+      <c r="X15" s="308"/>
+      <c r="Y15" s="308"/>
+      <c r="Z15" s="308"/>
+      <c r="AA15" s="308"/>
+      <c r="AB15" s="322"/>
+      <c r="AC15" s="341"/>
+      <c r="AD15" s="354"/>
+      <c r="AE15" s="355"/>
+      <c r="AF15" s="355"/>
+      <c r="AG15" s="356"/>
+      <c r="AH15" s="343"/>
+      <c r="AI15" s="344"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="167">
         <v>8</v>
       </c>
-      <c r="B16" s="309"/>
-      <c r="C16" s="310"/>
-      <c r="D16" s="310"/>
-      <c r="E16" s="310"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="315"/>
-      <c r="R16" s="317"/>
-      <c r="S16" s="315"/>
-      <c r="T16" s="316"/>
-      <c r="U16" s="317"/>
-      <c r="V16" s="298"/>
-      <c r="W16" s="299"/>
-      <c r="X16" s="299"/>
-      <c r="Y16" s="299"/>
-      <c r="Z16" s="299"/>
-      <c r="AA16" s="299"/>
-      <c r="AB16" s="306"/>
-      <c r="AC16" s="339"/>
-      <c r="AD16" s="301"/>
-      <c r="AE16" s="302"/>
-      <c r="AF16" s="302"/>
-      <c r="AG16" s="303"/>
-      <c r="AH16" s="304"/>
-      <c r="AI16" s="305"/>
+      <c r="B16" s="332"/>
+      <c r="C16" s="333"/>
+      <c r="D16" s="333"/>
+      <c r="E16" s="333"/>
+      <c r="F16" s="334"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="306"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="310"/>
+      <c r="U16" s="306"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="308"/>
+      <c r="X16" s="308"/>
+      <c r="Y16" s="308"/>
+      <c r="Z16" s="308"/>
+      <c r="AA16" s="308"/>
+      <c r="AB16" s="322"/>
+      <c r="AC16" s="341"/>
+      <c r="AD16" s="354"/>
+      <c r="AE16" s="355"/>
+      <c r="AF16" s="355"/>
+      <c r="AG16" s="356"/>
+      <c r="AH16" s="343"/>
+      <c r="AI16" s="344"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="168">
         <v>9</v>
       </c>
-      <c r="B17" s="333"/>
-      <c r="C17" s="334"/>
-      <c r="D17" s="334"/>
-      <c r="E17" s="334"/>
-      <c r="F17" s="335"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="332"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="325"/>
-      <c r="L17" s="325"/>
-      <c r="M17" s="325"/>
-      <c r="N17" s="325"/>
-      <c r="O17" s="325"/>
-      <c r="P17" s="332"/>
-      <c r="Q17" s="329"/>
-      <c r="R17" s="331"/>
-      <c r="S17" s="329"/>
-      <c r="T17" s="330"/>
-      <c r="U17" s="331"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="325"/>
-      <c r="X17" s="325"/>
-      <c r="Y17" s="325"/>
-      <c r="Z17" s="325"/>
-      <c r="AA17" s="325"/>
-      <c r="AB17" s="326"/>
-      <c r="AC17" s="340"/>
-      <c r="AD17" s="292"/>
-      <c r="AE17" s="293"/>
-      <c r="AF17" s="293"/>
-      <c r="AG17" s="294"/>
-      <c r="AH17" s="336"/>
-      <c r="AI17" s="337"/>
+      <c r="B17" s="335"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="337"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="324"/>
+      <c r="I17" s="331"/>
+      <c r="J17" s="323"/>
+      <c r="K17" s="324"/>
+      <c r="L17" s="324"/>
+      <c r="M17" s="324"/>
+      <c r="N17" s="324"/>
+      <c r="O17" s="324"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="328"/>
+      <c r="R17" s="330"/>
+      <c r="S17" s="328"/>
+      <c r="T17" s="329"/>
+      <c r="U17" s="330"/>
+      <c r="V17" s="323"/>
+      <c r="W17" s="324"/>
+      <c r="X17" s="324"/>
+      <c r="Y17" s="324"/>
+      <c r="Z17" s="324"/>
+      <c r="AA17" s="324"/>
+      <c r="AB17" s="325"/>
+      <c r="AC17" s="342"/>
+      <c r="AD17" s="351"/>
+      <c r="AE17" s="352"/>
+      <c r="AF17" s="352"/>
+      <c r="AG17" s="353"/>
+      <c r="AH17" s="338"/>
+      <c r="AI17" s="339"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="327"/>
-      <c r="B18" s="328"/>
-      <c r="C18" s="328"/>
-      <c r="D18" s="328"/>
-      <c r="E18" s="328"/>
-      <c r="F18" s="328"/>
+      <c r="A18" s="326"/>
+      <c r="B18" s="327"/>
+      <c r="C18" s="327"/>
+      <c r="D18" s="327"/>
+      <c r="E18" s="327"/>
+      <c r="F18" s="327"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12392,23 +12392,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="323"/>
-      <c r="AE18" s="323"/>
-      <c r="AF18" s="323"/>
-      <c r="AG18" s="323"/>
-      <c r="AH18" s="323"/>
+      <c r="AD18" s="321"/>
+      <c r="AE18" s="321"/>
+      <c r="AF18" s="321"/>
+      <c r="AG18" s="321"/>
+      <c r="AH18" s="321"/>
       <c r="AI18" s="105"/>
       <c r="AJ18" s="43"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="321" t="s">
+      <c r="A19" s="319" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="322"/>
-      <c r="C19" s="322"/>
-      <c r="D19" s="322"/>
-      <c r="E19" s="322"/>
-      <c r="F19" s="322"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="320"/>
+      <c r="F19" s="320"/>
       <c r="G19" s="119"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -13147,6 +13147,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="V8:AB8"/>
     <mergeCell ref="J8:P8"/>
@@ -13171,85 +13250,6 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="AC7:AI7"/>
     <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -13288,157 +13288,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="207" t="str">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="216" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="234" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="239" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="213" t="s">
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="255" t="str">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="207" t="str">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="213" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="207" t="str">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:103" ht="11.25"/>
     <row r="5" spans="1:103" ht="11.25">
@@ -13459,69 +13459,69 @@
       <c r="A7" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="359" t="s">
+      <c r="B7" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="360"/>
-      <c r="D7" s="360"/>
-      <c r="E7" s="360"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="359" t="s">
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="372" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="360"/>
-      <c r="I7" s="360"/>
-      <c r="J7" s="360"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="359" t="s">
+      <c r="H7" s="373"/>
+      <c r="I7" s="373"/>
+      <c r="J7" s="373"/>
+      <c r="K7" s="374"/>
+      <c r="L7" s="372" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="360"/>
-      <c r="N7" s="360"/>
-      <c r="O7" s="360"/>
-      <c r="P7" s="361"/>
+      <c r="M7" s="373"/>
+      <c r="N7" s="373"/>
+      <c r="O7" s="373"/>
+      <c r="P7" s="374"/>
       <c r="Q7" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="362" t="s">
+      <c r="R7" s="378" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="362"/>
-      <c r="T7" s="362"/>
-      <c r="U7" s="362"/>
-      <c r="V7" s="363" t="s">
+      <c r="S7" s="378"/>
+      <c r="T7" s="378"/>
+      <c r="U7" s="378"/>
+      <c r="V7" s="375" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="363"/>
-      <c r="X7" s="364" t="s">
+      <c r="W7" s="375"/>
+      <c r="X7" s="376" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="365"/>
-      <c r="Z7" s="359" t="s">
+      <c r="Y7" s="377"/>
+      <c r="Z7" s="372" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="361"/>
-      <c r="AB7" s="359" t="s">
+      <c r="AA7" s="374"/>
+      <c r="AB7" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="361"/>
-      <c r="AD7" s="359" t="s">
+      <c r="AC7" s="374"/>
+      <c r="AD7" s="372" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="359" t="s">
+      <c r="AE7" s="374"/>
+      <c r="AF7" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="360"/>
-      <c r="AH7" s="361"/>
-      <c r="AI7" s="359" t="s">
+      <c r="AG7" s="373"/>
+      <c r="AH7" s="374"/>
+      <c r="AI7" s="372" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="360"/>
-      <c r="AK7" s="360"/>
-      <c r="AL7" s="360"/>
-      <c r="AM7" s="360"/>
-      <c r="AN7" s="361"/>
+      <c r="AJ7" s="373"/>
+      <c r="AK7" s="373"/>
+      <c r="AL7" s="373"/>
+      <c r="AM7" s="373"/>
+      <c r="AN7" s="374"/>
       <c r="AV7" s="174"/>
       <c r="AW7" s="174"/>
       <c r="AX7" s="174"/>
@@ -13581,47 +13581,47 @@
     </row>
     <row r="8" spans="1:103" ht="15" customHeight="1">
       <c r="A8" s="165"/>
-      <c r="B8" s="370"/>
-      <c r="C8" s="371"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="371"/>
-      <c r="F8" s="372"/>
-      <c r="G8" s="366"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="367"/>
-      <c r="K8" s="368"/>
-      <c r="L8" s="366"/>
-      <c r="M8" s="367"/>
-      <c r="N8" s="367"/>
-      <c r="O8" s="367"/>
-      <c r="P8" s="368"/>
+      <c r="B8" s="367"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="369"/>
+      <c r="G8" s="359"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="361"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="360"/>
+      <c r="L8" s="359"/>
+      <c r="M8" s="361"/>
+      <c r="N8" s="361"/>
+      <c r="O8" s="361"/>
+      <c r="P8" s="360"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="373"/>
-      <c r="S8" s="373"/>
-      <c r="T8" s="373"/>
-      <c r="U8" s="373"/>
-      <c r="V8" s="369"/>
-      <c r="W8" s="369"/>
-      <c r="X8" s="374">
+      <c r="R8" s="371"/>
+      <c r="S8" s="371"/>
+      <c r="T8" s="371"/>
+      <c r="U8" s="371"/>
+      <c r="V8" s="370"/>
+      <c r="W8" s="370"/>
+      <c r="X8" s="362">
         <v>1</v>
       </c>
-      <c r="Y8" s="375"/>
-      <c r="Z8" s="366"/>
-      <c r="AA8" s="368"/>
-      <c r="AB8" s="366"/>
-      <c r="AC8" s="368"/>
-      <c r="AD8" s="366"/>
-      <c r="AE8" s="368"/>
-      <c r="AF8" s="366"/>
-      <c r="AG8" s="367"/>
-      <c r="AH8" s="368"/>
-      <c r="AI8" s="376"/>
-      <c r="AJ8" s="377"/>
-      <c r="AK8" s="377"/>
-      <c r="AL8" s="377"/>
-      <c r="AM8" s="377"/>
-      <c r="AN8" s="378"/>
+      <c r="Y8" s="363"/>
+      <c r="Z8" s="359"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="359"/>
+      <c r="AC8" s="360"/>
+      <c r="AD8" s="359"/>
+      <c r="AE8" s="360"/>
+      <c r="AF8" s="359"/>
+      <c r="AG8" s="361"/>
+      <c r="AH8" s="360"/>
+      <c r="AI8" s="364"/>
+      <c r="AJ8" s="365"/>
+      <c r="AK8" s="365"/>
+      <c r="AL8" s="365"/>
+      <c r="AM8" s="365"/>
+      <c r="AN8" s="366"/>
       <c r="AV8" s="120"/>
       <c r="AW8" s="120"/>
       <c r="AX8" s="120"/>
@@ -13681,48 +13681,48 @@
     </row>
     <row r="9" spans="1:103" ht="15" customHeight="1">
       <c r="A9" s="165"/>
-      <c r="B9" s="370"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="366"/>
-      <c r="H9" s="367"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="367"/>
-      <c r="K9" s="368"/>
-      <c r="L9" s="366"/>
-      <c r="M9" s="367"/>
-      <c r="N9" s="367"/>
-      <c r="O9" s="367"/>
-      <c r="P9" s="368"/>
+      <c r="B9" s="367"/>
+      <c r="C9" s="368"/>
+      <c r="D9" s="368"/>
+      <c r="E9" s="368"/>
+      <c r="F9" s="369"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="361"/>
+      <c r="J9" s="361"/>
+      <c r="K9" s="360"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="361"/>
+      <c r="N9" s="361"/>
+      <c r="O9" s="361"/>
+      <c r="P9" s="360"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="373"/>
-      <c r="S9" s="373"/>
-      <c r="T9" s="373"/>
-      <c r="U9" s="373"/>
-      <c r="V9" s="369"/>
-      <c r="W9" s="369"/>
-      <c r="X9" s="374">
+      <c r="R9" s="371"/>
+      <c r="S9" s="371"/>
+      <c r="T9" s="371"/>
+      <c r="U9" s="371"/>
+      <c r="V9" s="370"/>
+      <c r="W9" s="370"/>
+      <c r="X9" s="362">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="375"/>
-      <c r="Z9" s="366"/>
-      <c r="AA9" s="368"/>
-      <c r="AB9" s="366"/>
-      <c r="AC9" s="368"/>
-      <c r="AD9" s="366"/>
-      <c r="AE9" s="368"/>
-      <c r="AF9" s="366"/>
-      <c r="AG9" s="367"/>
-      <c r="AH9" s="368"/>
-      <c r="AI9" s="376"/>
-      <c r="AJ9" s="377"/>
-      <c r="AK9" s="377"/>
-      <c r="AL9" s="377"/>
-      <c r="AM9" s="377"/>
-      <c r="AN9" s="378"/>
+      <c r="Y9" s="363"/>
+      <c r="Z9" s="359"/>
+      <c r="AA9" s="360"/>
+      <c r="AB9" s="359"/>
+      <c r="AC9" s="360"/>
+      <c r="AD9" s="359"/>
+      <c r="AE9" s="360"/>
+      <c r="AF9" s="359"/>
+      <c r="AG9" s="361"/>
+      <c r="AH9" s="360"/>
+      <c r="AI9" s="364"/>
+      <c r="AJ9" s="365"/>
+      <c r="AK9" s="365"/>
+      <c r="AL9" s="365"/>
+      <c r="AM9" s="365"/>
+      <c r="AN9" s="366"/>
       <c r="AV9" s="120"/>
       <c r="AW9" s="120"/>
       <c r="AX9" s="120"/>
@@ -13782,48 +13782,48 @@
     </row>
     <row r="10" spans="1:103" ht="15" customHeight="1">
       <c r="A10" s="165"/>
-      <c r="B10" s="370"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="372"/>
-      <c r="G10" s="366"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="367"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="366"/>
-      <c r="M10" s="367"/>
-      <c r="N10" s="367"/>
-      <c r="O10" s="367"/>
-      <c r="P10" s="368"/>
+      <c r="B10" s="367"/>
+      <c r="C10" s="368"/>
+      <c r="D10" s="368"/>
+      <c r="E10" s="368"/>
+      <c r="F10" s="369"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="359"/>
+      <c r="M10" s="361"/>
+      <c r="N10" s="361"/>
+      <c r="O10" s="361"/>
+      <c r="P10" s="360"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="373"/>
-      <c r="S10" s="373"/>
-      <c r="T10" s="373"/>
-      <c r="U10" s="373"/>
-      <c r="V10" s="369"/>
-      <c r="W10" s="369"/>
-      <c r="X10" s="374">
+      <c r="R10" s="371"/>
+      <c r="S10" s="371"/>
+      <c r="T10" s="371"/>
+      <c r="U10" s="371"/>
+      <c r="V10" s="370"/>
+      <c r="W10" s="370"/>
+      <c r="X10" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="375"/>
-      <c r="Z10" s="366"/>
-      <c r="AA10" s="368"/>
-      <c r="AB10" s="366"/>
-      <c r="AC10" s="368"/>
-      <c r="AD10" s="366"/>
-      <c r="AE10" s="368"/>
-      <c r="AF10" s="366"/>
-      <c r="AG10" s="367"/>
-      <c r="AH10" s="368"/>
-      <c r="AI10" s="376"/>
-      <c r="AJ10" s="377"/>
-      <c r="AK10" s="377"/>
-      <c r="AL10" s="377"/>
-      <c r="AM10" s="377"/>
-      <c r="AN10" s="378"/>
+      <c r="Y10" s="363"/>
+      <c r="Z10" s="359"/>
+      <c r="AA10" s="360"/>
+      <c r="AB10" s="359"/>
+      <c r="AC10" s="360"/>
+      <c r="AD10" s="359"/>
+      <c r="AE10" s="360"/>
+      <c r="AF10" s="359"/>
+      <c r="AG10" s="361"/>
+      <c r="AH10" s="360"/>
+      <c r="AI10" s="364"/>
+      <c r="AJ10" s="365"/>
+      <c r="AK10" s="365"/>
+      <c r="AL10" s="365"/>
+      <c r="AM10" s="365"/>
+      <c r="AN10" s="366"/>
       <c r="AV10" s="120"/>
       <c r="AW10" s="120"/>
       <c r="AX10" s="120"/>
@@ -13883,48 +13883,48 @@
     </row>
     <row r="11" spans="1:103" ht="15" customHeight="1">
       <c r="A11" s="165"/>
-      <c r="B11" s="370"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="366"/>
-      <c r="H11" s="367"/>
-      <c r="I11" s="367"/>
-      <c r="J11" s="367"/>
-      <c r="K11" s="368"/>
-      <c r="L11" s="366"/>
-      <c r="M11" s="367"/>
-      <c r="N11" s="367"/>
-      <c r="O11" s="367"/>
-      <c r="P11" s="368"/>
+      <c r="B11" s="367"/>
+      <c r="C11" s="368"/>
+      <c r="D11" s="368"/>
+      <c r="E11" s="368"/>
+      <c r="F11" s="369"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="361"/>
+      <c r="J11" s="361"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="359"/>
+      <c r="M11" s="361"/>
+      <c r="N11" s="361"/>
+      <c r="O11" s="361"/>
+      <c r="P11" s="360"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="373"/>
-      <c r="S11" s="373"/>
-      <c r="T11" s="373"/>
-      <c r="U11" s="373"/>
-      <c r="V11" s="369"/>
-      <c r="W11" s="369"/>
-      <c r="X11" s="374">
+      <c r="R11" s="371"/>
+      <c r="S11" s="371"/>
+      <c r="T11" s="371"/>
+      <c r="U11" s="371"/>
+      <c r="V11" s="370"/>
+      <c r="W11" s="370"/>
+      <c r="X11" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="375"/>
-      <c r="Z11" s="366"/>
-      <c r="AA11" s="368"/>
-      <c r="AB11" s="366"/>
-      <c r="AC11" s="368"/>
-      <c r="AD11" s="366"/>
-      <c r="AE11" s="368"/>
-      <c r="AF11" s="366"/>
-      <c r="AG11" s="367"/>
-      <c r="AH11" s="368"/>
-      <c r="AI11" s="376"/>
-      <c r="AJ11" s="377"/>
-      <c r="AK11" s="377"/>
-      <c r="AL11" s="377"/>
-      <c r="AM11" s="377"/>
-      <c r="AN11" s="378"/>
+      <c r="Y11" s="363"/>
+      <c r="Z11" s="359"/>
+      <c r="AA11" s="360"/>
+      <c r="AB11" s="359"/>
+      <c r="AC11" s="360"/>
+      <c r="AD11" s="359"/>
+      <c r="AE11" s="360"/>
+      <c r="AF11" s="359"/>
+      <c r="AG11" s="361"/>
+      <c r="AH11" s="360"/>
+      <c r="AI11" s="364"/>
+      <c r="AJ11" s="365"/>
+      <c r="AK11" s="365"/>
+      <c r="AL11" s="365"/>
+      <c r="AM11" s="365"/>
+      <c r="AN11" s="366"/>
       <c r="AV11" s="120"/>
       <c r="AW11" s="120"/>
       <c r="AX11" s="120"/>
@@ -13984,48 +13984,48 @@
     </row>
     <row r="12" spans="1:103" ht="15" customHeight="1">
       <c r="A12" s="165"/>
-      <c r="B12" s="370"/>
-      <c r="C12" s="371"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="371"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="367"/>
-      <c r="I12" s="367"/>
-      <c r="J12" s="367"/>
-      <c r="K12" s="368"/>
-      <c r="L12" s="366"/>
-      <c r="M12" s="367"/>
-      <c r="N12" s="367"/>
-      <c r="O12" s="367"/>
-      <c r="P12" s="368"/>
+      <c r="B12" s="367"/>
+      <c r="C12" s="368"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="368"/>
+      <c r="F12" s="369"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="361"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="360"/>
+      <c r="L12" s="359"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="360"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="373"/>
-      <c r="S12" s="373"/>
-      <c r="T12" s="373"/>
-      <c r="U12" s="373"/>
-      <c r="V12" s="369"/>
-      <c r="W12" s="369"/>
-      <c r="X12" s="374">
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="371"/>
+      <c r="U12" s="371"/>
+      <c r="V12" s="370"/>
+      <c r="W12" s="370"/>
+      <c r="X12" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="375"/>
-      <c r="Z12" s="366"/>
-      <c r="AA12" s="368"/>
-      <c r="AB12" s="366"/>
-      <c r="AC12" s="368"/>
-      <c r="AD12" s="366"/>
-      <c r="AE12" s="368"/>
-      <c r="AF12" s="366"/>
-      <c r="AG12" s="367"/>
-      <c r="AH12" s="368"/>
-      <c r="AI12" s="376"/>
-      <c r="AJ12" s="377"/>
-      <c r="AK12" s="377"/>
-      <c r="AL12" s="377"/>
-      <c r="AM12" s="377"/>
-      <c r="AN12" s="378"/>
+      <c r="Y12" s="363"/>
+      <c r="Z12" s="359"/>
+      <c r="AA12" s="360"/>
+      <c r="AB12" s="359"/>
+      <c r="AC12" s="360"/>
+      <c r="AD12" s="359"/>
+      <c r="AE12" s="360"/>
+      <c r="AF12" s="359"/>
+      <c r="AG12" s="361"/>
+      <c r="AH12" s="360"/>
+      <c r="AI12" s="364"/>
+      <c r="AJ12" s="365"/>
+      <c r="AK12" s="365"/>
+      <c r="AL12" s="365"/>
+      <c r="AM12" s="365"/>
+      <c r="AN12" s="366"/>
       <c r="AV12" s="120"/>
       <c r="AW12" s="120"/>
       <c r="AX12" s="120"/>
@@ -14085,48 +14085,48 @@
     </row>
     <row r="13" spans="1:103" ht="15" customHeight="1">
       <c r="A13" s="165"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="368"/>
-      <c r="L13" s="366"/>
-      <c r="M13" s="367"/>
-      <c r="N13" s="367"/>
-      <c r="O13" s="367"/>
-      <c r="P13" s="368"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
+      <c r="F13" s="369"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="361"/>
+      <c r="J13" s="361"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="359"/>
+      <c r="M13" s="361"/>
+      <c r="N13" s="361"/>
+      <c r="O13" s="361"/>
+      <c r="P13" s="360"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
-      <c r="T13" s="373"/>
-      <c r="U13" s="373"/>
-      <c r="V13" s="369"/>
-      <c r="W13" s="369"/>
-      <c r="X13" s="374">
+      <c r="R13" s="371"/>
+      <c r="S13" s="371"/>
+      <c r="T13" s="371"/>
+      <c r="U13" s="371"/>
+      <c r="V13" s="370"/>
+      <c r="W13" s="370"/>
+      <c r="X13" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="375"/>
-      <c r="Z13" s="366"/>
-      <c r="AA13" s="368"/>
-      <c r="AB13" s="366"/>
-      <c r="AC13" s="368"/>
-      <c r="AD13" s="366"/>
-      <c r="AE13" s="368"/>
-      <c r="AF13" s="366"/>
-      <c r="AG13" s="367"/>
-      <c r="AH13" s="368"/>
-      <c r="AI13" s="376"/>
-      <c r="AJ13" s="377"/>
-      <c r="AK13" s="377"/>
-      <c r="AL13" s="377"/>
-      <c r="AM13" s="377"/>
-      <c r="AN13" s="378"/>
+      <c r="Y13" s="363"/>
+      <c r="Z13" s="359"/>
+      <c r="AA13" s="360"/>
+      <c r="AB13" s="359"/>
+      <c r="AC13" s="360"/>
+      <c r="AD13" s="359"/>
+      <c r="AE13" s="360"/>
+      <c r="AF13" s="359"/>
+      <c r="AG13" s="361"/>
+      <c r="AH13" s="360"/>
+      <c r="AI13" s="364"/>
+      <c r="AJ13" s="365"/>
+      <c r="AK13" s="365"/>
+      <c r="AL13" s="365"/>
+      <c r="AM13" s="365"/>
+      <c r="AN13" s="366"/>
       <c r="AV13" s="120"/>
       <c r="AW13" s="120"/>
       <c r="AX13" s="120"/>
@@ -14186,48 +14186,48 @@
     </row>
     <row r="14" spans="1:103" ht="15" customHeight="1">
       <c r="A14" s="165"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="371"/>
-      <c r="F14" s="372"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="367"/>
-      <c r="K14" s="368"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="367"/>
-      <c r="N14" s="367"/>
-      <c r="O14" s="367"/>
-      <c r="P14" s="368"/>
+      <c r="B14" s="367"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="361"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="360"/>
+      <c r="L14" s="359"/>
+      <c r="M14" s="361"/>
+      <c r="N14" s="361"/>
+      <c r="O14" s="361"/>
+      <c r="P14" s="360"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="373"/>
-      <c r="S14" s="373"/>
-      <c r="T14" s="373"/>
-      <c r="U14" s="373"/>
-      <c r="V14" s="369"/>
-      <c r="W14" s="369"/>
-      <c r="X14" s="374">
+      <c r="R14" s="371"/>
+      <c r="S14" s="371"/>
+      <c r="T14" s="371"/>
+      <c r="U14" s="371"/>
+      <c r="V14" s="370"/>
+      <c r="W14" s="370"/>
+      <c r="X14" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="375"/>
-      <c r="Z14" s="366"/>
-      <c r="AA14" s="368"/>
-      <c r="AB14" s="366"/>
-      <c r="AC14" s="368"/>
-      <c r="AD14" s="366"/>
-      <c r="AE14" s="368"/>
-      <c r="AF14" s="366"/>
-      <c r="AG14" s="367"/>
-      <c r="AH14" s="368"/>
-      <c r="AI14" s="376"/>
-      <c r="AJ14" s="377"/>
-      <c r="AK14" s="377"/>
-      <c r="AL14" s="377"/>
-      <c r="AM14" s="377"/>
-      <c r="AN14" s="378"/>
+      <c r="Y14" s="363"/>
+      <c r="Z14" s="359"/>
+      <c r="AA14" s="360"/>
+      <c r="AB14" s="359"/>
+      <c r="AC14" s="360"/>
+      <c r="AD14" s="359"/>
+      <c r="AE14" s="360"/>
+      <c r="AF14" s="359"/>
+      <c r="AG14" s="361"/>
+      <c r="AH14" s="360"/>
+      <c r="AI14" s="364"/>
+      <c r="AJ14" s="365"/>
+      <c r="AK14" s="365"/>
+      <c r="AL14" s="365"/>
+      <c r="AM14" s="365"/>
+      <c r="AN14" s="366"/>
       <c r="AV14" s="120"/>
       <c r="AW14" s="120"/>
       <c r="AX14" s="120"/>
@@ -14287,48 +14287,48 @@
     </row>
     <row r="15" spans="1:103" ht="15" customHeight="1">
       <c r="A15" s="165"/>
-      <c r="B15" s="370"/>
-      <c r="C15" s="371"/>
-      <c r="D15" s="371"/>
-      <c r="E15" s="371"/>
-      <c r="F15" s="372"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="367"/>
-      <c r="K15" s="368"/>
-      <c r="L15" s="366"/>
-      <c r="M15" s="367"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="367"/>
-      <c r="P15" s="368"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="359"/>
+      <c r="H15" s="361"/>
+      <c r="I15" s="361"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="360"/>
+      <c r="L15" s="359"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361"/>
+      <c r="O15" s="361"/>
+      <c r="P15" s="360"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="373"/>
-      <c r="S15" s="373"/>
-      <c r="T15" s="373"/>
-      <c r="U15" s="373"/>
-      <c r="V15" s="369"/>
-      <c r="W15" s="369"/>
-      <c r="X15" s="374">
+      <c r="R15" s="371"/>
+      <c r="S15" s="371"/>
+      <c r="T15" s="371"/>
+      <c r="U15" s="371"/>
+      <c r="V15" s="370"/>
+      <c r="W15" s="370"/>
+      <c r="X15" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="375"/>
-      <c r="Z15" s="366"/>
-      <c r="AA15" s="368"/>
-      <c r="AB15" s="366"/>
-      <c r="AC15" s="368"/>
-      <c r="AD15" s="366"/>
-      <c r="AE15" s="368"/>
-      <c r="AF15" s="366"/>
-      <c r="AG15" s="367"/>
-      <c r="AH15" s="368"/>
-      <c r="AI15" s="376"/>
-      <c r="AJ15" s="377"/>
-      <c r="AK15" s="377"/>
-      <c r="AL15" s="377"/>
-      <c r="AM15" s="377"/>
-      <c r="AN15" s="378"/>
+      <c r="Y15" s="363"/>
+      <c r="Z15" s="359"/>
+      <c r="AA15" s="360"/>
+      <c r="AB15" s="359"/>
+      <c r="AC15" s="360"/>
+      <c r="AD15" s="359"/>
+      <c r="AE15" s="360"/>
+      <c r="AF15" s="359"/>
+      <c r="AG15" s="361"/>
+      <c r="AH15" s="360"/>
+      <c r="AI15" s="364"/>
+      <c r="AJ15" s="365"/>
+      <c r="AK15" s="365"/>
+      <c r="AL15" s="365"/>
+      <c r="AM15" s="365"/>
+      <c r="AN15" s="366"/>
       <c r="AV15" s="120"/>
       <c r="AW15" s="120"/>
       <c r="AX15" s="120"/>
@@ -14388,48 +14388,48 @@
     </row>
     <row r="16" spans="1:103" ht="15" customHeight="1">
       <c r="A16" s="165"/>
-      <c r="B16" s="370"/>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="366"/>
-      <c r="H16" s="367"/>
-      <c r="I16" s="367"/>
-      <c r="J16" s="367"/>
-      <c r="K16" s="368"/>
-      <c r="L16" s="366"/>
-      <c r="M16" s="367"/>
-      <c r="N16" s="367"/>
-      <c r="O16" s="367"/>
-      <c r="P16" s="368"/>
+      <c r="B16" s="367"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="361"/>
+      <c r="J16" s="361"/>
+      <c r="K16" s="360"/>
+      <c r="L16" s="359"/>
+      <c r="M16" s="361"/>
+      <c r="N16" s="361"/>
+      <c r="O16" s="361"/>
+      <c r="P16" s="360"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="373"/>
-      <c r="S16" s="373"/>
-      <c r="T16" s="373"/>
-      <c r="U16" s="373"/>
-      <c r="V16" s="369"/>
-      <c r="W16" s="369"/>
-      <c r="X16" s="374">
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="371"/>
+      <c r="U16" s="371"/>
+      <c r="V16" s="370"/>
+      <c r="W16" s="370"/>
+      <c r="X16" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="375"/>
-      <c r="Z16" s="366"/>
-      <c r="AA16" s="368"/>
-      <c r="AB16" s="366"/>
-      <c r="AC16" s="368"/>
-      <c r="AD16" s="366"/>
-      <c r="AE16" s="368"/>
-      <c r="AF16" s="366"/>
-      <c r="AG16" s="367"/>
-      <c r="AH16" s="368"/>
-      <c r="AI16" s="376"/>
-      <c r="AJ16" s="377"/>
-      <c r="AK16" s="377"/>
-      <c r="AL16" s="377"/>
-      <c r="AM16" s="377"/>
-      <c r="AN16" s="378"/>
+      <c r="Y16" s="363"/>
+      <c r="Z16" s="359"/>
+      <c r="AA16" s="360"/>
+      <c r="AB16" s="359"/>
+      <c r="AC16" s="360"/>
+      <c r="AD16" s="359"/>
+      <c r="AE16" s="360"/>
+      <c r="AF16" s="359"/>
+      <c r="AG16" s="361"/>
+      <c r="AH16" s="360"/>
+      <c r="AI16" s="364"/>
+      <c r="AJ16" s="365"/>
+      <c r="AK16" s="365"/>
+      <c r="AL16" s="365"/>
+      <c r="AM16" s="365"/>
+      <c r="AN16" s="366"/>
       <c r="AV16" s="120"/>
       <c r="AW16" s="120"/>
       <c r="AX16" s="120"/>
@@ -14489,48 +14489,48 @@
     </row>
     <row r="17" spans="1:103" ht="15" customHeight="1">
       <c r="A17" s="165"/>
-      <c r="B17" s="370"/>
-      <c r="C17" s="371"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="366"/>
-      <c r="H17" s="367"/>
-      <c r="I17" s="367"/>
-      <c r="J17" s="367"/>
-      <c r="K17" s="368"/>
-      <c r="L17" s="366"/>
-      <c r="M17" s="367"/>
-      <c r="N17" s="367"/>
-      <c r="O17" s="367"/>
-      <c r="P17" s="368"/>
+      <c r="B17" s="367"/>
+      <c r="C17" s="368"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
+      <c r="F17" s="369"/>
+      <c r="G17" s="359"/>
+      <c r="H17" s="361"/>
+      <c r="I17" s="361"/>
+      <c r="J17" s="361"/>
+      <c r="K17" s="360"/>
+      <c r="L17" s="359"/>
+      <c r="M17" s="361"/>
+      <c r="N17" s="361"/>
+      <c r="O17" s="361"/>
+      <c r="P17" s="360"/>
       <c r="Q17" s="76"/>
-      <c r="R17" s="373"/>
-      <c r="S17" s="373"/>
-      <c r="T17" s="373"/>
-      <c r="U17" s="373"/>
-      <c r="V17" s="369"/>
-      <c r="W17" s="369"/>
-      <c r="X17" s="374">
+      <c r="R17" s="371"/>
+      <c r="S17" s="371"/>
+      <c r="T17" s="371"/>
+      <c r="U17" s="371"/>
+      <c r="V17" s="370"/>
+      <c r="W17" s="370"/>
+      <c r="X17" s="362">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="375"/>
-      <c r="Z17" s="366"/>
-      <c r="AA17" s="368"/>
-      <c r="AB17" s="366"/>
-      <c r="AC17" s="368"/>
-      <c r="AD17" s="366"/>
-      <c r="AE17" s="368"/>
-      <c r="AF17" s="366"/>
-      <c r="AG17" s="367"/>
-      <c r="AH17" s="368"/>
-      <c r="AI17" s="376"/>
-      <c r="AJ17" s="377"/>
-      <c r="AK17" s="377"/>
-      <c r="AL17" s="377"/>
-      <c r="AM17" s="377"/>
-      <c r="AN17" s="378"/>
+      <c r="Y17" s="363"/>
+      <c r="Z17" s="359"/>
+      <c r="AA17" s="360"/>
+      <c r="AB17" s="359"/>
+      <c r="AC17" s="360"/>
+      <c r="AD17" s="359"/>
+      <c r="AE17" s="360"/>
+      <c r="AF17" s="359"/>
+      <c r="AG17" s="361"/>
+      <c r="AH17" s="360"/>
+      <c r="AI17" s="364"/>
+      <c r="AJ17" s="365"/>
+      <c r="AK17" s="365"/>
+      <c r="AL17" s="365"/>
+      <c r="AM17" s="365"/>
+      <c r="AN17" s="366"/>
       <c r="AV17" s="120"/>
       <c r="AW17" s="120"/>
       <c r="AX17" s="120"/>
@@ -14590,46 +14590,86 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="AF11:AH11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G12:K12"/>
@@ -14648,86 +14688,46 @@
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="AI17:AN17"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
@@ -140,7 +140,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの授受媒体を選択する。
+          <t>インタフェースの授受媒体を選択する。
 「その他」の場合は詳細を記述する</t>
         </r>
       </text>
@@ -424,7 +424,7 @@
           <t xml:space="preserve">レコード構成シートに記述されたレコード種類ごとに、１シート作成する。
 レコード種類が複数ある場合は、シート名でレコード名がわかるようにする。
 　例）　ヘッダーレコードシート、データレコードシート、トレーラレコードシート、エンドレコードシート
-フレームワーク制御ヘッダがインターフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
+フレームワーク制御ヘッダがインタフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
 同様に記述する。
 </t>
         </r>
@@ -490,7 +490,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェース項目の長さをバイト数で記入する。
+          <t>インタフェース項目の長さをバイト数で記入する。
 可変長ファイルの場合は最大バイト数を記入する。</t>
         </r>
       </text>
@@ -505,7 +505,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">インターフェース項目の開始位置を記入する。可変長ファイルの場合は記入不要。
+          <t xml:space="preserve">インタフェース項目の開始位置を記入する。可変長ファイルの場合は記入不要。
 </t>
         </r>
       </text>
@@ -574,8 +574,8 @@
             <charset val="128"/>
           </rPr>
           <t>フォーマット編集が必要な場合に記入する。
-入力インターフェースの場合は受け取り可能なフォーマットを記述する。
-出力インターフェースの場合はどのような
+入力インタフェースの場合は受け取り可能なフォーマットを記述する。
+出力インタフェースの場合はどのような
 フォーマットに編集するかを記述する。</t>
         </r>
       </text>
@@ -2469,6 +2469,114 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2505,15 +2613,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2541,104 +2640,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2649,69 +2712,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,6 +2721,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2730,86 +2811,164 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2817,12 +2976,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2832,15 +3000,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2853,175 +3015,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3038,42 +3074,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6744,147 +6744,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="180" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="177" t="s">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="204" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="200" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="202"/>
       <c r="AK1" s="96"/>
       <c r="AL1" s="96"/>
       <c r="AM1" s="96"/>
       <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="177" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="204" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="200" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
       <c r="AK2" s="96"/>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="201"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="206"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="200"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="202"/>
       <c r="AK3" s="96"/>
       <c r="AL3" s="96"/>
       <c r="AM3" s="96"/>
@@ -6931,86 +6931,86 @@
       <c r="A7" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="210" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="210" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="212"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="213" t="s">
+      <c r="H7" s="205"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="210" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="212"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="210" t="s">
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="212"/>
-      <c r="AI7" s="211"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="78"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="232"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="232"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="232"/>
-      <c r="W8" s="232"/>
-      <c r="X8" s="232"/>
-      <c r="Y8" s="232"/>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="232"/>
-      <c r="AB8" s="232"/>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="233"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
       <c r="AF8" s="112"/>
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
@@ -7019,36 +7019,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="138"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="222"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="87"/>
       <c r="AG9" s="88"/>
       <c r="AH9" s="88"/>
@@ -7057,36 +7057,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="138"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
-      <c r="P10" s="222"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="221"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="221"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="221"/>
-      <c r="AE10" s="222"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
       <c r="AF10" s="87"/>
       <c r="AG10" s="88"/>
       <c r="AH10" s="88"/>
@@ -7094,36 +7094,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="138"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="221"/>
-      <c r="P11" s="222"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="221"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="221"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="221"/>
-      <c r="AE11" s="222"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
       <c r="AF11" s="87"/>
       <c r="AG11" s="88"/>
       <c r="AH11" s="88"/>
@@ -7131,36 +7131,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="138"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="221"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="221"/>
-      <c r="P12" s="222"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="221"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="221"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="221"/>
-      <c r="AE12" s="222"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
       <c r="AF12" s="87"/>
       <c r="AG12" s="88"/>
       <c r="AH12" s="88"/>
@@ -7168,36 +7168,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="138"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-      <c r="P13" s="222"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="221"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="221"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="221"/>
-      <c r="AE13" s="222"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
       <c r="AF13" s="87"/>
       <c r="AG13" s="88"/>
       <c r="AH13" s="88"/>
@@ -7945,49 +7945,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7998,6 +7955,49 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -8154,157 +8154,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="249" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="239" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="234" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="237" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="238"/>
-      <c r="AC2" s="201" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="201" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:35" s="98" customFormat="1" ht="19.5" customHeight="1">
       <c r="AC4" s="139"/>
@@ -9638,6 +9638,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9648,13 +9655,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9681,157 +9681,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="239" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="234" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="201" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="201" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="52"/>
@@ -9922,9 +9922,9 @@
       <c r="A7" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="268"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="266"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -9937,76 +9937,76 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="269" t="s">
+      <c r="Q7" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="271"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="262"/>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
-      <c r="AA7" s="262"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="262"/>
-      <c r="AE7" s="262"/>
-      <c r="AF7" s="262"/>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="263"/>
+      <c r="R7" s="283"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="288"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="290"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="267"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
-      <c r="N8" s="265"/>
-      <c r="O8" s="265"/>
-      <c r="P8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="280"/>
       <c r="Q8" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="267"/>
-      <c r="S8" s="267"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="265"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="265"/>
-      <c r="Y8" s="265"/>
-      <c r="Z8" s="265"/>
-      <c r="AA8" s="265"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="265"/>
-      <c r="AE8" s="265"/>
-      <c r="AF8" s="265"/>
-      <c r="AG8" s="265"/>
-      <c r="AH8" s="265"/>
-      <c r="AI8" s="266"/>
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="279"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="280"/>
+      <c r="AF8" s="280"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="280"/>
+      <c r="AI8" s="281"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="268"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="266"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10340,12 +10340,12 @@
       <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="272" t="s">
+      <c r="A18" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="273"/>
-      <c r="C18" s="273"/>
-      <c r="D18" s="274"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="16"/>
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
@@ -10358,12 +10358,12 @@
       <c r="N18" s="23"/>
       <c r="O18" s="17"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="272" t="s">
+      <c r="Q18" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="273"/>
-      <c r="S18" s="273"/>
-      <c r="T18" s="274"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="278"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -10466,50 +10466,50 @@
       <c r="A21" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="267"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="265"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="265"/>
-      <c r="K21" s="265"/>
-      <c r="L21" s="265"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="265"/>
-      <c r="O21" s="265"/>
-      <c r="P21" s="266"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="281"/>
       <c r="Q21" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="267"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="268"/>
-      <c r="U21" s="264"/>
-      <c r="V21" s="265"/>
-      <c r="W21" s="265"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
-      <c r="AD21" s="265"/>
-      <c r="AE21" s="265"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="265"/>
-      <c r="AI21" s="266"/>
+      <c r="R21" s="265"/>
+      <c r="S21" s="265"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="280"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="281"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="269" t="s">
+      <c r="A22" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="270"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="271"/>
+      <c r="B22" s="283"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="284"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -10522,12 +10522,12 @@
       <c r="N22" s="27"/>
       <c r="O22" s="15"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="269" t="s">
+      <c r="Q22" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="270"/>
-      <c r="S22" s="270"/>
-      <c r="T22" s="271"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="284"/>
       <c r="U22" s="63"/>
       <c r="V22" s="27"/>
       <c r="W22" s="15"/>
@@ -10590,34 +10590,34 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="288" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="289"/>
-      <c r="C24" s="289"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="265"/>
-      <c r="I24" s="265"/>
-      <c r="J24" s="265"/>
-      <c r="K24" s="265"/>
-      <c r="L24" s="265"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="265"/>
-      <c r="O24" s="265"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="275" t="s">
+      <c r="B24" s="274"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="276"/>
-      <c r="S24" s="276"/>
-      <c r="T24" s="277"/>
-      <c r="U24" s="280"/>
-      <c r="V24" s="281"/>
-      <c r="W24" s="281"/>
-      <c r="X24" s="281"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="263"/>
+      <c r="V24" s="264"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
       <c r="Y24" s="21" t="s">
         <v>50</v>
       </c>
@@ -10633,26 +10633,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="284" t="s">
+      <c r="A25" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="285"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="286"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="25"/>
       <c r="F25" s="46"/>
       <c r="G25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="278"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
-      <c r="K25" s="279"/>
-      <c r="L25" s="279"/>
-      <c r="M25" s="279"/>
-      <c r="N25" s="279"/>
-      <c r="O25" s="279"/>
-      <c r="P25" s="279"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
+      <c r="O25" s="262"/>
+      <c r="P25" s="262"/>
       <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10661,15 +10661,15 @@
       <c r="T25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="287"/>
-      <c r="V25" s="287"/>
-      <c r="W25" s="287"/>
-      <c r="X25" s="287"/>
-      <c r="Y25" s="287"/>
-      <c r="Z25" s="287"/>
-      <c r="AA25" s="287"/>
-      <c r="AB25" s="287"/>
-      <c r="AC25" s="287"/>
+      <c r="U25" s="272"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="272"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="272"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="272"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="272"/>
       <c r="AD25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10689,15 +10689,15 @@
       <c r="G26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="283"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="283"/>
-      <c r="K26" s="283"/>
-      <c r="L26" s="283"/>
-      <c r="M26" s="283"/>
-      <c r="N26" s="283"/>
-      <c r="O26" s="283"/>
-      <c r="P26" s="283"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="268"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
       <c r="Q26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10706,15 +10706,15 @@
       <c r="T26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="283"/>
-      <c r="V26" s="283"/>
-      <c r="W26" s="283"/>
-      <c r="X26" s="283"/>
-      <c r="Y26" s="283"/>
-      <c r="Z26" s="283"/>
-      <c r="AA26" s="283"/>
-      <c r="AB26" s="283"/>
-      <c r="AC26" s="283"/>
+      <c r="U26" s="268"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="268"/>
+      <c r="X26" s="268"/>
+      <c r="Y26" s="268"/>
+      <c r="Z26" s="268"/>
+      <c r="AA26" s="268"/>
+      <c r="AB26" s="268"/>
+      <c r="AC26" s="268"/>
       <c r="AD26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10734,15 +10734,15 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="282"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
+      <c r="N27" s="267"/>
+      <c r="O27" s="267"/>
+      <c r="P27" s="267"/>
       <c r="Q27" s="31" t="s">
         <v>7</v>
       </c>
@@ -10751,20 +10751,20 @@
       <c r="T27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="282"/>
-      <c r="V27" s="282"/>
-      <c r="W27" s="282"/>
-      <c r="X27" s="282"/>
-      <c r="Y27" s="282"/>
-      <c r="Z27" s="282"/>
-      <c r="AA27" s="282"/>
-      <c r="AB27" s="282"/>
-      <c r="AC27" s="282"/>
-      <c r="AD27" s="282"/>
-      <c r="AE27" s="282"/>
-      <c r="AF27" s="282"/>
-      <c r="AG27" s="282"/>
-      <c r="AH27" s="282"/>
+      <c r="U27" s="267"/>
+      <c r="V27" s="267"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="267"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
       <c r="AI27" s="48" t="s">
         <v>7</v>
       </c>
@@ -10921,13 +10921,33 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10940,33 +10960,13 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11641,157 +11641,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="239" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="234" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="201" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="201" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
@@ -11914,461 +11914,461 @@
       <c r="AU6" s="104"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="295" t="s">
+      <c r="A7" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="296"/>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="296"/>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="296"/>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
-      <c r="AA7" s="296"/>
-      <c r="AB7" s="297"/>
-      <c r="AC7" s="301" t="s">
+      <c r="B7" s="352"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="352"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="352"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="352"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="352"/>
+      <c r="M7" s="352"/>
+      <c r="N7" s="352"/>
+      <c r="O7" s="352"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="352"/>
+      <c r="R7" s="352"/>
+      <c r="S7" s="352"/>
+      <c r="T7" s="352"/>
+      <c r="U7" s="352"/>
+      <c r="V7" s="352"/>
+      <c r="W7" s="352"/>
+      <c r="X7" s="352"/>
+      <c r="Y7" s="352"/>
+      <c r="Z7" s="352"/>
+      <c r="AA7" s="352"/>
+      <c r="AB7" s="353"/>
+      <c r="AC7" s="355" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="296"/>
-      <c r="AF7" s="296"/>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="296"/>
-      <c r="AI7" s="302"/>
+      <c r="AD7" s="352"/>
+      <c r="AE7" s="352"/>
+      <c r="AF7" s="352"/>
+      <c r="AG7" s="352"/>
+      <c r="AH7" s="352"/>
+      <c r="AI7" s="356"/>
     </row>
     <row r="8" spans="1:47" s="170" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="291" t="s">
+      <c r="B8" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="291" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="292"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="291" t="s">
+      <c r="H8" s="345"/>
+      <c r="I8" s="346"/>
+      <c r="J8" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="292"/>
-      <c r="N8" s="292"/>
-      <c r="O8" s="292"/>
-      <c r="P8" s="294"/>
-      <c r="Q8" s="298" t="s">
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="342" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="300"/>
-      <c r="S8" s="298" t="s">
+      <c r="R8" s="343"/>
+      <c r="S8" s="342" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="299"/>
-      <c r="U8" s="300"/>
-      <c r="V8" s="291" t="s">
+      <c r="T8" s="354"/>
+      <c r="U8" s="343"/>
+      <c r="V8" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="292"/>
-      <c r="X8" s="292"/>
-      <c r="Y8" s="292"/>
-      <c r="Z8" s="292"/>
-      <c r="AA8" s="292"/>
-      <c r="AB8" s="293"/>
-      <c r="AC8" s="303" t="s">
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="350"/>
+      <c r="AC8" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="304"/>
-      <c r="AE8" s="304"/>
-      <c r="AF8" s="304"/>
-      <c r="AG8" s="304"/>
-      <c r="AH8" s="350" t="s">
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="358"/>
+      <c r="AF8" s="358"/>
+      <c r="AG8" s="358"/>
+      <c r="AH8" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="350"/>
+      <c r="AI8" s="291"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="166">
         <v>1</v>
       </c>
-      <c r="B9" s="345"/>
-      <c r="C9" s="346"/>
-      <c r="D9" s="346"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="349"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="317"/>
-      <c r="I9" s="318"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="349"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="348"/>
-      <c r="U9" s="312"/>
-      <c r="V9" s="345"/>
-      <c r="W9" s="346"/>
-      <c r="X9" s="346"/>
-      <c r="Y9" s="346"/>
-      <c r="Z9" s="346"/>
-      <c r="AA9" s="346"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="340" t="s">
+      <c r="B9" s="295"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="347"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="313"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="341"/>
+      <c r="AC9" s="338" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="345"/>
-      <c r="AE9" s="346"/>
-      <c r="AF9" s="346"/>
-      <c r="AG9" s="349"/>
-      <c r="AH9" s="357"/>
-      <c r="AI9" s="358"/>
+      <c r="AD9" s="295"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296"/>
+      <c r="AG9" s="297"/>
+      <c r="AH9" s="307"/>
+      <c r="AI9" s="308"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="166">
         <v>2</v>
       </c>
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="308"/>
-      <c r="O10" s="308"/>
-      <c r="P10" s="309"/>
-      <c r="Q10" s="305"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="310"/>
-      <c r="U10" s="306"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="308"/>
-      <c r="Z10" s="308"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="322"/>
-      <c r="AC10" s="341"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="308"/>
-      <c r="AF10" s="308"/>
-      <c r="AG10" s="309"/>
-      <c r="AH10" s="343"/>
-      <c r="AI10" s="344"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="317"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
+      <c r="U10" s="317"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
+      <c r="Y10" s="299"/>
+      <c r="Z10" s="299"/>
+      <c r="AA10" s="299"/>
+      <c r="AB10" s="306"/>
+      <c r="AC10" s="339"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="299"/>
+      <c r="AF10" s="299"/>
+      <c r="AG10" s="300"/>
+      <c r="AH10" s="304"/>
+      <c r="AI10" s="305"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="166">
         <v>3</v>
       </c>
-      <c r="B11" s="307"/>
-      <c r="C11" s="308"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="313"/>
-      <c r="H11" s="314"/>
-      <c r="I11" s="315"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="308"/>
-      <c r="L11" s="308"/>
-      <c r="M11" s="308"/>
-      <c r="N11" s="308"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="309"/>
-      <c r="Q11" s="305"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="305"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="306"/>
-      <c r="V11" s="307"/>
-      <c r="W11" s="308"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="308"/>
-      <c r="Z11" s="308"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="322"/>
-      <c r="AC11" s="341"/>
-      <c r="AD11" s="354"/>
-      <c r="AE11" s="355"/>
-      <c r="AF11" s="355"/>
-      <c r="AG11" s="356"/>
-      <c r="AH11" s="343"/>
-      <c r="AI11" s="344"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="320"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="315"/>
+      <c r="R11" s="317"/>
+      <c r="S11" s="315"/>
+      <c r="T11" s="316"/>
+      <c r="U11" s="317"/>
+      <c r="V11" s="298"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
+      <c r="Y11" s="299"/>
+      <c r="Z11" s="299"/>
+      <c r="AA11" s="299"/>
+      <c r="AB11" s="306"/>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="301"/>
+      <c r="AE11" s="302"/>
+      <c r="AF11" s="302"/>
+      <c r="AG11" s="303"/>
+      <c r="AH11" s="304"/>
+      <c r="AI11" s="305"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="166">
         <v>4</v>
       </c>
-      <c r="B12" s="307"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="314"/>
-      <c r="I12" s="315"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="308"/>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
-      <c r="O12" s="308"/>
-      <c r="P12" s="309"/>
-      <c r="Q12" s="305"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="305"/>
-      <c r="T12" s="310"/>
-      <c r="U12" s="306"/>
-      <c r="V12" s="307"/>
-      <c r="W12" s="308"/>
-      <c r="X12" s="308"/>
-      <c r="Y12" s="308"/>
-      <c r="Z12" s="308"/>
-      <c r="AA12" s="308"/>
-      <c r="AB12" s="322"/>
-      <c r="AC12" s="341"/>
-      <c r="AD12" s="354"/>
-      <c r="AE12" s="355"/>
-      <c r="AF12" s="355"/>
-      <c r="AG12" s="356"/>
-      <c r="AH12" s="343"/>
-      <c r="AI12" s="344"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="315"/>
+      <c r="R12" s="317"/>
+      <c r="S12" s="315"/>
+      <c r="T12" s="316"/>
+      <c r="U12" s="317"/>
+      <c r="V12" s="298"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
+      <c r="Y12" s="299"/>
+      <c r="Z12" s="299"/>
+      <c r="AA12" s="299"/>
+      <c r="AB12" s="306"/>
+      <c r="AC12" s="339"/>
+      <c r="AD12" s="301"/>
+      <c r="AE12" s="302"/>
+      <c r="AF12" s="302"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="304"/>
+      <c r="AI12" s="305"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="166">
         <v>5</v>
       </c>
-      <c r="B13" s="332"/>
-      <c r="C13" s="333"/>
-      <c r="D13" s="333"/>
-      <c r="E13" s="333"/>
-      <c r="F13" s="334"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="308"/>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="310"/>
-      <c r="U13" s="306"/>
-      <c r="V13" s="307"/>
-      <c r="W13" s="308"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="308"/>
-      <c r="Z13" s="308"/>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="322"/>
-      <c r="AC13" s="341"/>
-      <c r="AD13" s="354"/>
-      <c r="AE13" s="355"/>
-      <c r="AF13" s="355"/>
-      <c r="AG13" s="356"/>
-      <c r="AH13" s="343"/>
-      <c r="AI13" s="344"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
+      <c r="U13" s="317"/>
+      <c r="V13" s="298"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
+      <c r="Y13" s="299"/>
+      <c r="Z13" s="299"/>
+      <c r="AA13" s="299"/>
+      <c r="AB13" s="306"/>
+      <c r="AC13" s="339"/>
+      <c r="AD13" s="301"/>
+      <c r="AE13" s="302"/>
+      <c r="AF13" s="302"/>
+      <c r="AG13" s="303"/>
+      <c r="AH13" s="304"/>
+      <c r="AI13" s="305"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="166">
         <v>6</v>
       </c>
-      <c r="B14" s="332"/>
-      <c r="C14" s="333"/>
-      <c r="D14" s="333"/>
-      <c r="E14" s="333"/>
-      <c r="F14" s="334"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="308"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="306"/>
-      <c r="S14" s="305"/>
-      <c r="T14" s="310"/>
-      <c r="U14" s="306"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="308"/>
-      <c r="X14" s="308"/>
-      <c r="Y14" s="308"/>
-      <c r="Z14" s="308"/>
-      <c r="AA14" s="308"/>
-      <c r="AB14" s="322"/>
-      <c r="AC14" s="341"/>
-      <c r="AD14" s="354"/>
-      <c r="AE14" s="355"/>
-      <c r="AF14" s="355"/>
-      <c r="AG14" s="356"/>
-      <c r="AH14" s="343"/>
-      <c r="AI14" s="344"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="317"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
+      <c r="U14" s="317"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
+      <c r="Y14" s="299"/>
+      <c r="Z14" s="299"/>
+      <c r="AA14" s="299"/>
+      <c r="AB14" s="306"/>
+      <c r="AC14" s="339"/>
+      <c r="AD14" s="301"/>
+      <c r="AE14" s="302"/>
+      <c r="AF14" s="302"/>
+      <c r="AG14" s="303"/>
+      <c r="AH14" s="304"/>
+      <c r="AI14" s="305"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="167">
         <v>7</v>
       </c>
-      <c r="B15" s="332"/>
-      <c r="C15" s="333"/>
-      <c r="D15" s="333"/>
-      <c r="E15" s="333"/>
-      <c r="F15" s="334"/>
-      <c r="G15" s="307"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="305"/>
-      <c r="R15" s="306"/>
-      <c r="S15" s="305"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="306"/>
-      <c r="V15" s="307"/>
-      <c r="W15" s="308"/>
-      <c r="X15" s="308"/>
-      <c r="Y15" s="308"/>
-      <c r="Z15" s="308"/>
-      <c r="AA15" s="308"/>
-      <c r="AB15" s="322"/>
-      <c r="AC15" s="341"/>
-      <c r="AD15" s="354"/>
-      <c r="AE15" s="355"/>
-      <c r="AF15" s="355"/>
-      <c r="AG15" s="356"/>
-      <c r="AH15" s="343"/>
-      <c r="AI15" s="344"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="315"/>
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
+      <c r="Y15" s="299"/>
+      <c r="Z15" s="299"/>
+      <c r="AA15" s="299"/>
+      <c r="AB15" s="306"/>
+      <c r="AC15" s="339"/>
+      <c r="AD15" s="301"/>
+      <c r="AE15" s="302"/>
+      <c r="AF15" s="302"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="304"/>
+      <c r="AI15" s="305"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="167">
         <v>8</v>
       </c>
-      <c r="B16" s="332"/>
-      <c r="C16" s="333"/>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="334"/>
-      <c r="G16" s="307"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="306"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="310"/>
-      <c r="U16" s="306"/>
-      <c r="V16" s="307"/>
-      <c r="W16" s="308"/>
-      <c r="X16" s="308"/>
-      <c r="Y16" s="308"/>
-      <c r="Z16" s="308"/>
-      <c r="AA16" s="308"/>
-      <c r="AB16" s="322"/>
-      <c r="AC16" s="341"/>
-      <c r="AD16" s="354"/>
-      <c r="AE16" s="355"/>
-      <c r="AF16" s="355"/>
-      <c r="AG16" s="356"/>
-      <c r="AH16" s="343"/>
-      <c r="AI16" s="344"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="315"/>
+      <c r="R16" s="317"/>
+      <c r="S16" s="315"/>
+      <c r="T16" s="316"/>
+      <c r="U16" s="317"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="299"/>
+      <c r="X16" s="299"/>
+      <c r="Y16" s="299"/>
+      <c r="Z16" s="299"/>
+      <c r="AA16" s="299"/>
+      <c r="AB16" s="306"/>
+      <c r="AC16" s="339"/>
+      <c r="AD16" s="301"/>
+      <c r="AE16" s="302"/>
+      <c r="AF16" s="302"/>
+      <c r="AG16" s="303"/>
+      <c r="AH16" s="304"/>
+      <c r="AI16" s="305"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="168">
         <v>9</v>
       </c>
-      <c r="B17" s="335"/>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="336"/>
-      <c r="F17" s="337"/>
-      <c r="G17" s="323"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="331"/>
-      <c r="J17" s="323"/>
-      <c r="K17" s="324"/>
-      <c r="L17" s="324"/>
-      <c r="M17" s="324"/>
-      <c r="N17" s="324"/>
-      <c r="O17" s="324"/>
-      <c r="P17" s="331"/>
-      <c r="Q17" s="328"/>
-      <c r="R17" s="330"/>
-      <c r="S17" s="328"/>
-      <c r="T17" s="329"/>
-      <c r="U17" s="330"/>
-      <c r="V17" s="323"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
-      <c r="Y17" s="324"/>
-      <c r="Z17" s="324"/>
-      <c r="AA17" s="324"/>
-      <c r="AB17" s="325"/>
-      <c r="AC17" s="342"/>
-      <c r="AD17" s="351"/>
-      <c r="AE17" s="352"/>
-      <c r="AF17" s="352"/>
-      <c r="AG17" s="353"/>
-      <c r="AH17" s="338"/>
-      <c r="AI17" s="339"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="332"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="331"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="340"/>
+      <c r="AD17" s="292"/>
+      <c r="AE17" s="293"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="336"/>
+      <c r="AI17" s="337"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="326"/>
-      <c r="B18" s="327"/>
-      <c r="C18" s="327"/>
-      <c r="D18" s="327"/>
-      <c r="E18" s="327"/>
-      <c r="F18" s="327"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="328"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12392,23 +12392,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="321"/>
-      <c r="AE18" s="321"/>
-      <c r="AF18" s="321"/>
-      <c r="AG18" s="321"/>
-      <c r="AH18" s="321"/>
+      <c r="AD18" s="323"/>
+      <c r="AE18" s="323"/>
+      <c r="AF18" s="323"/>
+      <c r="AG18" s="323"/>
+      <c r="AH18" s="323"/>
       <c r="AI18" s="105"/>
       <c r="AJ18" s="43"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="319" t="s">
+      <c r="A19" s="321" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="320"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="320"/>
-      <c r="E19" s="320"/>
-      <c r="F19" s="320"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
       <c r="G19" s="119"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -13147,46 +13147,45 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="AD18:AH18"/>
     <mergeCell ref="V15:AB15"/>
@@ -13211,45 +13210,46 @@
     <mergeCell ref="V11:AB11"/>
     <mergeCell ref="V9:AB9"/>
     <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -13288,157 +13288,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="239" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="201" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="234" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="201" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:103" s="95" customFormat="1" ht="11.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="201" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:103" ht="11.25"/>
     <row r="5" spans="1:103" ht="11.25">
@@ -13459,69 +13459,69 @@
       <c r="A7" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="372" t="s">
+      <c r="B7" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="373"/>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="374"/>
-      <c r="G7" s="372" t="s">
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="359" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="373"/>
-      <c r="I7" s="373"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="374"/>
-      <c r="L7" s="372" t="s">
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="359" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="373"/>
-      <c r="N7" s="373"/>
-      <c r="O7" s="373"/>
-      <c r="P7" s="374"/>
+      <c r="M7" s="360"/>
+      <c r="N7" s="360"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="361"/>
       <c r="Q7" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="378" t="s">
+      <c r="R7" s="362" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="378"/>
-      <c r="T7" s="378"/>
-      <c r="U7" s="378"/>
-      <c r="V7" s="375" t="s">
+      <c r="S7" s="362"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="375"/>
-      <c r="X7" s="376" t="s">
+      <c r="W7" s="363"/>
+      <c r="X7" s="364" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="377"/>
-      <c r="Z7" s="372" t="s">
+      <c r="Y7" s="365"/>
+      <c r="Z7" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="374"/>
-      <c r="AB7" s="372" t="s">
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="359" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="374"/>
-      <c r="AD7" s="372" t="s">
+      <c r="AC7" s="361"/>
+      <c r="AD7" s="359" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="374"/>
-      <c r="AF7" s="372" t="s">
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="359" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="373"/>
-      <c r="AH7" s="374"/>
-      <c r="AI7" s="372" t="s">
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="373"/>
-      <c r="AK7" s="373"/>
-      <c r="AL7" s="373"/>
-      <c r="AM7" s="373"/>
-      <c r="AN7" s="374"/>
+      <c r="AJ7" s="360"/>
+      <c r="AK7" s="360"/>
+      <c r="AL7" s="360"/>
+      <c r="AM7" s="360"/>
+      <c r="AN7" s="361"/>
       <c r="AV7" s="174"/>
       <c r="AW7" s="174"/>
       <c r="AX7" s="174"/>
@@ -13581,47 +13581,47 @@
     </row>
     <row r="8" spans="1:103" ht="15" customHeight="1">
       <c r="A8" s="165"/>
-      <c r="B8" s="367"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="361"/>
-      <c r="I8" s="361"/>
-      <c r="J8" s="361"/>
-      <c r="K8" s="360"/>
-      <c r="L8" s="359"/>
-      <c r="M8" s="361"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="361"/>
-      <c r="P8" s="360"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="366"/>
+      <c r="H8" s="367"/>
+      <c r="I8" s="367"/>
+      <c r="J8" s="367"/>
+      <c r="K8" s="368"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="367"/>
+      <c r="N8" s="367"/>
+      <c r="O8" s="367"/>
+      <c r="P8" s="368"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="371"/>
-      <c r="S8" s="371"/>
-      <c r="T8" s="371"/>
-      <c r="U8" s="371"/>
-      <c r="V8" s="370"/>
-      <c r="W8" s="370"/>
-      <c r="X8" s="362">
+      <c r="R8" s="373"/>
+      <c r="S8" s="373"/>
+      <c r="T8" s="373"/>
+      <c r="U8" s="373"/>
+      <c r="V8" s="369"/>
+      <c r="W8" s="369"/>
+      <c r="X8" s="374">
         <v>1</v>
       </c>
-      <c r="Y8" s="363"/>
-      <c r="Z8" s="359"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="359"/>
-      <c r="AC8" s="360"/>
-      <c r="AD8" s="359"/>
-      <c r="AE8" s="360"/>
-      <c r="AF8" s="359"/>
-      <c r="AG8" s="361"/>
-      <c r="AH8" s="360"/>
-      <c r="AI8" s="364"/>
-      <c r="AJ8" s="365"/>
-      <c r="AK8" s="365"/>
-      <c r="AL8" s="365"/>
-      <c r="AM8" s="365"/>
-      <c r="AN8" s="366"/>
+      <c r="Y8" s="375"/>
+      <c r="Z8" s="366"/>
+      <c r="AA8" s="368"/>
+      <c r="AB8" s="366"/>
+      <c r="AC8" s="368"/>
+      <c r="AD8" s="366"/>
+      <c r="AE8" s="368"/>
+      <c r="AF8" s="366"/>
+      <c r="AG8" s="367"/>
+      <c r="AH8" s="368"/>
+      <c r="AI8" s="376"/>
+      <c r="AJ8" s="377"/>
+      <c r="AK8" s="377"/>
+      <c r="AL8" s="377"/>
+      <c r="AM8" s="377"/>
+      <c r="AN8" s="378"/>
       <c r="AV8" s="120"/>
       <c r="AW8" s="120"/>
       <c r="AX8" s="120"/>
@@ -13681,48 +13681,48 @@
     </row>
     <row r="9" spans="1:103" ht="15" customHeight="1">
       <c r="A9" s="165"/>
-      <c r="B9" s="367"/>
-      <c r="C9" s="368"/>
-      <c r="D9" s="368"/>
-      <c r="E9" s="368"/>
-      <c r="F9" s="369"/>
-      <c r="G9" s="359"/>
-      <c r="H9" s="361"/>
-      <c r="I9" s="361"/>
-      <c r="J9" s="361"/>
-      <c r="K9" s="360"/>
-      <c r="L9" s="359"/>
-      <c r="M9" s="361"/>
-      <c r="N9" s="361"/>
-      <c r="O9" s="361"/>
-      <c r="P9" s="360"/>
+      <c r="B9" s="370"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="367"/>
+      <c r="K9" s="368"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="371"/>
-      <c r="S9" s="371"/>
-      <c r="T9" s="371"/>
-      <c r="U9" s="371"/>
-      <c r="V9" s="370"/>
-      <c r="W9" s="370"/>
-      <c r="X9" s="362">
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="373"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="369"/>
+      <c r="W9" s="369"/>
+      <c r="X9" s="374">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="363"/>
-      <c r="Z9" s="359"/>
-      <c r="AA9" s="360"/>
-      <c r="AB9" s="359"/>
-      <c r="AC9" s="360"/>
-      <c r="AD9" s="359"/>
-      <c r="AE9" s="360"/>
-      <c r="AF9" s="359"/>
-      <c r="AG9" s="361"/>
-      <c r="AH9" s="360"/>
-      <c r="AI9" s="364"/>
-      <c r="AJ9" s="365"/>
-      <c r="AK9" s="365"/>
-      <c r="AL9" s="365"/>
-      <c r="AM9" s="365"/>
-      <c r="AN9" s="366"/>
+      <c r="Y9" s="375"/>
+      <c r="Z9" s="366"/>
+      <c r="AA9" s="368"/>
+      <c r="AB9" s="366"/>
+      <c r="AC9" s="368"/>
+      <c r="AD9" s="366"/>
+      <c r="AE9" s="368"/>
+      <c r="AF9" s="366"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="368"/>
+      <c r="AI9" s="376"/>
+      <c r="AJ9" s="377"/>
+      <c r="AK9" s="377"/>
+      <c r="AL9" s="377"/>
+      <c r="AM9" s="377"/>
+      <c r="AN9" s="378"/>
       <c r="AV9" s="120"/>
       <c r="AW9" s="120"/>
       <c r="AX9" s="120"/>
@@ -13782,48 +13782,48 @@
     </row>
     <row r="10" spans="1:103" ht="15" customHeight="1">
       <c r="A10" s="165"/>
-      <c r="B10" s="367"/>
-      <c r="C10" s="368"/>
-      <c r="D10" s="368"/>
-      <c r="E10" s="368"/>
-      <c r="F10" s="369"/>
-      <c r="G10" s="359"/>
-      <c r="H10" s="361"/>
-      <c r="I10" s="361"/>
-      <c r="J10" s="361"/>
-      <c r="K10" s="360"/>
-      <c r="L10" s="359"/>
-      <c r="M10" s="361"/>
-      <c r="N10" s="361"/>
-      <c r="O10" s="361"/>
-      <c r="P10" s="360"/>
+      <c r="B10" s="370"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="372"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="367"/>
+      <c r="N10" s="367"/>
+      <c r="O10" s="367"/>
+      <c r="P10" s="368"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="371"/>
-      <c r="S10" s="371"/>
-      <c r="T10" s="371"/>
-      <c r="U10" s="371"/>
-      <c r="V10" s="370"/>
-      <c r="W10" s="370"/>
-      <c r="X10" s="362">
+      <c r="R10" s="373"/>
+      <c r="S10" s="373"/>
+      <c r="T10" s="373"/>
+      <c r="U10" s="373"/>
+      <c r="V10" s="369"/>
+      <c r="W10" s="369"/>
+      <c r="X10" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="363"/>
-      <c r="Z10" s="359"/>
-      <c r="AA10" s="360"/>
-      <c r="AB10" s="359"/>
-      <c r="AC10" s="360"/>
-      <c r="AD10" s="359"/>
-      <c r="AE10" s="360"/>
-      <c r="AF10" s="359"/>
-      <c r="AG10" s="361"/>
-      <c r="AH10" s="360"/>
-      <c r="AI10" s="364"/>
-      <c r="AJ10" s="365"/>
-      <c r="AK10" s="365"/>
-      <c r="AL10" s="365"/>
-      <c r="AM10" s="365"/>
-      <c r="AN10" s="366"/>
+      <c r="Y10" s="375"/>
+      <c r="Z10" s="366"/>
+      <c r="AA10" s="368"/>
+      <c r="AB10" s="366"/>
+      <c r="AC10" s="368"/>
+      <c r="AD10" s="366"/>
+      <c r="AE10" s="368"/>
+      <c r="AF10" s="366"/>
+      <c r="AG10" s="367"/>
+      <c r="AH10" s="368"/>
+      <c r="AI10" s="376"/>
+      <c r="AJ10" s="377"/>
+      <c r="AK10" s="377"/>
+      <c r="AL10" s="377"/>
+      <c r="AM10" s="377"/>
+      <c r="AN10" s="378"/>
       <c r="AV10" s="120"/>
       <c r="AW10" s="120"/>
       <c r="AX10" s="120"/>
@@ -13883,48 +13883,48 @@
     </row>
     <row r="11" spans="1:103" ht="15" customHeight="1">
       <c r="A11" s="165"/>
-      <c r="B11" s="367"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="369"/>
-      <c r="G11" s="359"/>
-      <c r="H11" s="361"/>
-      <c r="I11" s="361"/>
-      <c r="J11" s="361"/>
-      <c r="K11" s="360"/>
-      <c r="L11" s="359"/>
-      <c r="M11" s="361"/>
-      <c r="N11" s="361"/>
-      <c r="O11" s="361"/>
-      <c r="P11" s="360"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="371"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="367"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="366"/>
+      <c r="M11" s="367"/>
+      <c r="N11" s="367"/>
+      <c r="O11" s="367"/>
+      <c r="P11" s="368"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="371"/>
-      <c r="S11" s="371"/>
-      <c r="T11" s="371"/>
-      <c r="U11" s="371"/>
-      <c r="V11" s="370"/>
-      <c r="W11" s="370"/>
-      <c r="X11" s="362">
+      <c r="R11" s="373"/>
+      <c r="S11" s="373"/>
+      <c r="T11" s="373"/>
+      <c r="U11" s="373"/>
+      <c r="V11" s="369"/>
+      <c r="W11" s="369"/>
+      <c r="X11" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="363"/>
-      <c r="Z11" s="359"/>
-      <c r="AA11" s="360"/>
-      <c r="AB11" s="359"/>
-      <c r="AC11" s="360"/>
-      <c r="AD11" s="359"/>
-      <c r="AE11" s="360"/>
-      <c r="AF11" s="359"/>
-      <c r="AG11" s="361"/>
-      <c r="AH11" s="360"/>
-      <c r="AI11" s="364"/>
-      <c r="AJ11" s="365"/>
-      <c r="AK11" s="365"/>
-      <c r="AL11" s="365"/>
-      <c r="AM11" s="365"/>
-      <c r="AN11" s="366"/>
+      <c r="Y11" s="375"/>
+      <c r="Z11" s="366"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="366"/>
+      <c r="AC11" s="368"/>
+      <c r="AD11" s="366"/>
+      <c r="AE11" s="368"/>
+      <c r="AF11" s="366"/>
+      <c r="AG11" s="367"/>
+      <c r="AH11" s="368"/>
+      <c r="AI11" s="376"/>
+      <c r="AJ11" s="377"/>
+      <c r="AK11" s="377"/>
+      <c r="AL11" s="377"/>
+      <c r="AM11" s="377"/>
+      <c r="AN11" s="378"/>
       <c r="AV11" s="120"/>
       <c r="AW11" s="120"/>
       <c r="AX11" s="120"/>
@@ -13984,48 +13984,48 @@
     </row>
     <row r="12" spans="1:103" ht="15" customHeight="1">
       <c r="A12" s="165"/>
-      <c r="B12" s="367"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="369"/>
-      <c r="G12" s="359"/>
-      <c r="H12" s="361"/>
-      <c r="I12" s="361"/>
-      <c r="J12" s="361"/>
-      <c r="K12" s="360"/>
-      <c r="L12" s="359"/>
-      <c r="M12" s="361"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="361"/>
-      <c r="P12" s="360"/>
+      <c r="B12" s="370"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="372"/>
+      <c r="G12" s="366"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="367"/>
+      <c r="K12" s="368"/>
+      <c r="L12" s="366"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="367"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="368"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="371"/>
-      <c r="S12" s="371"/>
-      <c r="T12" s="371"/>
-      <c r="U12" s="371"/>
-      <c r="V12" s="370"/>
-      <c r="W12" s="370"/>
-      <c r="X12" s="362">
+      <c r="R12" s="373"/>
+      <c r="S12" s="373"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="373"/>
+      <c r="V12" s="369"/>
+      <c r="W12" s="369"/>
+      <c r="X12" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="363"/>
-      <c r="Z12" s="359"/>
-      <c r="AA12" s="360"/>
-      <c r="AB12" s="359"/>
-      <c r="AC12" s="360"/>
-      <c r="AD12" s="359"/>
-      <c r="AE12" s="360"/>
-      <c r="AF12" s="359"/>
-      <c r="AG12" s="361"/>
-      <c r="AH12" s="360"/>
-      <c r="AI12" s="364"/>
-      <c r="AJ12" s="365"/>
-      <c r="AK12" s="365"/>
-      <c r="AL12" s="365"/>
-      <c r="AM12" s="365"/>
-      <c r="AN12" s="366"/>
+      <c r="Y12" s="375"/>
+      <c r="Z12" s="366"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="366"/>
+      <c r="AC12" s="368"/>
+      <c r="AD12" s="366"/>
+      <c r="AE12" s="368"/>
+      <c r="AF12" s="366"/>
+      <c r="AG12" s="367"/>
+      <c r="AH12" s="368"/>
+      <c r="AI12" s="376"/>
+      <c r="AJ12" s="377"/>
+      <c r="AK12" s="377"/>
+      <c r="AL12" s="377"/>
+      <c r="AM12" s="377"/>
+      <c r="AN12" s="378"/>
       <c r="AV12" s="120"/>
       <c r="AW12" s="120"/>
       <c r="AX12" s="120"/>
@@ -14085,48 +14085,48 @@
     </row>
     <row r="13" spans="1:103" ht="15" customHeight="1">
       <c r="A13" s="165"/>
-      <c r="B13" s="367"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="369"/>
-      <c r="G13" s="359"/>
-      <c r="H13" s="361"/>
-      <c r="I13" s="361"/>
-      <c r="J13" s="361"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="359"/>
-      <c r="M13" s="361"/>
-      <c r="N13" s="361"/>
-      <c r="O13" s="361"/>
-      <c r="P13" s="360"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="366"/>
+      <c r="M13" s="367"/>
+      <c r="N13" s="367"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="368"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="371"/>
-      <c r="S13" s="371"/>
-      <c r="T13" s="371"/>
-      <c r="U13" s="371"/>
-      <c r="V13" s="370"/>
-      <c r="W13" s="370"/>
-      <c r="X13" s="362">
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="369"/>
+      <c r="W13" s="369"/>
+      <c r="X13" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="363"/>
-      <c r="Z13" s="359"/>
-      <c r="AA13" s="360"/>
-      <c r="AB13" s="359"/>
-      <c r="AC13" s="360"/>
-      <c r="AD13" s="359"/>
-      <c r="AE13" s="360"/>
-      <c r="AF13" s="359"/>
-      <c r="AG13" s="361"/>
-      <c r="AH13" s="360"/>
-      <c r="AI13" s="364"/>
-      <c r="AJ13" s="365"/>
-      <c r="AK13" s="365"/>
-      <c r="AL13" s="365"/>
-      <c r="AM13" s="365"/>
-      <c r="AN13" s="366"/>
+      <c r="Y13" s="375"/>
+      <c r="Z13" s="366"/>
+      <c r="AA13" s="368"/>
+      <c r="AB13" s="366"/>
+      <c r="AC13" s="368"/>
+      <c r="AD13" s="366"/>
+      <c r="AE13" s="368"/>
+      <c r="AF13" s="366"/>
+      <c r="AG13" s="367"/>
+      <c r="AH13" s="368"/>
+      <c r="AI13" s="376"/>
+      <c r="AJ13" s="377"/>
+      <c r="AK13" s="377"/>
+      <c r="AL13" s="377"/>
+      <c r="AM13" s="377"/>
+      <c r="AN13" s="378"/>
       <c r="AV13" s="120"/>
       <c r="AW13" s="120"/>
       <c r="AX13" s="120"/>
@@ -14186,48 +14186,48 @@
     </row>
     <row r="14" spans="1:103" ht="15" customHeight="1">
       <c r="A14" s="165"/>
-      <c r="B14" s="367"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="369"/>
-      <c r="G14" s="359"/>
-      <c r="H14" s="361"/>
-      <c r="I14" s="361"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="360"/>
-      <c r="L14" s="359"/>
-      <c r="M14" s="361"/>
-      <c r="N14" s="361"/>
-      <c r="O14" s="361"/>
-      <c r="P14" s="360"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="368"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="371"/>
-      <c r="S14" s="371"/>
-      <c r="T14" s="371"/>
-      <c r="U14" s="371"/>
-      <c r="V14" s="370"/>
-      <c r="W14" s="370"/>
-      <c r="X14" s="362">
+      <c r="R14" s="373"/>
+      <c r="S14" s="373"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="373"/>
+      <c r="V14" s="369"/>
+      <c r="W14" s="369"/>
+      <c r="X14" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="363"/>
-      <c r="Z14" s="359"/>
-      <c r="AA14" s="360"/>
-      <c r="AB14" s="359"/>
-      <c r="AC14" s="360"/>
-      <c r="AD14" s="359"/>
-      <c r="AE14" s="360"/>
-      <c r="AF14" s="359"/>
-      <c r="AG14" s="361"/>
-      <c r="AH14" s="360"/>
-      <c r="AI14" s="364"/>
-      <c r="AJ14" s="365"/>
-      <c r="AK14" s="365"/>
-      <c r="AL14" s="365"/>
-      <c r="AM14" s="365"/>
-      <c r="AN14" s="366"/>
+      <c r="Y14" s="375"/>
+      <c r="Z14" s="366"/>
+      <c r="AA14" s="368"/>
+      <c r="AB14" s="366"/>
+      <c r="AC14" s="368"/>
+      <c r="AD14" s="366"/>
+      <c r="AE14" s="368"/>
+      <c r="AF14" s="366"/>
+      <c r="AG14" s="367"/>
+      <c r="AH14" s="368"/>
+      <c r="AI14" s="376"/>
+      <c r="AJ14" s="377"/>
+      <c r="AK14" s="377"/>
+      <c r="AL14" s="377"/>
+      <c r="AM14" s="377"/>
+      <c r="AN14" s="378"/>
       <c r="AV14" s="120"/>
       <c r="AW14" s="120"/>
       <c r="AX14" s="120"/>
@@ -14287,48 +14287,48 @@
     </row>
     <row r="15" spans="1:103" ht="15" customHeight="1">
       <c r="A15" s="165"/>
-      <c r="B15" s="367"/>
-      <c r="C15" s="368"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
-      <c r="F15" s="369"/>
-      <c r="G15" s="359"/>
-      <c r="H15" s="361"/>
-      <c r="I15" s="361"/>
-      <c r="J15" s="361"/>
-      <c r="K15" s="360"/>
-      <c r="L15" s="359"/>
-      <c r="M15" s="361"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
-      <c r="P15" s="360"/>
+      <c r="B15" s="370"/>
+      <c r="C15" s="371"/>
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="366"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
+      <c r="J15" s="367"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="367"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="367"/>
+      <c r="P15" s="368"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="371"/>
-      <c r="S15" s="371"/>
-      <c r="T15" s="371"/>
-      <c r="U15" s="371"/>
-      <c r="V15" s="370"/>
-      <c r="W15" s="370"/>
-      <c r="X15" s="362">
+      <c r="R15" s="373"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="373"/>
+      <c r="V15" s="369"/>
+      <c r="W15" s="369"/>
+      <c r="X15" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="363"/>
-      <c r="Z15" s="359"/>
-      <c r="AA15" s="360"/>
-      <c r="AB15" s="359"/>
-      <c r="AC15" s="360"/>
-      <c r="AD15" s="359"/>
-      <c r="AE15" s="360"/>
-      <c r="AF15" s="359"/>
-      <c r="AG15" s="361"/>
-      <c r="AH15" s="360"/>
-      <c r="AI15" s="364"/>
-      <c r="AJ15" s="365"/>
-      <c r="AK15" s="365"/>
-      <c r="AL15" s="365"/>
-      <c r="AM15" s="365"/>
-      <c r="AN15" s="366"/>
+      <c r="Y15" s="375"/>
+      <c r="Z15" s="366"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="366"/>
+      <c r="AC15" s="368"/>
+      <c r="AD15" s="366"/>
+      <c r="AE15" s="368"/>
+      <c r="AF15" s="366"/>
+      <c r="AG15" s="367"/>
+      <c r="AH15" s="368"/>
+      <c r="AI15" s="376"/>
+      <c r="AJ15" s="377"/>
+      <c r="AK15" s="377"/>
+      <c r="AL15" s="377"/>
+      <c r="AM15" s="377"/>
+      <c r="AN15" s="378"/>
       <c r="AV15" s="120"/>
       <c r="AW15" s="120"/>
       <c r="AX15" s="120"/>
@@ -14388,48 +14388,48 @@
     </row>
     <row r="16" spans="1:103" ht="15" customHeight="1">
       <c r="A16" s="165"/>
-      <c r="B16" s="367"/>
-      <c r="C16" s="368"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="359"/>
-      <c r="H16" s="361"/>
-      <c r="I16" s="361"/>
-      <c r="J16" s="361"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="359"/>
-      <c r="M16" s="361"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="361"/>
-      <c r="P16" s="360"/>
+      <c r="B16" s="370"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="366"/>
+      <c r="H16" s="367"/>
+      <c r="I16" s="367"/>
+      <c r="J16" s="367"/>
+      <c r="K16" s="368"/>
+      <c r="L16" s="366"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="367"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="368"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="371"/>
-      <c r="S16" s="371"/>
-      <c r="T16" s="371"/>
-      <c r="U16" s="371"/>
-      <c r="V16" s="370"/>
-      <c r="W16" s="370"/>
-      <c r="X16" s="362">
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
+      <c r="V16" s="369"/>
+      <c r="W16" s="369"/>
+      <c r="X16" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="363"/>
-      <c r="Z16" s="359"/>
-      <c r="AA16" s="360"/>
-      <c r="AB16" s="359"/>
-      <c r="AC16" s="360"/>
-      <c r="AD16" s="359"/>
-      <c r="AE16" s="360"/>
-      <c r="AF16" s="359"/>
-      <c r="AG16" s="361"/>
-      <c r="AH16" s="360"/>
-      <c r="AI16" s="364"/>
-      <c r="AJ16" s="365"/>
-      <c r="AK16" s="365"/>
-      <c r="AL16" s="365"/>
-      <c r="AM16" s="365"/>
-      <c r="AN16" s="366"/>
+      <c r="Y16" s="375"/>
+      <c r="Z16" s="366"/>
+      <c r="AA16" s="368"/>
+      <c r="AB16" s="366"/>
+      <c r="AC16" s="368"/>
+      <c r="AD16" s="366"/>
+      <c r="AE16" s="368"/>
+      <c r="AF16" s="366"/>
+      <c r="AG16" s="367"/>
+      <c r="AH16" s="368"/>
+      <c r="AI16" s="376"/>
+      <c r="AJ16" s="377"/>
+      <c r="AK16" s="377"/>
+      <c r="AL16" s="377"/>
+      <c r="AM16" s="377"/>
+      <c r="AN16" s="378"/>
       <c r="AV16" s="120"/>
       <c r="AW16" s="120"/>
       <c r="AX16" s="120"/>
@@ -14489,48 +14489,48 @@
     </row>
     <row r="17" spans="1:103" ht="15" customHeight="1">
       <c r="A17" s="165"/>
-      <c r="B17" s="367"/>
-      <c r="C17" s="368"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
-      <c r="F17" s="369"/>
-      <c r="G17" s="359"/>
-      <c r="H17" s="361"/>
-      <c r="I17" s="361"/>
-      <c r="J17" s="361"/>
-      <c r="K17" s="360"/>
-      <c r="L17" s="359"/>
-      <c r="M17" s="361"/>
-      <c r="N17" s="361"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="360"/>
+      <c r="B17" s="370"/>
+      <c r="C17" s="371"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="366"/>
+      <c r="H17" s="367"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="367"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="366"/>
+      <c r="M17" s="367"/>
+      <c r="N17" s="367"/>
+      <c r="O17" s="367"/>
+      <c r="P17" s="368"/>
       <c r="Q17" s="76"/>
-      <c r="R17" s="371"/>
-      <c r="S17" s="371"/>
-      <c r="T17" s="371"/>
-      <c r="U17" s="371"/>
-      <c r="V17" s="370"/>
-      <c r="W17" s="370"/>
-      <c r="X17" s="362">
+      <c r="R17" s="373"/>
+      <c r="S17" s="373"/>
+      <c r="T17" s="373"/>
+      <c r="U17" s="373"/>
+      <c r="V17" s="369"/>
+      <c r="W17" s="369"/>
+      <c r="X17" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="363"/>
-      <c r="Z17" s="359"/>
-      <c r="AA17" s="360"/>
-      <c r="AB17" s="359"/>
-      <c r="AC17" s="360"/>
-      <c r="AD17" s="359"/>
-      <c r="AE17" s="360"/>
-      <c r="AF17" s="359"/>
-      <c r="AG17" s="361"/>
-      <c r="AH17" s="360"/>
-      <c r="AI17" s="364"/>
-      <c r="AJ17" s="365"/>
-      <c r="AK17" s="365"/>
-      <c r="AL17" s="365"/>
-      <c r="AM17" s="365"/>
-      <c r="AN17" s="366"/>
+      <c r="Y17" s="375"/>
+      <c r="Z17" s="366"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="366"/>
+      <c r="AC17" s="368"/>
+      <c r="AD17" s="366"/>
+      <c r="AE17" s="368"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="376"/>
+      <c r="AJ17" s="377"/>
+      <c r="AK17" s="377"/>
+      <c r="AL17" s="377"/>
+      <c r="AM17" s="377"/>
+      <c r="AN17" s="378"/>
       <c r="AV17" s="120"/>
       <c r="AW17" s="120"/>
       <c r="AX17" s="120"/>
@@ -14590,86 +14590,46 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G12:K12"/>
@@ -14688,46 +14648,86 @@
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(電文ID)_(電文名)_(その他電文).xlsx
@@ -66,7 +66,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">インターフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
+          <t xml:space="preserve">インタフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
 同一のファイルを複数の相手先に送る場合、「相手先」欄に複数記述する。
 例）ＸＸ１システム、ＸＸ２システム
 </t>
@@ -97,7 +97,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのファイルID/電文IDを記述する</t>
+          <t>インタフェースのファイルID/電文IDを記述する</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの利用目的・概要を記述する</t>
+          <t>インタフェースの利用目的・概要を記述する</t>
         </r>
       </text>
     </comment>
@@ -140,7 +140,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの授受媒体を選択する。
+          <t>インタフェースの授受媒体を選択する。
 「その他」の場合は詳細を記述する</t>
         </r>
       </text>
@@ -155,7 +155,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのデータ形式を選択する。
+          <t>インタフェースのデータ形式を選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -201,7 +201,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの暗号化有無を選択する。
+          <t>インタフェースの暗号化有無を選択する。
 暗号化は下記３パターンを想定している。
 ３パターンのいずれかで暗号化するのであれば　暗号化「有り」にチェックをいれて、実施する暗号化の種類を記載する。
 ・通信暗号化
@@ -220,7 +220,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの改行コードを選択する。
+          <t>インタフェースの改行コードを選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -235,7 +235,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの文字コードを記述する</t>
+          <t>インタフェースの文字コードを記述する</t>
         </r>
       </text>
     </comment>
@@ -264,7 +264,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースを入出力する処理サイクルを記述する。
+          <t>インタフェースを入出力する処理サイクルを記述する。
 括弧内には、詳細を記述する</t>
         </r>
       </text>
@@ -424,7 +424,7 @@
           <t xml:space="preserve">レコード構成シートに記述されたレコード種類ごとに、１シート作成する。
 レコード種類が複数ある場合は、シート名でレコード名がわかるようにする。
 　例）　ヘッダーレコードシート、データレコードシート、トレーラレコードシート、エンドレコードシート
-フレームワーク制御ヘッダがインターフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
+フレームワーク制御ヘッダがインタフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
 同様に記述する。
 </t>
         </r>
@@ -490,7 +490,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェース項目の長さをバイト数で記入する。
+          <t>インタフェース項目の長さをバイト数で記入する。
 可変長ファイルの場合は最大バイト数を記入する。</t>
         </r>
       </text>
@@ -505,7 +505,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">インターフェース項目の開始位置を記入する。可変長ファイルの場合は記入不要。
+          <t xml:space="preserve">インタフェース項目の開始位置を記入する。可変長ファイルの場合は記入不要。
 </t>
         </r>
       </text>
@@ -574,8 +574,8 @@
             <charset val="128"/>
           </rPr>
           <t>フォーマット編集が必要な場合に記入する。
-入力インターフェースの場合は受け取り可能なフォーマットを記述する。
-出力インターフェースの場合はどのような
+入力インタフェースの場合は受け取り可能なフォーマットを記述する。
+出力インタフェースの場合はどのような
 フォーマットに編集するかを記述する。</t>
         </r>
       </text>
@@ -1270,7 +1270,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1991,7 +1991,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2304,19 +2304,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2454,6 +2445,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2800,7 +2812,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2953,10 +2965,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2964,65 +2997,44 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3188,7 +3200,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6048,12 +6060,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="103"/>
@@ -6065,29 +6077,29 @@
       <c r="Y1" s="103"/>
       <c r="Z1" s="103"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1">
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -6105,7 +6117,7 @@
       <c r="R22" s="68"/>
       <c r="S22" s="68"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6116,7 +6128,7 @@
       <c r="K23" s="108"/>
       <c r="L23" s="108"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="18" customHeight="1">
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
@@ -6136,19 +6148,19 @@
       <c r="R24" s="69"/>
       <c r="S24" s="69"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="172" t="str">
+      <c r="I25" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
       <c r="L25" s="108"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6157,7 +6169,7 @@
       <c r="K26" s="108"/>
       <c r="L26" s="108"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6166,14 +6178,14 @@
       <c r="K27" s="108"/>
       <c r="L27" s="108"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="15" customHeight="1">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="108"/>
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6181,7 +6193,7 @@
       <c r="J29" s="108"/>
       <c r="K29" s="108"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6189,7 +6201,7 @@
       <c r="J30" s="108"/>
       <c r="K30" s="108"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6197,7 +6209,7 @@
       <c r="J31" s="108"/>
       <c r="K31" s="108"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="108"/>
@@ -6206,498 +6218,498 @@
       </c>
       <c r="K32" s="108"/>
     </row>
-    <row r="33" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:11" ht="18.75" customHeight="1">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="108"/>
       <c r="J33" s="111"/>
       <c r="K33" s="108"/>
     </row>
-    <row r="34" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:11" ht="18.75" customHeight="1">
       <c r="I34" s="108"/>
       <c r="J34" s="110" t="s">
         <v>78</v>
       </c>
       <c r="K34" s="108"/>
     </row>
-    <row r="35" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="36" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="37" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="38" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="39" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6722,7 +6734,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="79" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="102" customWidth="1"/>
@@ -6731,154 +6743,154 @@
     <col min="36" max="16384" width="4.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="209" t="s">
+    <row r="1" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="209" t="s">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="200" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="202"/>
       <c r="AK1" s="96"/>
       <c r="AL1" s="96"/>
       <c r="AM1" s="96"/>
       <c r="AN1" s="97"/>
     </row>
-    <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+    <row r="2" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="209" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="206" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="200" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
       <c r="AK2" s="96"/>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
     </row>
-    <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="209" t="s">
+    <row r="3" spans="1:40" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="200"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="202"/>
       <c r="AK3" s="96"/>
       <c r="AL3" s="96"/>
       <c r="AM3" s="96"/>
       <c r="AN3" s="96"/>
     </row>
-    <row r="4" spans="1:40" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="98" customFormat="1" ht="19.5" customHeight="1">
       <c r="AB4" s="99"/>
       <c r="AC4" s="99"/>
       <c r="AD4" s="100"/>
@@ -6889,7 +6901,7 @@
       <c r="AI4" s="99"/>
       <c r="AJ4" s="99"/>
     </row>
-    <row r="5" spans="1:40" s="98" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="98" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6903,7 +6915,7 @@
       <c r="AI5" s="99"/>
       <c r="AJ5" s="99"/>
     </row>
-    <row r="6" spans="1:40" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="98" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="2"/>
       <c r="AB6" s="99"/>
       <c r="AC6" s="99"/>
@@ -6915,284 +6927,284 @@
       <c r="AI6" s="99"/>
       <c r="AJ6" s="99"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="199" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="202" t="s">
+      <c r="H7" s="205"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="199" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="199" t="s">
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="200"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="78"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="140"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="192"/>
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+      <c r="A8" s="137"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
       <c r="AF8" s="112"/>
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
       <c r="AI8" s="94"/>
       <c r="AJ8" s="78"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="141"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180"/>
-      <c r="V9" s="180"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="180"/>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="180"/>
-      <c r="AC9" s="180"/>
-      <c r="AD9" s="180"/>
-      <c r="AE9" s="181"/>
+    <row r="9" spans="1:40" ht="15" customHeight="1">
+      <c r="A9" s="138"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="87"/>
       <c r="AG9" s="88"/>
       <c r="AH9" s="88"/>
       <c r="AI9" s="89"/>
       <c r="AJ9" s="9"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="141"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="180"/>
-      <c r="U10" s="180"/>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="180"/>
-      <c r="Z10" s="180"/>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="180"/>
-      <c r="AC10" s="180"/>
-      <c r="AD10" s="180"/>
-      <c r="AE10" s="181"/>
+    <row r="10" spans="1:40" ht="15" customHeight="1">
+      <c r="A10" s="138"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
       <c r="AF10" s="87"/>
       <c r="AG10" s="88"/>
       <c r="AH10" s="88"/>
       <c r="AI10" s="89"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="141"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="180"/>
-      <c r="S11" s="180"/>
-      <c r="T11" s="180"/>
-      <c r="U11" s="180"/>
-      <c r="V11" s="180"/>
-      <c r="W11" s="180"/>
-      <c r="X11" s="180"/>
-      <c r="Y11" s="180"/>
-      <c r="Z11" s="180"/>
-      <c r="AA11" s="180"/>
-      <c r="AB11" s="180"/>
-      <c r="AC11" s="180"/>
-      <c r="AD11" s="180"/>
-      <c r="AE11" s="181"/>
+    <row r="11" spans="1:40" ht="15" customHeight="1">
+      <c r="A11" s="138"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
       <c r="AF11" s="87"/>
       <c r="AG11" s="88"/>
       <c r="AH11" s="88"/>
       <c r="AI11" s="89"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="141"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="180"/>
-      <c r="S12" s="180"/>
-      <c r="T12" s="180"/>
-      <c r="U12" s="180"/>
-      <c r="V12" s="180"/>
-      <c r="W12" s="180"/>
-      <c r="X12" s="180"/>
-      <c r="Y12" s="180"/>
-      <c r="Z12" s="180"/>
-      <c r="AA12" s="180"/>
-      <c r="AB12" s="180"/>
-      <c r="AC12" s="180"/>
-      <c r="AD12" s="180"/>
-      <c r="AE12" s="181"/>
+    <row r="12" spans="1:40" ht="15" customHeight="1">
+      <c r="A12" s="138"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
       <c r="AF12" s="87"/>
       <c r="AG12" s="88"/>
       <c r="AH12" s="88"/>
       <c r="AI12" s="89"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="141"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="179"/>
-      <c r="R13" s="180"/>
-      <c r="S13" s="180"/>
-      <c r="T13" s="180"/>
-      <c r="U13" s="180"/>
-      <c r="V13" s="180"/>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="180"/>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="180"/>
-      <c r="AB13" s="180"/>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="180"/>
-      <c r="AE13" s="181"/>
+    <row r="13" spans="1:40" ht="15" customHeight="1">
+      <c r="A13" s="138"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
       <c r="AF13" s="87"/>
       <c r="AG13" s="88"/>
       <c r="AH13" s="88"/>
       <c r="AI13" s="89"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="141"/>
+    <row r="14" spans="1:40" ht="15" customHeight="1">
+      <c r="A14" s="138"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -7228,8 +7240,8 @@
       <c r="AH14" s="88"/>
       <c r="AI14" s="89"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="141"/>
+    <row r="15" spans="1:40" ht="15" customHeight="1">
+      <c r="A15" s="138"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="83"/>
@@ -7265,8 +7277,8 @@
       <c r="AH15" s="88"/>
       <c r="AI15" s="89"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="141"/>
+    <row r="16" spans="1:40" ht="15" customHeight="1">
+      <c r="A16" s="138"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="83"/>
@@ -7302,8 +7314,8 @@
       <c r="AH16" s="88"/>
       <c r="AI16" s="89"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="141"/>
+    <row r="17" spans="1:35" ht="15" customHeight="1">
+      <c r="A17" s="138"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="83"/>
@@ -7339,8 +7351,8 @@
       <c r="AH17" s="88"/>
       <c r="AI17" s="89"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="141"/>
+    <row r="18" spans="1:35" ht="15" customHeight="1">
+      <c r="A18" s="138"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
       <c r="D18" s="83"/>
@@ -7376,8 +7388,8 @@
       <c r="AH18" s="88"/>
       <c r="AI18" s="89"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="141"/>
+    <row r="19" spans="1:35" ht="15" customHeight="1">
+      <c r="A19" s="138"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
@@ -7413,8 +7425,8 @@
       <c r="AH19" s="88"/>
       <c r="AI19" s="89"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="141"/>
+    <row r="20" spans="1:35" ht="15" customHeight="1">
+      <c r="A20" s="138"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
       <c r="D20" s="83"/>
@@ -7450,8 +7462,8 @@
       <c r="AH20" s="88"/>
       <c r="AI20" s="89"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="141"/>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
+      <c r="A21" s="138"/>
       <c r="B21" s="81"/>
       <c r="C21" s="82"/>
       <c r="D21" s="83"/>
@@ -7487,8 +7499,8 @@
       <c r="AH21" s="88"/>
       <c r="AI21" s="89"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="141"/>
+    <row r="22" spans="1:35" ht="15" customHeight="1">
+      <c r="A22" s="138"/>
       <c r="B22" s="81"/>
       <c r="C22" s="82"/>
       <c r="D22" s="83"/>
@@ -7524,8 +7536,8 @@
       <c r="AH22" s="88"/>
       <c r="AI22" s="89"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="141"/>
+    <row r="23" spans="1:35" ht="15" customHeight="1">
+      <c r="A23" s="138"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="83"/>
@@ -7561,8 +7573,8 @@
       <c r="AH23" s="88"/>
       <c r="AI23" s="89"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="141"/>
+    <row r="24" spans="1:35" ht="15" customHeight="1">
+      <c r="A24" s="138"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="83"/>
@@ -7598,8 +7610,8 @@
       <c r="AH24" s="88"/>
       <c r="AI24" s="89"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="141"/>
+    <row r="25" spans="1:35" ht="15" customHeight="1">
+      <c r="A25" s="138"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82"/>
       <c r="D25" s="83"/>
@@ -7635,8 +7647,8 @@
       <c r="AH25" s="88"/>
       <c r="AI25" s="89"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="141"/>
+    <row r="26" spans="1:35" ht="15" customHeight="1">
+      <c r="A26" s="138"/>
       <c r="B26" s="81"/>
       <c r="C26" s="82"/>
       <c r="D26" s="83"/>
@@ -7672,8 +7684,8 @@
       <c r="AH26" s="88"/>
       <c r="AI26" s="89"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:35" ht="15" customHeight="1">
+      <c r="A27" s="138"/>
       <c r="B27" s="81"/>
       <c r="C27" s="82"/>
       <c r="D27" s="83"/>
@@ -7709,8 +7721,8 @@
       <c r="AH27" s="88"/>
       <c r="AI27" s="89"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="141"/>
+    <row r="28" spans="1:35" ht="15" customHeight="1">
+      <c r="A28" s="138"/>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
       <c r="D28" s="83"/>
@@ -7746,8 +7758,8 @@
       <c r="AH28" s="88"/>
       <c r="AI28" s="89"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="141"/>
+    <row r="29" spans="1:35" ht="15" customHeight="1">
+      <c r="A29" s="138"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
       <c r="D29" s="83"/>
@@ -7783,8 +7795,8 @@
       <c r="AH29" s="88"/>
       <c r="AI29" s="89"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="141"/>
+    <row r="30" spans="1:35" ht="15" customHeight="1">
+      <c r="A30" s="138"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
       <c r="D30" s="83"/>
@@ -7820,8 +7832,8 @@
       <c r="AH30" s="88"/>
       <c r="AI30" s="89"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="141"/>
+    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="A31" s="138"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
       <c r="D31" s="83"/>
@@ -7857,8 +7869,8 @@
       <c r="AH31" s="88"/>
       <c r="AI31" s="89"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="141"/>
+    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="A32" s="138"/>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
@@ -7894,8 +7906,8 @@
       <c r="AH32" s="88"/>
       <c r="AI32" s="89"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="141"/>
+    <row r="33" spans="1:35" ht="15" customHeight="1">
+      <c r="A33" s="138"/>
       <c r="B33" s="81"/>
       <c r="C33" s="82"/>
       <c r="D33" s="83"/>
@@ -8006,12 +8018,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="79" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="132" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="129" customWidth="1"/>
     <col min="18" max="33" width="4.83203125" style="79" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="132" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="129" customWidth="1"/>
     <col min="35" max="256" width="4.83203125" style="79"/>
     <col min="257" max="290" width="4.83203125" style="79" customWidth="1"/>
     <col min="291" max="512" width="4.83203125" style="79"/>
@@ -8141,178 +8153,178 @@
     <col min="16163" max="16384" width="4.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="127" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="203" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="242" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="239" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="251" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
-    </row>
-    <row r="2" spans="1:35" s="127" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="239" t="s">
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
+    </row>
+    <row r="2" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="203" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="239" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
-    </row>
-    <row r="3" spans="1:35" s="127" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="239" t="s">
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
+    </row>
+    <row r="3" spans="1:35" s="124" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="203" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="193" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
-    </row>
-    <row r="4" spans="1:35" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AC4" s="142"/>
-    </row>
-    <row r="5" spans="1:35" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q5" s="143" t="s">
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
+    </row>
+    <row r="4" spans="1:35" s="98" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AC4" s="139"/>
+    </row>
+    <row r="5" spans="1:35" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="Q5" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AC5" s="142"/>
-    </row>
-    <row r="6" spans="1:35" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N6" s="143"/>
-      <c r="AC6" s="142"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145" t="s">
+      <c r="AC5" s="139"/>
+    </row>
+    <row r="6" spans="1:35" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="N6" s="140"/>
+      <c r="AC6" s="139"/>
+    </row>
+    <row r="7" spans="1:35" ht="15" customHeight="1">
+      <c r="A7" s="141"/>
+      <c r="B7" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="145"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="95"/>
       <c r="E7" s="95"/>
       <c r="F7" s="95"/>
@@ -8323,33 +8335,33 @@
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
       <c r="M7" s="95"/>
-      <c r="N7" s="146"/>
+      <c r="N7" s="143"/>
       <c r="O7" s="95"/>
-      <c r="P7" s="147"/>
+      <c r="P7" s="144"/>
       <c r="Q7" s="98"/>
-      <c r="R7" s="142"/>
+      <c r="R7" s="139"/>
       <c r="S7" s="95"/>
       <c r="T7" s="95"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
       <c r="AE7" s="95"/>
       <c r="AF7" s="95"/>
-      <c r="AG7" s="147"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="149"/>
-    </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
+      <c r="AG7" s="144"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="146"/>
+    </row>
+    <row r="8" spans="1:35" ht="15" customHeight="1">
+      <c r="A8" s="141"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
@@ -8360,35 +8372,35 @@
       <c r="K8" s="95"/>
       <c r="L8" s="95"/>
       <c r="M8" s="95"/>
-      <c r="N8" s="146"/>
+      <c r="N8" s="143"/>
       <c r="O8" s="95"/>
-      <c r="P8" s="147"/>
+      <c r="P8" s="144"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="142"/>
+      <c r="R8" s="139"/>
       <c r="S8" s="95"/>
       <c r="T8" s="95"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
       <c r="AE8" s="95"/>
       <c r="AF8" s="95"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="149"/>
-    </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="144"/>
-      <c r="B9" s="145" t="s">
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="146"/>
+    </row>
+    <row r="9" spans="1:35" ht="15" customHeight="1">
+      <c r="A9" s="141"/>
+      <c r="B9" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="145"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
       <c r="F9" s="95"/>
@@ -8399,34 +8411,34 @@
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
       <c r="M9" s="95"/>
-      <c r="N9" s="146"/>
+      <c r="N9" s="143"/>
       <c r="O9" s="95"/>
-      <c r="P9" s="147"/>
+      <c r="P9" s="144"/>
       <c r="Q9" s="98"/>
-      <c r="R9" s="142"/>
+      <c r="R9" s="139"/>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
       <c r="Y9" s="95"/>
       <c r="Z9" s="95"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
       <c r="AC9" s="95"/>
       <c r="AD9" s="95"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="144"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="144"/>
-      <c r="B10" s="151"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="147"/>
+      <c r="AI9" s="141"/>
+    </row>
+    <row r="10" spans="1:35" ht="15" customHeight="1">
+      <c r="A10" s="141"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="144"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
@@ -8436,17 +8448,17 @@
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
       <c r="M10" s="95"/>
-      <c r="N10" s="146"/>
+      <c r="N10" s="143"/>
       <c r="O10" s="95"/>
-      <c r="P10" s="147"/>
+      <c r="P10" s="144"/>
       <c r="Q10" s="98"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
       <c r="Y10" s="95"/>
       <c r="Z10" s="95"/>
       <c r="AA10" s="95"/>
@@ -8455,17 +8467,17 @@
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
       <c r="AF10" s="95"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="149"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="144"/>
-      <c r="B11" s="152" t="s">
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="146"/>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1">
+      <c r="A11" s="141"/>
+      <c r="B11" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="144"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="95"/>
       <c r="F11" s="95"/>
       <c r="G11" s="95"/>
@@ -8475,17 +8487,17 @@
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
       <c r="M11" s="95"/>
-      <c r="N11" s="146"/>
+      <c r="N11" s="143"/>
       <c r="O11" s="95"/>
-      <c r="P11" s="147"/>
+      <c r="P11" s="144"/>
       <c r="Q11" s="98"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
       <c r="Y11" s="95"/>
       <c r="Z11" s="95"/>
       <c r="AA11" s="95"/>
@@ -8494,37 +8506,37 @@
       <c r="AD11" s="95"/>
       <c r="AE11" s="95"/>
       <c r="AF11" s="95"/>
-      <c r="AG11" s="147"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="149"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="144"/>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="146"/>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1">
+      <c r="A12" s="141"/>
       <c r="B12" s="95"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="154"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="98"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
       <c r="Y12" s="95"/>
       <c r="Z12" s="95"/>
       <c r="AA12" s="95"/>
@@ -8533,35 +8545,35 @@
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
       <c r="AF12" s="95"/>
-      <c r="AG12" s="147"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="149"/>
-    </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="144"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="154"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="146"/>
+    </row>
+    <row r="13" spans="1:35" ht="15" customHeight="1">
+      <c r="A13" s="141"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="98"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
       <c r="Y13" s="95"/>
       <c r="Z13" s="95"/>
       <c r="AA13" s="95"/>
@@ -8570,55 +8582,55 @@
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
       <c r="AF13" s="95"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="149"/>
-    </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="144"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="155"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="146"/>
+    </row>
+    <row r="14" spans="1:35" ht="15" customHeight="1">
+      <c r="A14" s="141"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="95"/>
       <c r="E14" s="95"/>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
-      <c r="H14" s="149"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="95"/>
       <c r="J14" s="95"/>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
       <c r="M14" s="95"/>
-      <c r="N14" s="146"/>
+      <c r="N14" s="143"/>
       <c r="O14" s="95"/>
-      <c r="P14" s="147"/>
+      <c r="P14" s="144"/>
       <c r="Q14" s="98"/>
       <c r="R14" s="98"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
       <c r="AE14" s="95"/>
       <c r="AF14" s="95"/>
-      <c r="AG14" s="147"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="149"/>
-    </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="144"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="146"/>
+    </row>
+    <row r="15" spans="1:35" ht="15" customHeight="1">
+      <c r="A15" s="141"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="95"/>
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
@@ -8627,7 +8639,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
       <c r="O15" s="95"/>
-      <c r="P15" s="142"/>
+      <c r="P15" s="139"/>
       <c r="Q15" s="98"/>
       <c r="R15" s="98"/>
       <c r="S15" s="98"/>
@@ -8644,14 +8656,14 @@
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
       <c r="AF15" s="95"/>
-      <c r="AG15" s="147"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="149"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="144"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="146"/>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1">
+      <c r="A16" s="141"/>
       <c r="B16" s="98"/>
-      <c r="C16" s="145"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
       <c r="F16" s="98"/>
@@ -8664,7 +8676,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
       <c r="O16" s="95"/>
-      <c r="P16" s="142"/>
+      <c r="P16" s="139"/>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
       <c r="S16" s="98"/>
@@ -8681,14 +8693,14 @@
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
       <c r="AF16" s="95"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="149"/>
-    </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="144"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="146"/>
+    </row>
+    <row r="17" spans="1:35" ht="15" customHeight="1">
+      <c r="A17" s="141"/>
       <c r="B17" s="98"/>
-      <c r="C17" s="144"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
       <c r="F17" s="98"/>
@@ -8701,7 +8713,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
       <c r="O17" s="95"/>
-      <c r="P17" s="142"/>
+      <c r="P17" s="139"/>
       <c r="Q17" s="98"/>
       <c r="R17" s="98"/>
       <c r="S17" s="98"/>
@@ -8718,14 +8730,14 @@
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
       <c r="AF17" s="95"/>
-      <c r="AG17" s="147"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="149"/>
-    </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="146"/>
+    </row>
+    <row r="18" spans="1:35" ht="15" customHeight="1">
+      <c r="A18" s="141"/>
       <c r="B18" s="98"/>
-      <c r="C18" s="144"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
       <c r="F18" s="98"/>
@@ -8738,7 +8750,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
       <c r="O18" s="95"/>
-      <c r="P18" s="142"/>
+      <c r="P18" s="139"/>
       <c r="Q18" s="98"/>
       <c r="R18" s="98"/>
       <c r="S18" s="98"/>
@@ -8755,14 +8767,14 @@
       <c r="AD18" s="95"/>
       <c r="AE18" s="95"/>
       <c r="AF18" s="95"/>
-      <c r="AG18" s="147"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="149"/>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="146"/>
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1">
+      <c r="A19" s="141"/>
       <c r="B19" s="98"/>
-      <c r="C19" s="144"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
       <c r="F19" s="98"/>
@@ -8775,7 +8787,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
       <c r="O19" s="95"/>
-      <c r="P19" s="142"/>
+      <c r="P19" s="139"/>
       <c r="Q19" s="98"/>
       <c r="R19" s="98"/>
       <c r="S19" s="98"/>
@@ -8792,14 +8804,14 @@
       <c r="AD19" s="95"/>
       <c r="AE19" s="95"/>
       <c r="AF19" s="95"/>
-      <c r="AG19" s="147"/>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="149"/>
-    </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="144"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="146"/>
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1">
+      <c r="A20" s="141"/>
       <c r="B20" s="98"/>
-      <c r="C20" s="144"/>
+      <c r="C20" s="141"/>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
       <c r="F20" s="98"/>
@@ -8812,7 +8824,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
       <c r="O20" s="95"/>
-      <c r="P20" s="142"/>
+      <c r="P20" s="139"/>
       <c r="Q20" s="98"/>
       <c r="R20" s="98"/>
       <c r="S20" s="98"/>
@@ -8829,14 +8841,14 @@
       <c r="AD20" s="95"/>
       <c r="AE20" s="95"/>
       <c r="AF20" s="95"/>
-      <c r="AG20" s="147"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="149"/>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="146"/>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
+      <c r="A21" s="141"/>
       <c r="B21" s="98"/>
-      <c r="C21" s="144"/>
+      <c r="C21" s="141"/>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
       <c r="F21" s="98"/>
@@ -8849,7 +8861,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
       <c r="O21" s="95"/>
-      <c r="P21" s="142"/>
+      <c r="P21" s="139"/>
       <c r="Q21" s="98"/>
       <c r="R21" s="98"/>
       <c r="S21" s="98"/>
@@ -8866,13 +8878,13 @@
       <c r="AD21" s="95"/>
       <c r="AE21" s="95"/>
       <c r="AF21" s="95"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="149"/>
-    </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="144"/>
-      <c r="B22" s="154"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="146"/>
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1">
+      <c r="A22" s="141"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="95"/>
       <c r="D22" s="95"/>
       <c r="E22" s="95"/>
@@ -8884,13 +8896,13 @@
       <c r="K22" s="95"/>
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
-      <c r="N22" s="146"/>
+      <c r="N22" s="143"/>
       <c r="O22" s="95"/>
-      <c r="P22" s="142"/>
+      <c r="P22" s="139"/>
       <c r="Q22" s="98"/>
       <c r="R22" s="98"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
       <c r="U22" s="95"/>
       <c r="V22" s="95"/>
       <c r="W22" s="95"/>
@@ -8903,19 +8915,19 @@
       <c r="AD22" s="95"/>
       <c r="AE22" s="95"/>
       <c r="AF22" s="95"/>
-      <c r="AG22" s="147"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="149"/>
-    </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="146"/>
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1">
+      <c r="A23" s="141"/>
       <c r="B23" s="98"/>
-      <c r="C23" s="144"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
       <c r="F23" s="98"/>
       <c r="G23" s="98"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="141"/>
       <c r="I23" s="98"/>
       <c r="J23" s="98"/>
       <c r="K23" s="98"/>
@@ -8923,11 +8935,11 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
       <c r="O23" s="98"/>
-      <c r="P23" s="142"/>
+      <c r="P23" s="139"/>
       <c r="Q23" s="98"/>
       <c r="R23" s="98"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
       <c r="U23" s="95"/>
       <c r="V23" s="95"/>
       <c r="W23" s="95"/>
@@ -8940,19 +8952,19 @@
       <c r="AD23" s="95"/>
       <c r="AE23" s="95"/>
       <c r="AF23" s="95"/>
-      <c r="AG23" s="147"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="149"/>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="146"/>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1">
+      <c r="A24" s="141"/>
       <c r="B24" s="98"/>
-      <c r="C24" s="144"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="144"/>
+      <c r="H24" s="141"/>
       <c r="I24" s="98"/>
       <c r="J24" s="98"/>
       <c r="K24" s="98"/>
@@ -8960,11 +8972,11 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
       <c r="O24" s="98"/>
-      <c r="P24" s="142"/>
+      <c r="P24" s="139"/>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
       <c r="U24" s="95"/>
       <c r="V24" s="95"/>
       <c r="W24" s="95"/>
@@ -8977,19 +8989,19 @@
       <c r="AD24" s="95"/>
       <c r="AE24" s="95"/>
       <c r="AF24" s="95"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="149"/>
-    </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="146"/>
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1">
+      <c r="A25" s="141"/>
       <c r="B25" s="98"/>
-      <c r="C25" s="144"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
       <c r="F25" s="98"/>
       <c r="G25" s="98"/>
-      <c r="H25" s="144"/>
+      <c r="H25" s="141"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
       <c r="K25" s="98"/>
@@ -8997,11 +9009,11 @@
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
-      <c r="P25" s="142"/>
+      <c r="P25" s="139"/>
       <c r="Q25" s="98"/>
       <c r="R25" s="98"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
       <c r="U25" s="95"/>
       <c r="V25" s="95"/>
       <c r="W25" s="95"/>
@@ -9014,19 +9026,19 @@
       <c r="AD25" s="95"/>
       <c r="AE25" s="95"/>
       <c r="AF25" s="95"/>
-      <c r="AG25" s="147"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="149"/>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="144"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="146"/>
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1">
+      <c r="A26" s="141"/>
       <c r="B26" s="98"/>
-      <c r="C26" s="144"/>
+      <c r="C26" s="141"/>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
       <c r="F26" s="98"/>
       <c r="G26" s="98"/>
-      <c r="H26" s="144"/>
+      <c r="H26" s="141"/>
       <c r="I26" s="98"/>
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
@@ -9034,11 +9046,11 @@
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
       <c r="O26" s="98"/>
-      <c r="P26" s="142"/>
+      <c r="P26" s="139"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
       <c r="U26" s="95"/>
       <c r="V26" s="95"/>
       <c r="W26" s="95"/>
@@ -9051,31 +9063,31 @@
       <c r="AD26" s="95"/>
       <c r="AE26" s="95"/>
       <c r="AF26" s="95"/>
-      <c r="AG26" s="147"/>
-      <c r="AH26" s="148"/>
-      <c r="AI26" s="149"/>
-    </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="146"/>
+    </row>
+    <row r="27" spans="1:35" ht="15" customHeight="1">
+      <c r="A27" s="141"/>
       <c r="B27" s="98"/>
-      <c r="C27" s="144"/>
+      <c r="C27" s="141"/>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
       <c r="F27" s="98"/>
       <c r="G27" s="98"/>
-      <c r="H27" s="144"/>
+      <c r="H27" s="141"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
       <c r="K27" s="98"/>
       <c r="L27" s="98"/>
       <c r="M27" s="95"/>
-      <c r="N27" s="146"/>
+      <c r="N27" s="143"/>
       <c r="O27" s="98"/>
-      <c r="P27" s="142"/>
+      <c r="P27" s="139"/>
       <c r="Q27" s="98"/>
       <c r="R27" s="98"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="144"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="141"/>
       <c r="U27" s="95"/>
       <c r="V27" s="95"/>
       <c r="W27" s="95"/>
@@ -9088,19 +9100,19 @@
       <c r="AD27" s="95"/>
       <c r="AE27" s="95"/>
       <c r="AF27" s="95"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="149"/>
-    </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="146"/>
+    </row>
+    <row r="28" spans="1:35" ht="15" customHeight="1">
+      <c r="A28" s="141"/>
       <c r="B28" s="98"/>
-      <c r="C28" s="144"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98"/>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
-      <c r="H28" s="144"/>
+      <c r="H28" s="141"/>
       <c r="I28" s="98"/>
       <c r="J28" s="98"/>
       <c r="K28" s="98"/>
@@ -9108,11 +9120,11 @@
       <c r="M28" s="98"/>
       <c r="N28" s="98"/>
       <c r="O28" s="98"/>
-      <c r="P28" s="142"/>
+      <c r="P28" s="139"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
       <c r="U28" s="95"/>
       <c r="V28" s="95"/>
       <c r="W28" s="95"/>
@@ -9125,12 +9137,12 @@
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
       <c r="AF28" s="95"/>
-      <c r="AG28" s="147"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="149"/>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="151"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="146"/>
+    </row>
+    <row r="29" spans="1:35" ht="15" customHeight="1">
+      <c r="A29" s="148"/>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
       <c r="D29" s="98"/>
@@ -9145,31 +9157,31 @@
       <c r="M29" s="98"/>
       <c r="N29" s="98"/>
       <c r="O29" s="98"/>
-      <c r="P29" s="142"/>
+      <c r="P29" s="139"/>
       <c r="Q29" s="98"/>
       <c r="R29" s="98"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
-    </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="151"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="153"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="156"/>
+    </row>
+    <row r="30" spans="1:35" ht="15" customHeight="1">
+      <c r="A30" s="148"/>
       <c r="B30" s="98"/>
-      <c r="C30" s="142"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="98"/>
       <c r="E30" s="98"/>
       <c r="F30" s="98"/>
@@ -9182,383 +9194,383 @@
       <c r="M30" s="98"/>
       <c r="N30" s="98"/>
       <c r="O30" s="98"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="160"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="157"/>
       <c r="R30" s="98"/>
-      <c r="S30" s="161"/>
+      <c r="S30" s="158"/>
       <c r="T30" s="95"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="151"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="151"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="151"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
-    </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="151"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
-    </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="151"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="159"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="166"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="159"/>
-      <c r="X34" s="159"/>
-      <c r="Y34" s="159"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="159"/>
-      <c r="AB34" s="159"/>
-      <c r="AC34" s="159"/>
-      <c r="AD34" s="159"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="159"/>
-    </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="151"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="167"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="159"/>
-      <c r="U35" s="159"/>
-      <c r="V35" s="159"/>
-      <c r="W35" s="159"/>
-      <c r="X35" s="159"/>
-      <c r="Y35" s="159"/>
-      <c r="Z35" s="159"/>
-      <c r="AA35" s="159"/>
-      <c r="AB35" s="159"/>
-      <c r="AC35" s="159"/>
-      <c r="AD35" s="159"/>
-      <c r="AE35" s="151"/>
-      <c r="AF35" s="151"/>
-      <c r="AG35" s="151"/>
-      <c r="AH35" s="167"/>
-      <c r="AI35" s="151"/>
-    </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="151"/>
-      <c r="B36" s="162"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="167"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="159"/>
-      <c r="U36" s="166"/>
-      <c r="V36" s="159"/>
-      <c r="W36" s="159"/>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="159"/>
-      <c r="Z36" s="159"/>
-      <c r="AA36" s="159"/>
-      <c r="AB36" s="159"/>
-      <c r="AC36" s="159"/>
-      <c r="AD36" s="159"/>
-      <c r="AE36" s="156"/>
-      <c r="AF36" s="156"/>
-      <c r="AG36" s="157"/>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="159"/>
-    </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S37" s="133"/>
-      <c r="T37" s="133"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="133"/>
-      <c r="W37" s="133"/>
-      <c r="X37" s="133"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="133"/>
-      <c r="AA37" s="133"/>
-      <c r="AB37" s="133"/>
-      <c r="AC37" s="133"/>
-      <c r="AD37" s="133"/>
-      <c r="AE37" s="133"/>
-      <c r="AF37" s="135"/>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="137"/>
-      <c r="AI37" s="133"/>
-    </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q38" s="138"/>
-      <c r="S38" s="133"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="133"/>
-      <c r="V38" s="133"/>
-      <c r="W38" s="133"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
-      <c r="AF38" s="135"/>
-      <c r="AG38" s="135"/>
-      <c r="AH38" s="137"/>
-      <c r="AI38" s="133"/>
-    </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="133"/>
-      <c r="AB39" s="133"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
-      <c r="AF39" s="133"/>
-      <c r="AG39" s="136"/>
-      <c r="AH39" s="137"/>
-      <c r="AI39" s="133"/>
-    </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="AE40" s="133"/>
-      <c r="AF40" s="133"/>
-      <c r="AG40" s="136"/>
-      <c r="AH40" s="137"/>
-      <c r="AI40" s="133"/>
-    </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="135"/>
-      <c r="AG41" s="136"/>
-      <c r="AH41" s="137"/>
-      <c r="AI41" s="133"/>
-    </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="135"/>
-      <c r="AG42" s="135"/>
-      <c r="AH42" s="137"/>
-      <c r="AI42" s="133"/>
-    </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="131"/>
-      <c r="AF43" s="139"/>
-      <c r="AG43" s="139"/>
-    </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="131"/>
-      <c r="AG44" s="139"/>
-    </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF45" s="139"/>
-      <c r="AG45" s="139"/>
-    </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AG46" s="139"/>
-    </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S47" s="131"/>
-      <c r="T47" s="131"/>
-      <c r="V47" s="131"/>
-      <c r="W47" s="131"/>
-      <c r="X47" s="131"/>
-      <c r="Y47" s="131"/>
-      <c r="Z47" s="131"/>
-      <c r="AA47" s="131"/>
-      <c r="AB47" s="131"/>
-      <c r="AC47" s="131"/>
-      <c r="AD47" s="131"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R48" s="131"/>
-      <c r="S48" s="131"/>
-      <c r="T48" s="131"/>
-      <c r="V48" s="131"/>
-      <c r="W48" s="131"/>
-      <c r="X48" s="131"/>
-      <c r="Y48" s="131"/>
-      <c r="Z48" s="131"/>
-      <c r="AA48" s="131"/>
-      <c r="AB48" s="131"/>
-      <c r="AC48" s="131"/>
-      <c r="AD48" s="131"/>
-      <c r="AG48" s="139"/>
-    </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R49" s="131"/>
-    </row>
-    <row r="50" spans="1:34" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U30" s="153"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="153"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="153"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="153"/>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="153"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="155"/>
+      <c r="AI30" s="156"/>
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="A31" s="148"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="153"/>
+      <c r="Z31" s="153"/>
+      <c r="AA31" s="153"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="153"/>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="153"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="155"/>
+      <c r="AI31" s="156"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="A32" s="148"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="153"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="156"/>
+    </row>
+    <row r="33" spans="1:35" ht="15" customHeight="1">
+      <c r="A33" s="148"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="153"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="153"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="154"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="156"/>
+    </row>
+    <row r="34" spans="1:35" ht="15" customHeight="1">
+      <c r="A34" s="148"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="163"/>
+      <c r="V34" s="156"/>
+      <c r="W34" s="156"/>
+      <c r="X34" s="156"/>
+      <c r="Y34" s="156"/>
+      <c r="Z34" s="156"/>
+      <c r="AA34" s="156"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="156"/>
+      <c r="AD34" s="156"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="154"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="156"/>
+    </row>
+    <row r="35" spans="1:35" ht="15" customHeight="1">
+      <c r="A35" s="148"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
+      <c r="U35" s="156"/>
+      <c r="V35" s="156"/>
+      <c r="W35" s="156"/>
+      <c r="X35" s="156"/>
+      <c r="Y35" s="156"/>
+      <c r="Z35" s="156"/>
+      <c r="AA35" s="156"/>
+      <c r="AB35" s="156"/>
+      <c r="AC35" s="156"/>
+      <c r="AD35" s="156"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="164"/>
+      <c r="AI35" s="148"/>
+    </row>
+    <row r="36" spans="1:35" ht="15" customHeight="1">
+      <c r="A36" s="148"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="163"/>
+      <c r="V36" s="156"/>
+      <c r="W36" s="156"/>
+      <c r="X36" s="156"/>
+      <c r="Y36" s="156"/>
+      <c r="Z36" s="156"/>
+      <c r="AA36" s="156"/>
+      <c r="AB36" s="156"/>
+      <c r="AC36" s="156"/>
+      <c r="AD36" s="156"/>
+      <c r="AE36" s="153"/>
+      <c r="AF36" s="153"/>
+      <c r="AG36" s="154"/>
+      <c r="AH36" s="155"/>
+      <c r="AI36" s="156"/>
+    </row>
+    <row r="37" spans="1:35" ht="15" customHeight="1">
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="133"/>
+      <c r="AH37" s="134"/>
+      <c r="AI37" s="130"/>
+    </row>
+    <row r="38" spans="1:35" ht="15" customHeight="1">
+      <c r="Q38" s="135"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="131"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="132"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="134"/>
+      <c r="AI38" s="130"/>
+    </row>
+    <row r="39" spans="1:35" ht="15" customHeight="1">
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="130"/>
+      <c r="AB39" s="130"/>
+      <c r="AC39" s="130"/>
+      <c r="AD39" s="130"/>
+      <c r="AE39" s="130"/>
+      <c r="AF39" s="130"/>
+      <c r="AG39" s="133"/>
+      <c r="AH39" s="134"/>
+      <c r="AI39" s="130"/>
+    </row>
+    <row r="40" spans="1:35" ht="15" customHeight="1">
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="133"/>
+      <c r="AH40" s="134"/>
+      <c r="AI40" s="130"/>
+    </row>
+    <row r="41" spans="1:35" ht="15" customHeight="1">
+      <c r="AE41" s="130"/>
+      <c r="AF41" s="132"/>
+      <c r="AG41" s="133"/>
+      <c r="AH41" s="134"/>
+      <c r="AI41" s="130"/>
+    </row>
+    <row r="42" spans="1:35" ht="15" customHeight="1">
+      <c r="AE42" s="130"/>
+      <c r="AF42" s="132"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="130"/>
+    </row>
+    <row r="43" spans="1:35" ht="15" customHeight="1">
+      <c r="A43" s="128"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="136"/>
+    </row>
+    <row r="44" spans="1:35" ht="15" customHeight="1">
+      <c r="A44" s="128"/>
+      <c r="AG44" s="136"/>
+    </row>
+    <row r="45" spans="1:35" ht="15" customHeight="1">
+      <c r="AF45" s="136"/>
+      <c r="AG45" s="136"/>
+    </row>
+    <row r="46" spans="1:35" ht="15" customHeight="1">
+      <c r="AG46" s="136"/>
+    </row>
+    <row r="47" spans="1:35" ht="15" customHeight="1">
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="V47" s="128"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="128"/>
+      <c r="Y47" s="128"/>
+      <c r="Z47" s="128"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="128"/>
+      <c r="AC47" s="128"/>
+      <c r="AD47" s="128"/>
+    </row>
+    <row r="48" spans="1:35" ht="15" customHeight="1">
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
+      <c r="AA48" s="128"/>
+      <c r="AB48" s="128"/>
+      <c r="AC48" s="128"/>
+      <c r="AD48" s="128"/>
+      <c r="AG48" s="136"/>
+    </row>
+    <row r="49" spans="1:34" ht="15" customHeight="1">
+      <c r="R49" s="128"/>
+    </row>
+    <row r="50" spans="1:34" s="128" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="79"/>
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
@@ -9575,7 +9587,7 @@
       <c r="N50" s="79"/>
       <c r="O50" s="79"/>
       <c r="P50" s="79"/>
-      <c r="Q50" s="132"/>
+      <c r="Q50" s="129"/>
       <c r="R50" s="79"/>
       <c r="S50" s="79"/>
       <c r="T50" s="79"/>
@@ -9589,9 +9601,9 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="79"/>
-      <c r="AH50" s="138"/>
-    </row>
-    <row r="51" spans="1:34" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH50" s="135"/>
+    </row>
+    <row r="51" spans="1:34" s="128" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="79"/>
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
@@ -9608,7 +9620,7 @@
       <c r="N51" s="79"/>
       <c r="O51" s="79"/>
       <c r="P51" s="79"/>
-      <c r="Q51" s="132"/>
+      <c r="Q51" s="129"/>
       <c r="R51" s="79"/>
       <c r="S51" s="79"/>
       <c r="T51" s="79"/>
@@ -9622,7 +9634,7 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="79"/>
-      <c r="AH51" s="138"/>
+      <c r="AH51" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9663,165 +9675,165 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="209" t="s">
+    <row r="1" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="203" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="209" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="251" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
-    </row>
-    <row r="2" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
+    </row>
+    <row r="2" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="203" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="209" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
-    </row>
-    <row r="3" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="209" t="s">
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
+    </row>
+    <row r="3" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="203" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="193" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
-    </row>
-    <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
+    </row>
+    <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="52"/>
       <c r="AD4" s="105"/>
       <c r="AE4" s="105"/>
@@ -9830,8 +9842,8 @@
       <c r="AH4" s="64"/>
       <c r="AI4" s="64"/>
     </row>
-    <row r="5" spans="1:35" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="130" t="s">
+    <row r="5" spans="1:35" s="73" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="127" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="104"/>
@@ -9869,7 +9881,7 @@
       <c r="AH5" s="104"/>
       <c r="AI5" s="104"/>
     </row>
-    <row r="6" spans="1:35" s="73" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="73" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="79"/>
       <c r="B6" s="104"/>
       <c r="C6" s="113"/>
@@ -9906,13 +9918,13 @@
       <c r="AH6" s="104"/>
       <c r="AI6" s="104"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="254" t="s">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="262"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="266"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -9925,76 +9937,76 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="278" t="s">
+      <c r="Q7" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="280"/>
-      <c r="U7" s="284"/>
-      <c r="V7" s="285"/>
-      <c r="W7" s="285"/>
-      <c r="X7" s="285"/>
-      <c r="Y7" s="285"/>
-      <c r="Z7" s="285"/>
-      <c r="AA7" s="285"/>
-      <c r="AB7" s="285"/>
-      <c r="AC7" s="285"/>
-      <c r="AD7" s="285"/>
-      <c r="AE7" s="285"/>
-      <c r="AF7" s="285"/>
-      <c r="AG7" s="285"/>
-      <c r="AH7" s="285"/>
-      <c r="AI7" s="286"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="254" t="s">
+      <c r="R7" s="283"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="288"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="290"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="261"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="276"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="254" t="s">
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="280"/>
+      <c r="Q8" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="275"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="276"/>
-      <c r="AH8" s="276"/>
-      <c r="AI8" s="277"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="254" t="s">
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="279"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="280"/>
+      <c r="AF8" s="280"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="280"/>
+      <c r="AI8" s="281"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="261"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="262"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="266"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10027,7 +10039,7 @@
       <c r="AH9" s="27"/>
       <c r="AI9" s="28"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -10064,7 +10076,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="23"/>
       <c r="C11" s="17"/>
@@ -10101,7 +10113,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="20"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="23"/>
       <c r="C12" s="17"/>
@@ -10138,7 +10150,7 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="20"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="31"/>
       <c r="C13" s="14" t="s">
@@ -10177,13 +10189,13 @@
       <c r="AH13" s="31"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="254" t="s">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="255"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="256"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="260"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -10216,7 +10228,7 @@
       <c r="AH14" s="27"/>
       <c r="AI14" s="28"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -10253,7 +10265,7 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="20"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -10290,7 +10302,7 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="20"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -10327,13 +10339,13 @@
       <c r="AH17" s="31"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="272" t="s">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="273"/>
-      <c r="C18" s="273"/>
-      <c r="D18" s="274"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="16"/>
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
@@ -10346,12 +10358,12 @@
       <c r="N18" s="23"/>
       <c r="O18" s="17"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="272" t="s">
+      <c r="Q18" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="273"/>
-      <c r="S18" s="273"/>
-      <c r="T18" s="274"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="278"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -10368,7 +10380,7 @@
       <c r="AH18" s="17"/>
       <c r="AI18" s="67"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -10413,7 +10425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -10450,54 +10462,54 @@
       <c r="AH20" s="17"/>
       <c r="AI20" s="20"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="254" t="s">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="276"/>
-      <c r="G21" s="276"/>
-      <c r="H21" s="276"/>
-      <c r="I21" s="276"/>
-      <c r="J21" s="276"/>
-      <c r="K21" s="276"/>
-      <c r="L21" s="276"/>
-      <c r="M21" s="276"/>
-      <c r="N21" s="276"/>
-      <c r="O21" s="276"/>
-      <c r="P21" s="277"/>
-      <c r="Q21" s="254" t="s">
+      <c r="B21" s="265"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="281"/>
+      <c r="Q21" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="261"/>
-      <c r="S21" s="261"/>
-      <c r="T21" s="262"/>
-      <c r="U21" s="275"/>
-      <c r="V21" s="276"/>
-      <c r="W21" s="276"/>
-      <c r="X21" s="276"/>
-      <c r="Y21" s="276"/>
-      <c r="Z21" s="276"/>
-      <c r="AA21" s="276"/>
-      <c r="AB21" s="276"/>
-      <c r="AC21" s="276"/>
-      <c r="AD21" s="276"/>
-      <c r="AE21" s="276"/>
-      <c r="AF21" s="276"/>
-      <c r="AG21" s="276"/>
-      <c r="AH21" s="276"/>
-      <c r="AI21" s="277"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="278" t="s">
+      <c r="R21" s="265"/>
+      <c r="S21" s="265"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="280"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="281"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
-      <c r="D22" s="280"/>
+      <c r="B22" s="283"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="284"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -10510,12 +10522,12 @@
       <c r="N22" s="27"/>
       <c r="O22" s="15"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="278" t="s">
+      <c r="Q22" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="279"/>
-      <c r="S22" s="279"/>
-      <c r="T22" s="280"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="284"/>
       <c r="U22" s="63"/>
       <c r="V22" s="27"/>
       <c r="W22" s="15"/>
@@ -10532,7 +10544,7 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="28"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -10577,35 +10589,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="269" t="s">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="270"/>
-      <c r="C24" s="270"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="275"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="276"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="276"/>
-      <c r="K24" s="276"/>
-      <c r="L24" s="276"/>
-      <c r="M24" s="276"/>
-      <c r="N24" s="276"/>
-      <c r="O24" s="276"/>
-      <c r="P24" s="277"/>
-      <c r="Q24" s="281" t="s">
+      <c r="B24" s="274"/>
+      <c r="C24" s="274"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="282"/>
-      <c r="S24" s="282"/>
-      <c r="T24" s="283"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="263"/>
+      <c r="V24" s="264"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
       <c r="Y24" s="21" t="s">
         <v>50</v>
       </c>
@@ -10620,27 +10632,27 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="265" t="s">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="266"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="267"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="25"/>
       <c r="F25" s="46"/>
       <c r="G25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="258"/>
-      <c r="K25" s="258"/>
-      <c r="L25" s="258"/>
-      <c r="M25" s="258"/>
-      <c r="N25" s="258"/>
-      <c r="O25" s="258"/>
-      <c r="P25" s="258"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
+      <c r="O25" s="262"/>
+      <c r="P25" s="262"/>
       <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10649,15 +10661,15 @@
       <c r="T25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="268"/>
-      <c r="V25" s="268"/>
-      <c r="W25" s="268"/>
-      <c r="X25" s="268"/>
-      <c r="Y25" s="268"/>
-      <c r="Z25" s="268"/>
-      <c r="AA25" s="268"/>
-      <c r="AB25" s="268"/>
-      <c r="AC25" s="268"/>
+      <c r="U25" s="272"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="272"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="272"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="272"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="272"/>
       <c r="AD25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10667,7 +10679,7 @@
       <c r="AH25" s="27"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="58"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -10677,15 +10689,15 @@
       <c r="G26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="264"/>
-      <c r="L26" s="264"/>
-      <c r="M26" s="264"/>
-      <c r="N26" s="264"/>
-      <c r="O26" s="264"/>
-      <c r="P26" s="264"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="268"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
       <c r="Q26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10694,15 +10706,15 @@
       <c r="T26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="264"/>
-      <c r="V26" s="264"/>
-      <c r="W26" s="264"/>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="264"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="264"/>
-      <c r="AB26" s="264"/>
-      <c r="AC26" s="264"/>
+      <c r="U26" s="268"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="268"/>
+      <c r="X26" s="268"/>
+      <c r="Y26" s="268"/>
+      <c r="Z26" s="268"/>
+      <c r="AA26" s="268"/>
+      <c r="AB26" s="268"/>
+      <c r="AC26" s="268"/>
       <c r="AD26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10712,7 +10724,7 @@
       <c r="AH26" s="23"/>
       <c r="AI26" s="20"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -10722,15 +10734,15 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="263"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
+      <c r="N27" s="267"/>
+      <c r="O27" s="267"/>
+      <c r="P27" s="267"/>
       <c r="Q27" s="31" t="s">
         <v>7</v>
       </c>
@@ -10739,31 +10751,31 @@
       <c r="T27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="263"/>
-      <c r="V27" s="263"/>
-      <c r="W27" s="263"/>
-      <c r="X27" s="263"/>
-      <c r="Y27" s="263"/>
-      <c r="Z27" s="263"/>
-      <c r="AA27" s="263"/>
-      <c r="AB27" s="263"/>
-      <c r="AC27" s="263"/>
-      <c r="AD27" s="263"/>
-      <c r="AE27" s="263"/>
-      <c r="AF27" s="263"/>
-      <c r="AG27" s="263"/>
-      <c r="AH27" s="263"/>
+      <c r="U27" s="267"/>
+      <c r="V27" s="267"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="267"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
       <c r="AI27" s="48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="254" t="s">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="256"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="259"/>
+      <c r="D28" s="260"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -10796,7 +10808,7 @@
       <c r="AH28" s="27"/>
       <c r="AI28" s="28"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -10833,7 +10845,7 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="20"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -10870,7 +10882,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="20"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -11623,165 +11635,165 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="209" t="s">
+    <row r="1" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="203" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="209" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="251" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
-    </row>
-    <row r="2" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
+    </row>
+    <row r="2" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="203" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="209" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
-    </row>
-    <row r="3" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="209" t="s">
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
+    </row>
+    <row r="3" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="203" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="193" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
-    </row>
-    <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
+    </row>
+    <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -11801,7 +11813,7 @@
       <c r="AI4" s="54"/>
       <c r="AJ4" s="10"/>
     </row>
-    <row r="5" spans="1:47" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" s="73" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>80</v>
       </c>
@@ -11852,7 +11864,7 @@
       <c r="AT5" s="104"/>
       <c r="AU5" s="104"/>
     </row>
-    <row r="6" spans="1:47" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" s="73" customFormat="1">
       <c r="A6" s="79"/>
       <c r="B6" s="104"/>
       <c r="C6" s="9"/>
@@ -11901,462 +11913,462 @@
       <c r="AT6" s="104"/>
       <c r="AU6" s="104"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="340" t="s">
+    <row r="7" spans="1:47">
+      <c r="A7" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="341"/>
-      <c r="C7" s="341"/>
-      <c r="D7" s="341"/>
-      <c r="E7" s="341"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="341"/>
-      <c r="H7" s="341"/>
-      <c r="I7" s="341"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="341"/>
-      <c r="L7" s="341"/>
-      <c r="M7" s="341"/>
-      <c r="N7" s="341"/>
-      <c r="O7" s="341"/>
-      <c r="P7" s="341"/>
-      <c r="Q7" s="341"/>
-      <c r="R7" s="341"/>
-      <c r="S7" s="341"/>
-      <c r="T7" s="341"/>
-      <c r="U7" s="341"/>
-      <c r="V7" s="341"/>
-      <c r="W7" s="341"/>
-      <c r="X7" s="341"/>
-      <c r="Y7" s="341"/>
-      <c r="Z7" s="341"/>
-      <c r="AA7" s="341"/>
-      <c r="AB7" s="348"/>
-      <c r="AC7" s="350" t="s">
+      <c r="B7" s="352"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="352"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="352"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="352"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="352"/>
+      <c r="M7" s="352"/>
+      <c r="N7" s="352"/>
+      <c r="O7" s="352"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="352"/>
+      <c r="R7" s="352"/>
+      <c r="S7" s="352"/>
+      <c r="T7" s="352"/>
+      <c r="U7" s="352"/>
+      <c r="V7" s="352"/>
+      <c r="W7" s="352"/>
+      <c r="X7" s="352"/>
+      <c r="Y7" s="352"/>
+      <c r="Z7" s="352"/>
+      <c r="AA7" s="352"/>
+      <c r="AB7" s="353"/>
+      <c r="AC7" s="355" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="341"/>
-      <c r="AE7" s="341"/>
-      <c r="AF7" s="341"/>
-      <c r="AG7" s="341"/>
-      <c r="AH7" s="341"/>
-      <c r="AI7" s="342"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A8" s="120" t="s">
+      <c r="AD7" s="352"/>
+      <c r="AE7" s="352"/>
+      <c r="AF7" s="352"/>
+      <c r="AG7" s="352"/>
+      <c r="AH7" s="352"/>
+      <c r="AI7" s="356"/>
+    </row>
+    <row r="8" spans="1:47" s="170" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A8" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="340" t="s">
+      <c r="B8" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="346"/>
-      <c r="D8" s="346"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="340" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="341"/>
-      <c r="I8" s="342"/>
-      <c r="J8" s="340" t="s">
+      <c r="H8" s="345"/>
+      <c r="I8" s="346"/>
+      <c r="J8" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="341"/>
-      <c r="L8" s="341"/>
-      <c r="M8" s="341"/>
-      <c r="N8" s="341"/>
-      <c r="O8" s="341"/>
-      <c r="P8" s="342"/>
-      <c r="Q8" s="338" t="s">
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="342" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="339"/>
-      <c r="S8" s="338" t="s">
+      <c r="R8" s="343"/>
+      <c r="S8" s="342" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="349"/>
-      <c r="U8" s="339"/>
-      <c r="V8" s="340" t="s">
+      <c r="T8" s="354"/>
+      <c r="U8" s="343"/>
+      <c r="V8" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="341"/>
-      <c r="X8" s="341"/>
-      <c r="Y8" s="341"/>
-      <c r="Z8" s="341"/>
-      <c r="AA8" s="341"/>
-      <c r="AB8" s="348"/>
-      <c r="AC8" s="351" t="s">
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="350"/>
+      <c r="AC8" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="352"/>
-      <c r="AE8" s="352"/>
-      <c r="AF8" s="352"/>
-      <c r="AG8" s="352"/>
-      <c r="AH8" s="287" t="s">
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="358"/>
+      <c r="AF8" s="358"/>
+      <c r="AG8" s="358"/>
+      <c r="AH8" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="287"/>
-    </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="169">
+      <c r="AI8" s="291"/>
+    </row>
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="166">
         <v>1</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="343"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="308"/>
-      <c r="R9" s="310"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="309"/>
-      <c r="U9" s="310"/>
-      <c r="V9" s="291"/>
-      <c r="W9" s="292"/>
-      <c r="X9" s="292"/>
-      <c r="Y9" s="292"/>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="292"/>
-      <c r="AB9" s="337"/>
-      <c r="AC9" s="334" t="s">
+      <c r="B9" s="295"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="347"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="313"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="341"/>
+      <c r="AC9" s="338" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="291"/>
-      <c r="AE9" s="292"/>
-      <c r="AF9" s="292"/>
-      <c r="AG9" s="293"/>
-      <c r="AH9" s="303"/>
-      <c r="AI9" s="304"/>
-    </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="169">
+      <c r="AD9" s="295"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296"/>
+      <c r="AG9" s="297"/>
+      <c r="AH9" s="307"/>
+      <c r="AI9" s="308"/>
+    </row>
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="166">
         <v>2</v>
       </c>
-      <c r="B10" s="294"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="314"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="296"/>
-      <c r="Q10" s="311"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="311"/>
-      <c r="T10" s="312"/>
-      <c r="U10" s="313"/>
-      <c r="V10" s="294"/>
-      <c r="W10" s="295"/>
-      <c r="X10" s="295"/>
-      <c r="Y10" s="295"/>
-      <c r="Z10" s="295"/>
-      <c r="AA10" s="295"/>
-      <c r="AB10" s="302"/>
-      <c r="AC10" s="335"/>
-      <c r="AD10" s="294"/>
-      <c r="AE10" s="295"/>
-      <c r="AF10" s="295"/>
-      <c r="AG10" s="296"/>
-      <c r="AH10" s="300"/>
-      <c r="AI10" s="301"/>
-    </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="169">
+      <c r="B10" s="298"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="317"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
+      <c r="U10" s="317"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
+      <c r="Y10" s="299"/>
+      <c r="Z10" s="299"/>
+      <c r="AA10" s="299"/>
+      <c r="AB10" s="306"/>
+      <c r="AC10" s="339"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="299"/>
+      <c r="AF10" s="299"/>
+      <c r="AG10" s="300"/>
+      <c r="AH10" s="304"/>
+      <c r="AI10" s="305"/>
+    </row>
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="166">
         <v>3</v>
       </c>
-      <c r="B11" s="294"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="296"/>
-      <c r="G11" s="314"/>
-      <c r="H11" s="315"/>
-      <c r="I11" s="316"/>
-      <c r="J11" s="294"/>
-      <c r="K11" s="295"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="295"/>
-      <c r="N11" s="295"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="311"/>
-      <c r="R11" s="313"/>
-      <c r="S11" s="311"/>
-      <c r="T11" s="312"/>
-      <c r="U11" s="313"/>
-      <c r="V11" s="294"/>
-      <c r="W11" s="295"/>
-      <c r="X11" s="295"/>
-      <c r="Y11" s="295"/>
-      <c r="Z11" s="295"/>
-      <c r="AA11" s="295"/>
-      <c r="AB11" s="302"/>
-      <c r="AC11" s="335"/>
-      <c r="AD11" s="297"/>
-      <c r="AE11" s="298"/>
-      <c r="AF11" s="298"/>
-      <c r="AG11" s="299"/>
-      <c r="AH11" s="300"/>
-      <c r="AI11" s="301"/>
-    </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="169">
+      <c r="B11" s="298"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="320"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="315"/>
+      <c r="R11" s="317"/>
+      <c r="S11" s="315"/>
+      <c r="T11" s="316"/>
+      <c r="U11" s="317"/>
+      <c r="V11" s="298"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
+      <c r="Y11" s="299"/>
+      <c r="Z11" s="299"/>
+      <c r="AA11" s="299"/>
+      <c r="AB11" s="306"/>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="301"/>
+      <c r="AE11" s="302"/>
+      <c r="AF11" s="302"/>
+      <c r="AG11" s="303"/>
+      <c r="AH11" s="304"/>
+      <c r="AI11" s="305"/>
+    </row>
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="166">
         <v>4</v>
       </c>
-      <c r="B12" s="294"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="294"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="295"/>
-      <c r="N12" s="295"/>
-      <c r="O12" s="295"/>
-      <c r="P12" s="296"/>
-      <c r="Q12" s="311"/>
-      <c r="R12" s="313"/>
-      <c r="S12" s="311"/>
-      <c r="T12" s="312"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="294"/>
-      <c r="W12" s="295"/>
-      <c r="X12" s="295"/>
-      <c r="Y12" s="295"/>
-      <c r="Z12" s="295"/>
-      <c r="AA12" s="295"/>
-      <c r="AB12" s="302"/>
-      <c r="AC12" s="335"/>
-      <c r="AD12" s="297"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="299"/>
-      <c r="AH12" s="300"/>
-      <c r="AI12" s="301"/>
-    </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="169">
+      <c r="B12" s="298"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="315"/>
+      <c r="R12" s="317"/>
+      <c r="S12" s="315"/>
+      <c r="T12" s="316"/>
+      <c r="U12" s="317"/>
+      <c r="V12" s="298"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
+      <c r="Y12" s="299"/>
+      <c r="Z12" s="299"/>
+      <c r="AA12" s="299"/>
+      <c r="AB12" s="306"/>
+      <c r="AC12" s="339"/>
+      <c r="AD12" s="301"/>
+      <c r="AE12" s="302"/>
+      <c r="AF12" s="302"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="304"/>
+      <c r="AI12" s="305"/>
+    </row>
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="166">
         <v>5</v>
       </c>
-      <c r="B13" s="305"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="306"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="295"/>
-      <c r="O13" s="295"/>
-      <c r="P13" s="296"/>
-      <c r="Q13" s="311"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="311"/>
-      <c r="T13" s="312"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="294"/>
-      <c r="W13" s="295"/>
-      <c r="X13" s="295"/>
-      <c r="Y13" s="295"/>
-      <c r="Z13" s="295"/>
-      <c r="AA13" s="295"/>
-      <c r="AB13" s="302"/>
-      <c r="AC13" s="335"/>
-      <c r="AD13" s="297"/>
-      <c r="AE13" s="298"/>
-      <c r="AF13" s="298"/>
-      <c r="AG13" s="299"/>
-      <c r="AH13" s="300"/>
-      <c r="AI13" s="301"/>
-    </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="169">
+      <c r="B13" s="309"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
+      <c r="U13" s="317"/>
+      <c r="V13" s="298"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
+      <c r="Y13" s="299"/>
+      <c r="Z13" s="299"/>
+      <c r="AA13" s="299"/>
+      <c r="AB13" s="306"/>
+      <c r="AC13" s="339"/>
+      <c r="AD13" s="301"/>
+      <c r="AE13" s="302"/>
+      <c r="AF13" s="302"/>
+      <c r="AG13" s="303"/>
+      <c r="AH13" s="304"/>
+      <c r="AI13" s="305"/>
+    </row>
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="166">
         <v>6</v>
       </c>
-      <c r="B14" s="305"/>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="294"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="296"/>
-      <c r="J14" s="294"/>
-      <c r="K14" s="295"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="295"/>
-      <c r="P14" s="296"/>
-      <c r="Q14" s="311"/>
-      <c r="R14" s="313"/>
-      <c r="S14" s="311"/>
-      <c r="T14" s="312"/>
-      <c r="U14" s="313"/>
-      <c r="V14" s="294"/>
-      <c r="W14" s="295"/>
-      <c r="X14" s="295"/>
-      <c r="Y14" s="295"/>
-      <c r="Z14" s="295"/>
-      <c r="AA14" s="295"/>
-      <c r="AB14" s="302"/>
-      <c r="AC14" s="335"/>
-      <c r="AD14" s="297"/>
-      <c r="AE14" s="298"/>
-      <c r="AF14" s="298"/>
-      <c r="AG14" s="299"/>
-      <c r="AH14" s="300"/>
-      <c r="AI14" s="301"/>
-    </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="170">
+      <c r="B14" s="309"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="317"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
+      <c r="U14" s="317"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
+      <c r="Y14" s="299"/>
+      <c r="Z14" s="299"/>
+      <c r="AA14" s="299"/>
+      <c r="AB14" s="306"/>
+      <c r="AC14" s="339"/>
+      <c r="AD14" s="301"/>
+      <c r="AE14" s="302"/>
+      <c r="AF14" s="302"/>
+      <c r="AG14" s="303"/>
+      <c r="AH14" s="304"/>
+      <c r="AI14" s="305"/>
+    </row>
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="167">
         <v>7</v>
       </c>
-      <c r="B15" s="305"/>
-      <c r="C15" s="306"/>
-      <c r="D15" s="306"/>
-      <c r="E15" s="306"/>
-      <c r="F15" s="307"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
-      <c r="M15" s="295"/>
-      <c r="N15" s="295"/>
-      <c r="O15" s="295"/>
-      <c r="P15" s="296"/>
-      <c r="Q15" s="311"/>
-      <c r="R15" s="313"/>
-      <c r="S15" s="311"/>
-      <c r="T15" s="312"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="294"/>
-      <c r="W15" s="295"/>
-      <c r="X15" s="295"/>
-      <c r="Y15" s="295"/>
-      <c r="Z15" s="295"/>
-      <c r="AA15" s="295"/>
-      <c r="AB15" s="302"/>
-      <c r="AC15" s="335"/>
-      <c r="AD15" s="297"/>
-      <c r="AE15" s="298"/>
-      <c r="AF15" s="298"/>
-      <c r="AG15" s="299"/>
-      <c r="AH15" s="300"/>
-      <c r="AI15" s="301"/>
-    </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="170">
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="315"/>
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
+      <c r="Y15" s="299"/>
+      <c r="Z15" s="299"/>
+      <c r="AA15" s="299"/>
+      <c r="AB15" s="306"/>
+      <c r="AC15" s="339"/>
+      <c r="AD15" s="301"/>
+      <c r="AE15" s="302"/>
+      <c r="AF15" s="302"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="304"/>
+      <c r="AI15" s="305"/>
+    </row>
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="167">
         <v>8</v>
       </c>
-      <c r="B16" s="305"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="295"/>
-      <c r="I16" s="296"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="295"/>
-      <c r="O16" s="295"/>
-      <c r="P16" s="296"/>
-      <c r="Q16" s="311"/>
-      <c r="R16" s="313"/>
-      <c r="S16" s="311"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="313"/>
-      <c r="V16" s="294"/>
-      <c r="W16" s="295"/>
-      <c r="X16" s="295"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="295"/>
-      <c r="AA16" s="295"/>
-      <c r="AB16" s="302"/>
-      <c r="AC16" s="335"/>
-      <c r="AD16" s="297"/>
-      <c r="AE16" s="298"/>
-      <c r="AF16" s="298"/>
-      <c r="AG16" s="299"/>
-      <c r="AH16" s="300"/>
-      <c r="AI16" s="301"/>
-    </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="171">
+      <c r="B16" s="309"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="315"/>
+      <c r="R16" s="317"/>
+      <c r="S16" s="315"/>
+      <c r="T16" s="316"/>
+      <c r="U16" s="317"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="299"/>
+      <c r="X16" s="299"/>
+      <c r="Y16" s="299"/>
+      <c r="Z16" s="299"/>
+      <c r="AA16" s="299"/>
+      <c r="AB16" s="306"/>
+      <c r="AC16" s="339"/>
+      <c r="AD16" s="301"/>
+      <c r="AE16" s="302"/>
+      <c r="AF16" s="302"/>
+      <c r="AG16" s="303"/>
+      <c r="AH16" s="304"/>
+      <c r="AI16" s="305"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="168">
         <v>9</v>
       </c>
-      <c r="B17" s="329"/>
-      <c r="C17" s="330"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="320"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="328"/>
-      <c r="Q17" s="325"/>
-      <c r="R17" s="327"/>
-      <c r="S17" s="325"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="327"/>
-      <c r="V17" s="320"/>
-      <c r="W17" s="321"/>
-      <c r="X17" s="321"/>
-      <c r="Y17" s="321"/>
-      <c r="Z17" s="321"/>
-      <c r="AA17" s="321"/>
-      <c r="AB17" s="322"/>
-      <c r="AC17" s="336"/>
-      <c r="AD17" s="288"/>
-      <c r="AE17" s="289"/>
-      <c r="AF17" s="289"/>
-      <c r="AG17" s="290"/>
-      <c r="AH17" s="332"/>
-      <c r="AI17" s="333"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="323"/>
-      <c r="B18" s="324"/>
-      <c r="C18" s="324"/>
-      <c r="D18" s="324"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="324"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="332"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="331"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="340"/>
+      <c r="AD17" s="292"/>
+      <c r="AE17" s="293"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="336"/>
+      <c r="AI17" s="337"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="328"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12380,23 +12392,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="319"/>
-      <c r="AE18" s="319"/>
-      <c r="AF18" s="319"/>
-      <c r="AG18" s="319"/>
-      <c r="AH18" s="319"/>
+      <c r="AD18" s="323"/>
+      <c r="AE18" s="323"/>
+      <c r="AF18" s="323"/>
+      <c r="AG18" s="323"/>
+      <c r="AH18" s="323"/>
       <c r="AI18" s="105"/>
       <c r="AJ18" s="43"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="317" t="s">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="321" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="318"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="318"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
       <c r="G19" s="119"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -12435,7 +12447,7 @@
       <c r="AT19" s="104"/>
       <c r="AU19" s="104"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="50"/>
       <c r="B20" s="43"/>
       <c r="C20" s="106"/>
@@ -12481,7 +12493,7 @@
       <c r="AT20" s="104"/>
       <c r="AU20" s="104"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="50"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -12527,7 +12539,7 @@
       <c r="AT21" s="104"/>
       <c r="AU21" s="104"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="50"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12573,7 +12585,7 @@
       <c r="AT22" s="104"/>
       <c r="AU22" s="104"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="50"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -12619,7 +12631,7 @@
       <c r="AT23" s="104"/>
       <c r="AU23" s="104"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="50"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -12665,7 +12677,7 @@
       <c r="AT24" s="104"/>
       <c r="AU24" s="104"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="50"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -12711,7 +12723,7 @@
       <c r="AT25" s="104"/>
       <c r="AU25" s="104"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="50"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -12757,7 +12769,7 @@
       <c r="AT26" s="104"/>
       <c r="AU26" s="104"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="50"/>
       <c r="B27" s="106"/>
       <c r="C27" s="106"/>
@@ -12803,7 +12815,7 @@
       <c r="AT27" s="104"/>
       <c r="AU27" s="104"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="50"/>
       <c r="B28" s="106"/>
       <c r="C28" s="43"/>
@@ -12849,7 +12861,7 @@
       <c r="AT28" s="104"/>
       <c r="AU28" s="104"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="107"/>
       <c r="C29" s="44"/>
@@ -12895,9 +12907,9 @@
       <c r="AT29" s="104"/>
       <c r="AU29" s="104"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="50"/>
-      <c r="B30" s="126"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -12921,16 +12933,16 @@
       <c r="W30" s="43"/>
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
-      <c r="Z30" s="125"/>
+      <c r="Z30" s="122"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="43"/>
       <c r="AC30" s="43"/>
-      <c r="AD30" s="125"/>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="125"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
       <c r="AJ30" s="43"/>
       <c r="AN30" s="115"/>
       <c r="AO30" s="104"/>
@@ -12941,7 +12953,7 @@
       <c r="AT30" s="104"/>
       <c r="AU30" s="104"/>
     </row>
-    <row r="31" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:47" ht="14.25" customHeight="1">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -12987,7 +12999,7 @@
       <c r="AT31" s="104"/>
       <c r="AU31" s="104"/>
     </row>
-    <row r="32" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:47" ht="12">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -13033,7 +13045,7 @@
       <c r="AT32" s="104"/>
       <c r="AU32" s="104"/>
     </row>
-    <row r="33" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="40:47" ht="12">
       <c r="AN33" s="115"/>
       <c r="AO33" s="104"/>
       <c r="AP33" s="104"/>
@@ -13043,7 +13055,7 @@
       <c r="AT33" s="104"/>
       <c r="AU33" s="104"/>
     </row>
-    <row r="34" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="40:47" ht="12">
       <c r="AN34" s="115"/>
       <c r="AO34" s="104"/>
       <c r="AP34" s="104"/>
@@ -13053,7 +13065,7 @@
       <c r="AT34" s="104"/>
       <c r="AU34" s="104"/>
     </row>
-    <row r="35" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="40:47" ht="12">
       <c r="AN35" s="115"/>
       <c r="AO35" s="104"/>
       <c r="AP35" s="104"/>
@@ -13063,7 +13075,7 @@
       <c r="AT35" s="104"/>
       <c r="AU35" s="104"/>
     </row>
-    <row r="36" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="40:47" ht="12">
       <c r="AN36" s="115"/>
       <c r="AO36" s="104"/>
       <c r="AP36" s="104"/>
@@ -13073,7 +13085,7 @@
       <c r="AT36" s="104"/>
       <c r="AU36" s="104"/>
     </row>
-    <row r="37" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="40:47" ht="12">
       <c r="AN37" s="115"/>
       <c r="AO37" s="104"/>
       <c r="AP37" s="104"/>
@@ -13083,7 +13095,7 @@
       <c r="AT37" s="104"/>
       <c r="AU37" s="104"/>
     </row>
-    <row r="38" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="40:47" ht="12">
       <c r="AN38" s="115"/>
       <c r="AO38" s="104"/>
       <c r="AP38" s="104"/>
@@ -13093,7 +13105,7 @@
       <c r="AT38" s="104"/>
       <c r="AU38" s="104"/>
     </row>
-    <row r="39" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="40:47" ht="12">
       <c r="AN39" s="115"/>
       <c r="AO39" s="104"/>
       <c r="AP39" s="104"/>
@@ -13103,7 +13115,7 @@
       <c r="AT39" s="104"/>
       <c r="AU39" s="104"/>
     </row>
-    <row r="40" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="40" spans="40:47">
       <c r="AN40" s="104"/>
       <c r="AO40" s="104"/>
       <c r="AP40" s="104"/>
@@ -13113,7 +13125,7 @@
       <c r="AT40" s="104"/>
       <c r="AU40" s="104"/>
     </row>
-    <row r="41" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="40:47">
       <c r="AN41" s="104"/>
       <c r="AO41" s="104"/>
       <c r="AP41" s="104"/>
@@ -13123,7 +13135,7 @@
       <c r="AT41" s="104"/>
       <c r="AU41" s="104"/>
     </row>
-    <row r="42" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="40:47">
       <c r="AN42" s="104"/>
       <c r="AO42" s="104"/>
       <c r="AP42" s="104"/>
@@ -13270,360 +13282,360 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="95" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="209" t="s">
+    <row r="1" spans="1:103" s="95" customFormat="1" ht="11.25">
+      <c r="A1" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="203" t="str">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="209" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="251" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
-    </row>
-    <row r="2" spans="1:103" s="95" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
+    </row>
+    <row r="2" spans="1:103" s="95" customFormat="1" ht="11.25">
+      <c r="A2" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="203" t="str">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="209" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
-    </row>
-    <row r="3" spans="1:103" s="95" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="209" t="s">
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
+    </row>
+    <row r="3" spans="1:103" s="95" customFormat="1" ht="11.25">
+      <c r="A3" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="203" t="str">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="193" t="str">
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
-    </row>
-    <row r="4" spans="1:103" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:103" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="129" t="s">
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
+    </row>
+    <row r="4" spans="1:103" ht="11.25"/>
+    <row r="5" spans="1:103" ht="11.25">
+      <c r="A5" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-    </row>
-    <row r="6" spans="1:103" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-    </row>
-    <row r="7" spans="1:103" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+    </row>
+    <row r="6" spans="1:103" ht="11.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+    </row>
+    <row r="7" spans="1:103" s="173" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="353" t="s">
+      <c r="B7" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="354"/>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="359" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="354"/>
-      <c r="K7" s="355"/>
-      <c r="L7" s="353" t="s">
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="359" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="354"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="354"/>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="124" t="s">
+      <c r="M7" s="360"/>
+      <c r="N7" s="360"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="356" t="s">
+      <c r="R7" s="362" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="356"/>
-      <c r="T7" s="356"/>
-      <c r="U7" s="356"/>
-      <c r="V7" s="357" t="s">
+      <c r="S7" s="362"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="357"/>
-      <c r="X7" s="358" t="s">
+      <c r="W7" s="363"/>
+      <c r="X7" s="364" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="359"/>
-      <c r="Z7" s="353" t="s">
+      <c r="Y7" s="365"/>
+      <c r="Z7" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="355"/>
-      <c r="AB7" s="353" t="s">
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="359" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="355"/>
-      <c r="AD7" s="360" t="s">
+      <c r="AC7" s="361"/>
+      <c r="AD7" s="359" t="s">
         <v>86</v>
       </c>
       <c r="AE7" s="361"/>
-      <c r="AF7" s="353" t="s">
+      <c r="AF7" s="359" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="354"/>
-      <c r="AH7" s="355"/>
-      <c r="AI7" s="353" t="s">
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="354"/>
-      <c r="AK7" s="354"/>
-      <c r="AL7" s="354"/>
-      <c r="AM7" s="354"/>
-      <c r="AN7" s="355"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="105"/>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
-      <c r="BU7" s="105"/>
-      <c r="BV7" s="105"/>
-      <c r="BW7" s="105"/>
-      <c r="BX7" s="105"/>
-      <c r="BY7" s="105"/>
-      <c r="BZ7" s="105"/>
-      <c r="CA7" s="105"/>
-      <c r="CB7" s="105"/>
-      <c r="CC7" s="105"/>
-      <c r="CD7" s="105"/>
-      <c r="CE7" s="105"/>
-      <c r="CF7" s="105"/>
-      <c r="CG7" s="105"/>
-      <c r="CH7" s="105"/>
-      <c r="CI7" s="105"/>
-      <c r="CJ7" s="105"/>
-      <c r="CK7" s="105"/>
-      <c r="CL7" s="105"/>
-      <c r="CM7" s="105"/>
-      <c r="CN7" s="105"/>
-      <c r="CO7" s="121"/>
-      <c r="CP7" s="121"/>
-      <c r="CQ7" s="121"/>
-      <c r="CR7" s="121"/>
-      <c r="CS7" s="121"/>
-      <c r="CT7" s="121"/>
-      <c r="CU7" s="121"/>
-      <c r="CV7" s="121"/>
-      <c r="CW7" s="121"/>
-      <c r="CX7" s="121"/>
-      <c r="CY7" s="121"/>
-    </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="168"/>
-      <c r="B8" s="366"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="368"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="363"/>
-      <c r="I8" s="363"/>
-      <c r="J8" s="363"/>
-      <c r="K8" s="364"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="363"/>
-      <c r="N8" s="363"/>
-      <c r="O8" s="363"/>
-      <c r="P8" s="364"/>
+      <c r="AJ7" s="360"/>
+      <c r="AK7" s="360"/>
+      <c r="AL7" s="360"/>
+      <c r="AM7" s="360"/>
+      <c r="AN7" s="361"/>
+      <c r="AV7" s="174"/>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="174"/>
+      <c r="BA7" s="174"/>
+      <c r="BB7" s="174"/>
+      <c r="BC7" s="174"/>
+      <c r="BD7" s="174"/>
+      <c r="BE7" s="174"/>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174"/>
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="174"/>
+      <c r="BJ7" s="174"/>
+      <c r="BK7" s="174"/>
+      <c r="BL7" s="174"/>
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174"/>
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174"/>
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174"/>
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174"/>
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174"/>
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174"/>
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174"/>
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174"/>
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="174"/>
+      <c r="CO7" s="175"/>
+      <c r="CP7" s="175"/>
+      <c r="CQ7" s="175"/>
+      <c r="CR7" s="175"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="175"/>
+      <c r="CV7" s="175"/>
+      <c r="CW7" s="175"/>
+      <c r="CX7" s="175"/>
+      <c r="CY7" s="175"/>
+    </row>
+    <row r="8" spans="1:103" ht="15" customHeight="1">
+      <c r="A8" s="165"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="366"/>
+      <c r="H8" s="367"/>
+      <c r="I8" s="367"/>
+      <c r="J8" s="367"/>
+      <c r="K8" s="368"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="367"/>
+      <c r="N8" s="367"/>
+      <c r="O8" s="367"/>
+      <c r="P8" s="368"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="369"/>
-      <c r="S8" s="369"/>
-      <c r="T8" s="369"/>
-      <c r="U8" s="369"/>
-      <c r="V8" s="365"/>
-      <c r="W8" s="365"/>
-      <c r="X8" s="370">
+      <c r="R8" s="373"/>
+      <c r="S8" s="373"/>
+      <c r="T8" s="373"/>
+      <c r="U8" s="373"/>
+      <c r="V8" s="369"/>
+      <c r="W8" s="369"/>
+      <c r="X8" s="374">
         <v>1</v>
       </c>
-      <c r="Y8" s="371"/>
-      <c r="Z8" s="362"/>
-      <c r="AA8" s="364"/>
-      <c r="AB8" s="362"/>
-      <c r="AC8" s="364"/>
-      <c r="AD8" s="362"/>
-      <c r="AE8" s="364"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="363"/>
-      <c r="AH8" s="364"/>
-      <c r="AI8" s="372"/>
-      <c r="AJ8" s="373"/>
-      <c r="AK8" s="373"/>
-      <c r="AL8" s="373"/>
-      <c r="AM8" s="373"/>
-      <c r="AN8" s="374"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="121"/>
-      <c r="BA8" s="121"/>
-      <c r="BB8" s="121"/>
-      <c r="BC8" s="121"/>
-      <c r="BD8" s="121"/>
-      <c r="BE8" s="121"/>
-      <c r="BF8" s="121"/>
-      <c r="BG8" s="121"/>
-      <c r="BH8" s="121"/>
-      <c r="BI8" s="121"/>
+      <c r="Y8" s="375"/>
+      <c r="Z8" s="366"/>
+      <c r="AA8" s="368"/>
+      <c r="AB8" s="366"/>
+      <c r="AC8" s="368"/>
+      <c r="AD8" s="366"/>
+      <c r="AE8" s="368"/>
+      <c r="AF8" s="366"/>
+      <c r="AG8" s="367"/>
+      <c r="AH8" s="368"/>
+      <c r="AI8" s="376"/>
+      <c r="AJ8" s="377"/>
+      <c r="AK8" s="377"/>
+      <c r="AL8" s="377"/>
+      <c r="AM8" s="377"/>
+      <c r="AN8" s="378"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="120"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="120"/>
+      <c r="BG8" s="120"/>
+      <c r="BH8" s="120"/>
+      <c r="BI8" s="120"/>
       <c r="BJ8" s="105"/>
       <c r="BK8" s="105"/>
       <c r="BL8" s="105"/>
@@ -13655,76 +13667,76 @@
       <c r="CL8" s="105"/>
       <c r="CM8" s="105"/>
       <c r="CN8" s="105"/>
-      <c r="CO8" s="121"/>
-      <c r="CP8" s="121"/>
-      <c r="CQ8" s="121"/>
-      <c r="CR8" s="121"/>
-      <c r="CS8" s="121"/>
-      <c r="CT8" s="121"/>
-      <c r="CU8" s="121"/>
-      <c r="CV8" s="121"/>
-      <c r="CW8" s="121"/>
-      <c r="CX8" s="121"/>
-      <c r="CY8" s="121"/>
-    </row>
-    <row r="9" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="168"/>
-      <c r="B9" s="366"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="368"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="363"/>
-      <c r="I9" s="363"/>
-      <c r="J9" s="363"/>
-      <c r="K9" s="364"/>
-      <c r="L9" s="362"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="364"/>
+      <c r="CO8" s="120"/>
+      <c r="CP8" s="120"/>
+      <c r="CQ8" s="120"/>
+      <c r="CR8" s="120"/>
+      <c r="CS8" s="120"/>
+      <c r="CT8" s="120"/>
+      <c r="CU8" s="120"/>
+      <c r="CV8" s="120"/>
+      <c r="CW8" s="120"/>
+      <c r="CX8" s="120"/>
+      <c r="CY8" s="120"/>
+    </row>
+    <row r="9" spans="1:103" ht="15" customHeight="1">
+      <c r="A9" s="165"/>
+      <c r="B9" s="370"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="367"/>
+      <c r="K9" s="368"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="369"/>
-      <c r="S9" s="369"/>
-      <c r="T9" s="369"/>
-      <c r="U9" s="369"/>
-      <c r="V9" s="365"/>
-      <c r="W9" s="365"/>
-      <c r="X9" s="370">
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="373"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="369"/>
+      <c r="W9" s="369"/>
+      <c r="X9" s="374">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="371"/>
-      <c r="Z9" s="362"/>
-      <c r="AA9" s="364"/>
-      <c r="AB9" s="362"/>
-      <c r="AC9" s="364"/>
-      <c r="AD9" s="362"/>
-      <c r="AE9" s="364"/>
-      <c r="AF9" s="362"/>
-      <c r="AG9" s="363"/>
-      <c r="AH9" s="364"/>
-      <c r="AI9" s="372"/>
-      <c r="AJ9" s="373"/>
-      <c r="AK9" s="373"/>
-      <c r="AL9" s="373"/>
-      <c r="AM9" s="373"/>
-      <c r="AN9" s="374"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
-      <c r="AX9" s="121"/>
-      <c r="AY9" s="121"/>
-      <c r="AZ9" s="121"/>
-      <c r="BA9" s="121"/>
-      <c r="BB9" s="121"/>
-      <c r="BC9" s="121"/>
-      <c r="BD9" s="121"/>
-      <c r="BE9" s="121"/>
-      <c r="BF9" s="121"/>
-      <c r="BG9" s="121"/>
-      <c r="BH9" s="121"/>
-      <c r="BI9" s="121"/>
+      <c r="Y9" s="375"/>
+      <c r="Z9" s="366"/>
+      <c r="AA9" s="368"/>
+      <c r="AB9" s="366"/>
+      <c r="AC9" s="368"/>
+      <c r="AD9" s="366"/>
+      <c r="AE9" s="368"/>
+      <c r="AF9" s="366"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="368"/>
+      <c r="AI9" s="376"/>
+      <c r="AJ9" s="377"/>
+      <c r="AK9" s="377"/>
+      <c r="AL9" s="377"/>
+      <c r="AM9" s="377"/>
+      <c r="AN9" s="378"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
+      <c r="AX9" s="120"/>
+      <c r="AY9" s="120"/>
+      <c r="AZ9" s="120"/>
+      <c r="BA9" s="120"/>
+      <c r="BB9" s="120"/>
+      <c r="BC9" s="120"/>
+      <c r="BD9" s="120"/>
+      <c r="BE9" s="120"/>
+      <c r="BF9" s="120"/>
+      <c r="BG9" s="120"/>
+      <c r="BH9" s="120"/>
+      <c r="BI9" s="120"/>
       <c r="BJ9" s="105"/>
       <c r="BK9" s="105"/>
       <c r="BL9" s="105"/>
@@ -13756,76 +13768,76 @@
       <c r="CL9" s="105"/>
       <c r="CM9" s="105"/>
       <c r="CN9" s="105"/>
-      <c r="CO9" s="121"/>
-      <c r="CP9" s="121"/>
-      <c r="CQ9" s="121"/>
-      <c r="CR9" s="121"/>
-      <c r="CS9" s="121"/>
-      <c r="CT9" s="121"/>
-      <c r="CU9" s="121"/>
-      <c r="CV9" s="121"/>
-      <c r="CW9" s="121"/>
-      <c r="CX9" s="121"/>
-      <c r="CY9" s="121"/>
-    </row>
-    <row r="10" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="168"/>
-      <c r="B10" s="366"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="368"/>
-      <c r="G10" s="362"/>
-      <c r="H10" s="363"/>
-      <c r="I10" s="363"/>
-      <c r="J10" s="363"/>
-      <c r="K10" s="364"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="363"/>
-      <c r="N10" s="363"/>
-      <c r="O10" s="363"/>
-      <c r="P10" s="364"/>
+      <c r="CO9" s="120"/>
+      <c r="CP9" s="120"/>
+      <c r="CQ9" s="120"/>
+      <c r="CR9" s="120"/>
+      <c r="CS9" s="120"/>
+      <c r="CT9" s="120"/>
+      <c r="CU9" s="120"/>
+      <c r="CV9" s="120"/>
+      <c r="CW9" s="120"/>
+      <c r="CX9" s="120"/>
+      <c r="CY9" s="120"/>
+    </row>
+    <row r="10" spans="1:103" ht="15" customHeight="1">
+      <c r="A10" s="165"/>
+      <c r="B10" s="370"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="372"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="367"/>
+      <c r="N10" s="367"/>
+      <c r="O10" s="367"/>
+      <c r="P10" s="368"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="369"/>
-      <c r="U10" s="369"/>
-      <c r="V10" s="365"/>
-      <c r="W10" s="365"/>
-      <c r="X10" s="370">
+      <c r="R10" s="373"/>
+      <c r="S10" s="373"/>
+      <c r="T10" s="373"/>
+      <c r="U10" s="373"/>
+      <c r="V10" s="369"/>
+      <c r="W10" s="369"/>
+      <c r="X10" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="371"/>
-      <c r="Z10" s="362"/>
-      <c r="AA10" s="364"/>
-      <c r="AB10" s="362"/>
-      <c r="AC10" s="364"/>
-      <c r="AD10" s="362"/>
-      <c r="AE10" s="364"/>
-      <c r="AF10" s="362"/>
-      <c r="AG10" s="363"/>
-      <c r="AH10" s="364"/>
-      <c r="AI10" s="372"/>
-      <c r="AJ10" s="373"/>
-      <c r="AK10" s="373"/>
-      <c r="AL10" s="373"/>
-      <c r="AM10" s="373"/>
-      <c r="AN10" s="374"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
-      <c r="AX10" s="121"/>
-      <c r="AY10" s="121"/>
-      <c r="AZ10" s="121"/>
-      <c r="BA10" s="121"/>
-      <c r="BB10" s="121"/>
-      <c r="BC10" s="121"/>
-      <c r="BD10" s="121"/>
-      <c r="BE10" s="121"/>
-      <c r="BF10" s="121"/>
-      <c r="BG10" s="121"/>
-      <c r="BH10" s="121"/>
-      <c r="BI10" s="121"/>
+      <c r="Y10" s="375"/>
+      <c r="Z10" s="366"/>
+      <c r="AA10" s="368"/>
+      <c r="AB10" s="366"/>
+      <c r="AC10" s="368"/>
+      <c r="AD10" s="366"/>
+      <c r="AE10" s="368"/>
+      <c r="AF10" s="366"/>
+      <c r="AG10" s="367"/>
+      <c r="AH10" s="368"/>
+      <c r="AI10" s="376"/>
+      <c r="AJ10" s="377"/>
+      <c r="AK10" s="377"/>
+      <c r="AL10" s="377"/>
+      <c r="AM10" s="377"/>
+      <c r="AN10" s="378"/>
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
+      <c r="AX10" s="120"/>
+      <c r="AY10" s="120"/>
+      <c r="AZ10" s="120"/>
+      <c r="BA10" s="120"/>
+      <c r="BB10" s="120"/>
+      <c r="BC10" s="120"/>
+      <c r="BD10" s="120"/>
+      <c r="BE10" s="120"/>
+      <c r="BF10" s="120"/>
+      <c r="BG10" s="120"/>
+      <c r="BH10" s="120"/>
+      <c r="BI10" s="120"/>
       <c r="BJ10" s="105"/>
       <c r="BK10" s="105"/>
       <c r="BL10" s="105"/>
@@ -13857,76 +13869,76 @@
       <c r="CL10" s="105"/>
       <c r="CM10" s="105"/>
       <c r="CN10" s="105"/>
-      <c r="CO10" s="121"/>
-      <c r="CP10" s="121"/>
-      <c r="CQ10" s="121"/>
-      <c r="CR10" s="121"/>
-      <c r="CS10" s="121"/>
-      <c r="CT10" s="121"/>
-      <c r="CU10" s="121"/>
-      <c r="CV10" s="121"/>
-      <c r="CW10" s="121"/>
-      <c r="CX10" s="121"/>
-      <c r="CY10" s="121"/>
-    </row>
-    <row r="11" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="168"/>
-      <c r="B11" s="366"/>
-      <c r="C11" s="367"/>
-      <c r="D11" s="367"/>
-      <c r="E11" s="367"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="363"/>
-      <c r="I11" s="363"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="364"/>
-      <c r="L11" s="362"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
-      <c r="O11" s="363"/>
-      <c r="P11" s="364"/>
+      <c r="CO10" s="120"/>
+      <c r="CP10" s="120"/>
+      <c r="CQ10" s="120"/>
+      <c r="CR10" s="120"/>
+      <c r="CS10" s="120"/>
+      <c r="CT10" s="120"/>
+      <c r="CU10" s="120"/>
+      <c r="CV10" s="120"/>
+      <c r="CW10" s="120"/>
+      <c r="CX10" s="120"/>
+      <c r="CY10" s="120"/>
+    </row>
+    <row r="11" spans="1:103" ht="15" customHeight="1">
+      <c r="A11" s="165"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="371"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="367"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="366"/>
+      <c r="M11" s="367"/>
+      <c r="N11" s="367"/>
+      <c r="O11" s="367"/>
+      <c r="P11" s="368"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="369"/>
-      <c r="U11" s="369"/>
-      <c r="V11" s="365"/>
-      <c r="W11" s="365"/>
-      <c r="X11" s="370">
+      <c r="R11" s="373"/>
+      <c r="S11" s="373"/>
+      <c r="T11" s="373"/>
+      <c r="U11" s="373"/>
+      <c r="V11" s="369"/>
+      <c r="W11" s="369"/>
+      <c r="X11" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="371"/>
-      <c r="Z11" s="362"/>
-      <c r="AA11" s="364"/>
-      <c r="AB11" s="362"/>
-      <c r="AC11" s="364"/>
-      <c r="AD11" s="362"/>
-      <c r="AE11" s="364"/>
-      <c r="AF11" s="362"/>
-      <c r="AG11" s="363"/>
-      <c r="AH11" s="364"/>
-      <c r="AI11" s="372"/>
-      <c r="AJ11" s="373"/>
-      <c r="AK11" s="373"/>
-      <c r="AL11" s="373"/>
-      <c r="AM11" s="373"/>
-      <c r="AN11" s="374"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
-      <c r="AX11" s="121"/>
-      <c r="AY11" s="121"/>
-      <c r="AZ11" s="121"/>
-      <c r="BA11" s="121"/>
-      <c r="BB11" s="121"/>
-      <c r="BC11" s="121"/>
-      <c r="BD11" s="121"/>
-      <c r="BE11" s="121"/>
-      <c r="BF11" s="121"/>
-      <c r="BG11" s="121"/>
-      <c r="BH11" s="121"/>
-      <c r="BI11" s="121"/>
+      <c r="Y11" s="375"/>
+      <c r="Z11" s="366"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="366"/>
+      <c r="AC11" s="368"/>
+      <c r="AD11" s="366"/>
+      <c r="AE11" s="368"/>
+      <c r="AF11" s="366"/>
+      <c r="AG11" s="367"/>
+      <c r="AH11" s="368"/>
+      <c r="AI11" s="376"/>
+      <c r="AJ11" s="377"/>
+      <c r="AK11" s="377"/>
+      <c r="AL11" s="377"/>
+      <c r="AM11" s="377"/>
+      <c r="AN11" s="378"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="120"/>
+      <c r="AZ11" s="120"/>
+      <c r="BA11" s="120"/>
+      <c r="BB11" s="120"/>
+      <c r="BC11" s="120"/>
+      <c r="BD11" s="120"/>
+      <c r="BE11" s="120"/>
+      <c r="BF11" s="120"/>
+      <c r="BG11" s="120"/>
+      <c r="BH11" s="120"/>
+      <c r="BI11" s="120"/>
       <c r="BJ11" s="105"/>
       <c r="BK11" s="105"/>
       <c r="BL11" s="105"/>
@@ -13958,76 +13970,76 @@
       <c r="CL11" s="105"/>
       <c r="CM11" s="105"/>
       <c r="CN11" s="105"/>
-      <c r="CO11" s="121"/>
-      <c r="CP11" s="121"/>
-      <c r="CQ11" s="121"/>
-      <c r="CR11" s="121"/>
-      <c r="CS11" s="121"/>
-      <c r="CT11" s="121"/>
-      <c r="CU11" s="121"/>
-      <c r="CV11" s="121"/>
-      <c r="CW11" s="121"/>
-      <c r="CX11" s="121"/>
-      <c r="CY11" s="121"/>
-    </row>
-    <row r="12" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="168"/>
-      <c r="B12" s="366"/>
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="367"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="362"/>
-      <c r="H12" s="363"/>
-      <c r="I12" s="363"/>
-      <c r="J12" s="363"/>
-      <c r="K12" s="364"/>
-      <c r="L12" s="362"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="364"/>
+      <c r="CO11" s="120"/>
+      <c r="CP11" s="120"/>
+      <c r="CQ11" s="120"/>
+      <c r="CR11" s="120"/>
+      <c r="CS11" s="120"/>
+      <c r="CT11" s="120"/>
+      <c r="CU11" s="120"/>
+      <c r="CV11" s="120"/>
+      <c r="CW11" s="120"/>
+      <c r="CX11" s="120"/>
+      <c r="CY11" s="120"/>
+    </row>
+    <row r="12" spans="1:103" ht="15" customHeight="1">
+      <c r="A12" s="165"/>
+      <c r="B12" s="370"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="372"/>
+      <c r="G12" s="366"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="367"/>
+      <c r="K12" s="368"/>
+      <c r="L12" s="366"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="367"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="368"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="369"/>
-      <c r="S12" s="369"/>
-      <c r="T12" s="369"/>
-      <c r="U12" s="369"/>
-      <c r="V12" s="365"/>
-      <c r="W12" s="365"/>
-      <c r="X12" s="370">
+      <c r="R12" s="373"/>
+      <c r="S12" s="373"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="373"/>
+      <c r="V12" s="369"/>
+      <c r="W12" s="369"/>
+      <c r="X12" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="371"/>
-      <c r="Z12" s="362"/>
-      <c r="AA12" s="364"/>
-      <c r="AB12" s="362"/>
-      <c r="AC12" s="364"/>
-      <c r="AD12" s="362"/>
-      <c r="AE12" s="364"/>
-      <c r="AF12" s="362"/>
-      <c r="AG12" s="363"/>
-      <c r="AH12" s="364"/>
-      <c r="AI12" s="372"/>
-      <c r="AJ12" s="373"/>
-      <c r="AK12" s="373"/>
-      <c r="AL12" s="373"/>
-      <c r="AM12" s="373"/>
-      <c r="AN12" s="374"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
-      <c r="AX12" s="121"/>
-      <c r="AY12" s="121"/>
-      <c r="AZ12" s="121"/>
-      <c r="BA12" s="121"/>
-      <c r="BB12" s="121"/>
-      <c r="BC12" s="121"/>
-      <c r="BD12" s="121"/>
-      <c r="BE12" s="121"/>
-      <c r="BF12" s="121"/>
-      <c r="BG12" s="121"/>
-      <c r="BH12" s="121"/>
-      <c r="BI12" s="121"/>
+      <c r="Y12" s="375"/>
+      <c r="Z12" s="366"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="366"/>
+      <c r="AC12" s="368"/>
+      <c r="AD12" s="366"/>
+      <c r="AE12" s="368"/>
+      <c r="AF12" s="366"/>
+      <c r="AG12" s="367"/>
+      <c r="AH12" s="368"/>
+      <c r="AI12" s="376"/>
+      <c r="AJ12" s="377"/>
+      <c r="AK12" s="377"/>
+      <c r="AL12" s="377"/>
+      <c r="AM12" s="377"/>
+      <c r="AN12" s="378"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="120"/>
+      <c r="BA12" s="120"/>
+      <c r="BB12" s="120"/>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="120"/>
+      <c r="BE12" s="120"/>
+      <c r="BF12" s="120"/>
+      <c r="BG12" s="120"/>
+      <c r="BH12" s="120"/>
+      <c r="BI12" s="120"/>
       <c r="BJ12" s="105"/>
       <c r="BK12" s="105"/>
       <c r="BL12" s="105"/>
@@ -14059,76 +14071,76 @@
       <c r="CL12" s="105"/>
       <c r="CM12" s="105"/>
       <c r="CN12" s="105"/>
-      <c r="CO12" s="121"/>
-      <c r="CP12" s="121"/>
-      <c r="CQ12" s="121"/>
-      <c r="CR12" s="121"/>
-      <c r="CS12" s="121"/>
-      <c r="CT12" s="121"/>
-      <c r="CU12" s="121"/>
-      <c r="CV12" s="121"/>
-      <c r="CW12" s="121"/>
-      <c r="CX12" s="121"/>
-      <c r="CY12" s="121"/>
-    </row>
-    <row r="13" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="168"/>
-      <c r="B13" s="366"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="362"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="363"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="364"/>
-      <c r="L13" s="362"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="364"/>
+      <c r="CO12" s="120"/>
+      <c r="CP12" s="120"/>
+      <c r="CQ12" s="120"/>
+      <c r="CR12" s="120"/>
+      <c r="CS12" s="120"/>
+      <c r="CT12" s="120"/>
+      <c r="CU12" s="120"/>
+      <c r="CV12" s="120"/>
+      <c r="CW12" s="120"/>
+      <c r="CX12" s="120"/>
+      <c r="CY12" s="120"/>
+    </row>
+    <row r="13" spans="1:103" ht="15" customHeight="1">
+      <c r="A13" s="165"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="366"/>
+      <c r="M13" s="367"/>
+      <c r="N13" s="367"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="368"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="369"/>
-      <c r="S13" s="369"/>
-      <c r="T13" s="369"/>
-      <c r="U13" s="369"/>
-      <c r="V13" s="365"/>
-      <c r="W13" s="365"/>
-      <c r="X13" s="370">
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="369"/>
+      <c r="W13" s="369"/>
+      <c r="X13" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="371"/>
-      <c r="Z13" s="362"/>
-      <c r="AA13" s="364"/>
-      <c r="AB13" s="362"/>
-      <c r="AC13" s="364"/>
-      <c r="AD13" s="362"/>
-      <c r="AE13" s="364"/>
-      <c r="AF13" s="362"/>
-      <c r="AG13" s="363"/>
-      <c r="AH13" s="364"/>
-      <c r="AI13" s="372"/>
-      <c r="AJ13" s="373"/>
-      <c r="AK13" s="373"/>
-      <c r="AL13" s="373"/>
-      <c r="AM13" s="373"/>
-      <c r="AN13" s="374"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="121"/>
-      <c r="AY13" s="121"/>
-      <c r="AZ13" s="121"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="121"/>
-      <c r="BC13" s="121"/>
-      <c r="BD13" s="121"/>
-      <c r="BE13" s="121"/>
-      <c r="BF13" s="121"/>
-      <c r="BG13" s="121"/>
-      <c r="BH13" s="121"/>
-      <c r="BI13" s="121"/>
+      <c r="Y13" s="375"/>
+      <c r="Z13" s="366"/>
+      <c r="AA13" s="368"/>
+      <c r="AB13" s="366"/>
+      <c r="AC13" s="368"/>
+      <c r="AD13" s="366"/>
+      <c r="AE13" s="368"/>
+      <c r="AF13" s="366"/>
+      <c r="AG13" s="367"/>
+      <c r="AH13" s="368"/>
+      <c r="AI13" s="376"/>
+      <c r="AJ13" s="377"/>
+      <c r="AK13" s="377"/>
+      <c r="AL13" s="377"/>
+      <c r="AM13" s="377"/>
+      <c r="AN13" s="378"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="120"/>
+      <c r="AZ13" s="120"/>
+      <c r="BA13" s="120"/>
+      <c r="BB13" s="120"/>
+      <c r="BC13" s="120"/>
+      <c r="BD13" s="120"/>
+      <c r="BE13" s="120"/>
+      <c r="BF13" s="120"/>
+      <c r="BG13" s="120"/>
+      <c r="BH13" s="120"/>
+      <c r="BI13" s="120"/>
       <c r="BJ13" s="105"/>
       <c r="BK13" s="105"/>
       <c r="BL13" s="105"/>
@@ -14160,76 +14172,76 @@
       <c r="CL13" s="105"/>
       <c r="CM13" s="105"/>
       <c r="CN13" s="105"/>
-      <c r="CO13" s="121"/>
-      <c r="CP13" s="121"/>
-      <c r="CQ13" s="121"/>
-      <c r="CR13" s="121"/>
-      <c r="CS13" s="121"/>
-      <c r="CT13" s="121"/>
-      <c r="CU13" s="121"/>
-      <c r="CV13" s="121"/>
-      <c r="CW13" s="121"/>
-      <c r="CX13" s="121"/>
-      <c r="CY13" s="121"/>
-    </row>
-    <row r="14" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="168"/>
-      <c r="B14" s="366"/>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="363"/>
-      <c r="I14" s="363"/>
-      <c r="J14" s="363"/>
-      <c r="K14" s="364"/>
-      <c r="L14" s="362"/>
-      <c r="M14" s="363"/>
-      <c r="N14" s="363"/>
-      <c r="O14" s="363"/>
-      <c r="P14" s="364"/>
+      <c r="CO13" s="120"/>
+      <c r="CP13" s="120"/>
+      <c r="CQ13" s="120"/>
+      <c r="CR13" s="120"/>
+      <c r="CS13" s="120"/>
+      <c r="CT13" s="120"/>
+      <c r="CU13" s="120"/>
+      <c r="CV13" s="120"/>
+      <c r="CW13" s="120"/>
+      <c r="CX13" s="120"/>
+      <c r="CY13" s="120"/>
+    </row>
+    <row r="14" spans="1:103" ht="15" customHeight="1">
+      <c r="A14" s="165"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="368"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="369"/>
-      <c r="U14" s="369"/>
-      <c r="V14" s="365"/>
-      <c r="W14" s="365"/>
-      <c r="X14" s="370">
+      <c r="R14" s="373"/>
+      <c r="S14" s="373"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="373"/>
+      <c r="V14" s="369"/>
+      <c r="W14" s="369"/>
+      <c r="X14" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="371"/>
-      <c r="Z14" s="362"/>
-      <c r="AA14" s="364"/>
-      <c r="AB14" s="362"/>
-      <c r="AC14" s="364"/>
-      <c r="AD14" s="362"/>
-      <c r="AE14" s="364"/>
-      <c r="AF14" s="362"/>
-      <c r="AG14" s="363"/>
-      <c r="AH14" s="364"/>
-      <c r="AI14" s="372"/>
-      <c r="AJ14" s="373"/>
-      <c r="AK14" s="373"/>
-      <c r="AL14" s="373"/>
-      <c r="AM14" s="373"/>
-      <c r="AN14" s="374"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
-      <c r="AX14" s="121"/>
-      <c r="AY14" s="121"/>
-      <c r="AZ14" s="121"/>
-      <c r="BA14" s="121"/>
-      <c r="BB14" s="121"/>
-      <c r="BC14" s="121"/>
-      <c r="BD14" s="121"/>
-      <c r="BE14" s="121"/>
-      <c r="BF14" s="121"/>
-      <c r="BG14" s="121"/>
-      <c r="BH14" s="121"/>
-      <c r="BI14" s="121"/>
+      <c r="Y14" s="375"/>
+      <c r="Z14" s="366"/>
+      <c r="AA14" s="368"/>
+      <c r="AB14" s="366"/>
+      <c r="AC14" s="368"/>
+      <c r="AD14" s="366"/>
+      <c r="AE14" s="368"/>
+      <c r="AF14" s="366"/>
+      <c r="AG14" s="367"/>
+      <c r="AH14" s="368"/>
+      <c r="AI14" s="376"/>
+      <c r="AJ14" s="377"/>
+      <c r="AK14" s="377"/>
+      <c r="AL14" s="377"/>
+      <c r="AM14" s="377"/>
+      <c r="AN14" s="378"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="120"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="120"/>
+      <c r="BE14" s="120"/>
+      <c r="BF14" s="120"/>
+      <c r="BG14" s="120"/>
+      <c r="BH14" s="120"/>
+      <c r="BI14" s="120"/>
       <c r="BJ14" s="105"/>
       <c r="BK14" s="105"/>
       <c r="BL14" s="105"/>
@@ -14261,76 +14273,76 @@
       <c r="CL14" s="105"/>
       <c r="CM14" s="105"/>
       <c r="CN14" s="105"/>
-      <c r="CO14" s="121"/>
-      <c r="CP14" s="121"/>
-      <c r="CQ14" s="121"/>
-      <c r="CR14" s="121"/>
-      <c r="CS14" s="121"/>
-      <c r="CT14" s="121"/>
-      <c r="CU14" s="121"/>
-      <c r="CV14" s="121"/>
-      <c r="CW14" s="121"/>
-      <c r="CX14" s="121"/>
-      <c r="CY14" s="121"/>
-    </row>
-    <row r="15" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="168"/>
-      <c r="B15" s="366"/>
-      <c r="C15" s="367"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="367"/>
-      <c r="F15" s="368"/>
-      <c r="G15" s="362"/>
-      <c r="H15" s="363"/>
-      <c r="I15" s="363"/>
-      <c r="J15" s="363"/>
-      <c r="K15" s="364"/>
-      <c r="L15" s="362"/>
-      <c r="M15" s="363"/>
-      <c r="N15" s="363"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="364"/>
+      <c r="CO14" s="120"/>
+      <c r="CP14" s="120"/>
+      <c r="CQ14" s="120"/>
+      <c r="CR14" s="120"/>
+      <c r="CS14" s="120"/>
+      <c r="CT14" s="120"/>
+      <c r="CU14" s="120"/>
+      <c r="CV14" s="120"/>
+      <c r="CW14" s="120"/>
+      <c r="CX14" s="120"/>
+      <c r="CY14" s="120"/>
+    </row>
+    <row r="15" spans="1:103" ht="15" customHeight="1">
+      <c r="A15" s="165"/>
+      <c r="B15" s="370"/>
+      <c r="C15" s="371"/>
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="366"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
+      <c r="J15" s="367"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="367"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="367"/>
+      <c r="P15" s="368"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="369"/>
-      <c r="U15" s="369"/>
-      <c r="V15" s="365"/>
-      <c r="W15" s="365"/>
-      <c r="X15" s="370">
+      <c r="R15" s="373"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="373"/>
+      <c r="V15" s="369"/>
+      <c r="W15" s="369"/>
+      <c r="X15" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="371"/>
-      <c r="Z15" s="362"/>
-      <c r="AA15" s="364"/>
-      <c r="AB15" s="362"/>
-      <c r="AC15" s="364"/>
-      <c r="AD15" s="362"/>
-      <c r="AE15" s="364"/>
-      <c r="AF15" s="362"/>
-      <c r="AG15" s="363"/>
-      <c r="AH15" s="364"/>
-      <c r="AI15" s="372"/>
-      <c r="AJ15" s="373"/>
-      <c r="AK15" s="373"/>
-      <c r="AL15" s="373"/>
-      <c r="AM15" s="373"/>
-      <c r="AN15" s="374"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="121"/>
-      <c r="AY15" s="121"/>
-      <c r="AZ15" s="121"/>
-      <c r="BA15" s="121"/>
-      <c r="BB15" s="121"/>
-      <c r="BC15" s="121"/>
-      <c r="BD15" s="121"/>
-      <c r="BE15" s="121"/>
-      <c r="BF15" s="121"/>
-      <c r="BG15" s="121"/>
-      <c r="BH15" s="121"/>
-      <c r="BI15" s="121"/>
+      <c r="Y15" s="375"/>
+      <c r="Z15" s="366"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="366"/>
+      <c r="AC15" s="368"/>
+      <c r="AD15" s="366"/>
+      <c r="AE15" s="368"/>
+      <c r="AF15" s="366"/>
+      <c r="AG15" s="367"/>
+      <c r="AH15" s="368"/>
+      <c r="AI15" s="376"/>
+      <c r="AJ15" s="377"/>
+      <c r="AK15" s="377"/>
+      <c r="AL15" s="377"/>
+      <c r="AM15" s="377"/>
+      <c r="AN15" s="378"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="120"/>
+      <c r="BE15" s="120"/>
+      <c r="BF15" s="120"/>
+      <c r="BG15" s="120"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="120"/>
       <c r="BJ15" s="105"/>
       <c r="BK15" s="105"/>
       <c r="BL15" s="105"/>
@@ -14362,76 +14374,76 @@
       <c r="CL15" s="105"/>
       <c r="CM15" s="105"/>
       <c r="CN15" s="105"/>
-      <c r="CO15" s="121"/>
-      <c r="CP15" s="121"/>
-      <c r="CQ15" s="121"/>
-      <c r="CR15" s="121"/>
-      <c r="CS15" s="121"/>
-      <c r="CT15" s="121"/>
-      <c r="CU15" s="121"/>
-      <c r="CV15" s="121"/>
-      <c r="CW15" s="121"/>
-      <c r="CX15" s="121"/>
-      <c r="CY15" s="121"/>
-    </row>
-    <row r="16" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="168"/>
-      <c r="B16" s="366"/>
-      <c r="C16" s="367"/>
-      <c r="D16" s="367"/>
-      <c r="E16" s="367"/>
-      <c r="F16" s="368"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="363"/>
-      <c r="I16" s="363"/>
-      <c r="J16" s="363"/>
-      <c r="K16" s="364"/>
-      <c r="L16" s="362"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="363"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="364"/>
+      <c r="CO15" s="120"/>
+      <c r="CP15" s="120"/>
+      <c r="CQ15" s="120"/>
+      <c r="CR15" s="120"/>
+      <c r="CS15" s="120"/>
+      <c r="CT15" s="120"/>
+      <c r="CU15" s="120"/>
+      <c r="CV15" s="120"/>
+      <c r="CW15" s="120"/>
+      <c r="CX15" s="120"/>
+      <c r="CY15" s="120"/>
+    </row>
+    <row r="16" spans="1:103" ht="15" customHeight="1">
+      <c r="A16" s="165"/>
+      <c r="B16" s="370"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="366"/>
+      <c r="H16" s="367"/>
+      <c r="I16" s="367"/>
+      <c r="J16" s="367"/>
+      <c r="K16" s="368"/>
+      <c r="L16" s="366"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="367"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="368"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="369"/>
-      <c r="S16" s="369"/>
-      <c r="T16" s="369"/>
-      <c r="U16" s="369"/>
-      <c r="V16" s="365"/>
-      <c r="W16" s="365"/>
-      <c r="X16" s="370">
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
+      <c r="V16" s="369"/>
+      <c r="W16" s="369"/>
+      <c r="X16" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="371"/>
-      <c r="Z16" s="362"/>
-      <c r="AA16" s="364"/>
-      <c r="AB16" s="362"/>
-      <c r="AC16" s="364"/>
-      <c r="AD16" s="362"/>
-      <c r="AE16" s="364"/>
-      <c r="AF16" s="362"/>
-      <c r="AG16" s="363"/>
-      <c r="AH16" s="364"/>
-      <c r="AI16" s="372"/>
-      <c r="AJ16" s="373"/>
-      <c r="AK16" s="373"/>
-      <c r="AL16" s="373"/>
-      <c r="AM16" s="373"/>
-      <c r="AN16" s="374"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="121"/>
-      <c r="BB16" s="121"/>
-      <c r="BC16" s="121"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
-      <c r="BG16" s="121"/>
-      <c r="BH16" s="121"/>
-      <c r="BI16" s="121"/>
+      <c r="Y16" s="375"/>
+      <c r="Z16" s="366"/>
+      <c r="AA16" s="368"/>
+      <c r="AB16" s="366"/>
+      <c r="AC16" s="368"/>
+      <c r="AD16" s="366"/>
+      <c r="AE16" s="368"/>
+      <c r="AF16" s="366"/>
+      <c r="AG16" s="367"/>
+      <c r="AH16" s="368"/>
+      <c r="AI16" s="376"/>
+      <c r="AJ16" s="377"/>
+      <c r="AK16" s="377"/>
+      <c r="AL16" s="377"/>
+      <c r="AM16" s="377"/>
+      <c r="AN16" s="378"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="120"/>
+      <c r="BE16" s="120"/>
+      <c r="BF16" s="120"/>
+      <c r="BG16" s="120"/>
+      <c r="BH16" s="120"/>
+      <c r="BI16" s="120"/>
       <c r="BJ16" s="105"/>
       <c r="BK16" s="105"/>
       <c r="BL16" s="105"/>
@@ -14463,76 +14475,76 @@
       <c r="CL16" s="105"/>
       <c r="CM16" s="105"/>
       <c r="CN16" s="105"/>
-      <c r="CO16" s="121"/>
-      <c r="CP16" s="121"/>
-      <c r="CQ16" s="121"/>
-      <c r="CR16" s="121"/>
-      <c r="CS16" s="121"/>
-      <c r="CT16" s="121"/>
-      <c r="CU16" s="121"/>
-      <c r="CV16" s="121"/>
-      <c r="CW16" s="121"/>
-      <c r="CX16" s="121"/>
-      <c r="CY16" s="121"/>
-    </row>
-    <row r="17" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="168"/>
-      <c r="B17" s="366"/>
-      <c r="C17" s="367"/>
-      <c r="D17" s="367"/>
-      <c r="E17" s="367"/>
-      <c r="F17" s="368"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="363"/>
-      <c r="J17" s="363"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="362"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="363"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="364"/>
+      <c r="CO16" s="120"/>
+      <c r="CP16" s="120"/>
+      <c r="CQ16" s="120"/>
+      <c r="CR16" s="120"/>
+      <c r="CS16" s="120"/>
+      <c r="CT16" s="120"/>
+      <c r="CU16" s="120"/>
+      <c r="CV16" s="120"/>
+      <c r="CW16" s="120"/>
+      <c r="CX16" s="120"/>
+      <c r="CY16" s="120"/>
+    </row>
+    <row r="17" spans="1:103" ht="15" customHeight="1">
+      <c r="A17" s="165"/>
+      <c r="B17" s="370"/>
+      <c r="C17" s="371"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="366"/>
+      <c r="H17" s="367"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="367"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="366"/>
+      <c r="M17" s="367"/>
+      <c r="N17" s="367"/>
+      <c r="O17" s="367"/>
+      <c r="P17" s="368"/>
       <c r="Q17" s="76"/>
-      <c r="R17" s="369"/>
-      <c r="S17" s="369"/>
-      <c r="T17" s="369"/>
-      <c r="U17" s="369"/>
-      <c r="V17" s="365"/>
-      <c r="W17" s="365"/>
-      <c r="X17" s="370">
+      <c r="R17" s="373"/>
+      <c r="S17" s="373"/>
+      <c r="T17" s="373"/>
+      <c r="U17" s="373"/>
+      <c r="V17" s="369"/>
+      <c r="W17" s="369"/>
+      <c r="X17" s="374">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="371"/>
-      <c r="Z17" s="362"/>
-      <c r="AA17" s="364"/>
-      <c r="AB17" s="362"/>
-      <c r="AC17" s="364"/>
-      <c r="AD17" s="362"/>
-      <c r="AE17" s="364"/>
-      <c r="AF17" s="362"/>
-      <c r="AG17" s="363"/>
-      <c r="AH17" s="364"/>
-      <c r="AI17" s="372"/>
-      <c r="AJ17" s="373"/>
-      <c r="AK17" s="373"/>
-      <c r="AL17" s="373"/>
-      <c r="AM17" s="373"/>
-      <c r="AN17" s="374"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="121"/>
-      <c r="BA17" s="121"/>
-      <c r="BB17" s="121"/>
-      <c r="BC17" s="121"/>
-      <c r="BD17" s="121"/>
-      <c r="BE17" s="121"/>
-      <c r="BF17" s="121"/>
-      <c r="BG17" s="121"/>
-      <c r="BH17" s="121"/>
-      <c r="BI17" s="121"/>
+      <c r="Y17" s="375"/>
+      <c r="Z17" s="366"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="366"/>
+      <c r="AC17" s="368"/>
+      <c r="AD17" s="366"/>
+      <c r="AE17" s="368"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="376"/>
+      <c r="AJ17" s="377"/>
+      <c r="AK17" s="377"/>
+      <c r="AL17" s="377"/>
+      <c r="AM17" s="377"/>
+      <c r="AN17" s="378"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="120"/>
+      <c r="BA17" s="120"/>
+      <c r="BB17" s="120"/>
+      <c r="BC17" s="120"/>
+      <c r="BD17" s="120"/>
+      <c r="BE17" s="120"/>
+      <c r="BF17" s="120"/>
+      <c r="BG17" s="120"/>
+      <c r="BH17" s="120"/>
+      <c r="BI17" s="120"/>
       <c r="BJ17" s="105"/>
       <c r="BK17" s="105"/>
       <c r="BL17" s="105"/>
@@ -14564,17 +14576,17 @@
       <c r="CL17" s="105"/>
       <c r="CM17" s="105"/>
       <c r="CN17" s="105"/>
-      <c r="CO17" s="121"/>
-      <c r="CP17" s="121"/>
-      <c r="CQ17" s="121"/>
-      <c r="CR17" s="121"/>
-      <c r="CS17" s="121"/>
-      <c r="CT17" s="121"/>
-      <c r="CU17" s="121"/>
-      <c r="CV17" s="121"/>
-      <c r="CW17" s="121"/>
-      <c r="CX17" s="121"/>
-      <c r="CY17" s="121"/>
+      <c r="CO17" s="120"/>
+      <c r="CP17" s="120"/>
+      <c r="CQ17" s="120"/>
+      <c r="CR17" s="120"/>
+      <c r="CS17" s="120"/>
+      <c r="CT17" s="120"/>
+      <c r="CU17" s="120"/>
+      <c r="CV17" s="120"/>
+      <c r="CW17" s="120"/>
+      <c r="CX17" s="120"/>
+      <c r="CY17" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="138">
@@ -14746,120 +14758,120 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="25.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="74"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="71" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="71" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="75" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="75" t="s">
         <v>61</v>
       </c>
